--- a/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="400">
   <si>
     <t>Sex</t>
   </si>
@@ -184,7 +184,7 @@
     <t>4424.0 (±314.5)</t>
   </si>
   <si>
-    <t>5830.8 (±382.0)</t>
+    <t>6123.4 (±380.3)</t>
   </si>
   <si>
     <t>2393.2 (±166.2)</t>
@@ -193,7 +193,7 @@
     <t>1188.0 (±121.8)</t>
   </si>
   <si>
-    <t>3032.6 (±285.4)</t>
+    <t>3236.8 (±295.0)</t>
   </si>
   <si>
     <t>2676.8 (±107.7)</t>
@@ -202,7 +202,7 @@
     <t>649.2 (±75.3)</t>
   </si>
   <si>
-    <t>2833.0 (±126.6)</t>
+    <t>2982.6 (±125.3)</t>
   </si>
   <si>
     <t>42600.6 (±2292.8)</t>
@@ -253,7 +253,7 @@
     <t>914.4 (±138.8)</t>
   </si>
   <si>
-    <t>1062.0 (±99.9)</t>
+    <t>1442.6 (±103.0)</t>
   </si>
   <si>
     <t>863.4 (±75.0)</t>
@@ -262,13 +262,13 @@
     <t>19676.2 (±1567.7)</t>
   </si>
   <si>
-    <t>5491.4 (±263.2)</t>
+    <t>5764.2 (±262.5)</t>
   </si>
   <si>
     <t>-158.0 (±314.5)</t>
   </si>
   <si>
-    <t>-456.8 (±382.0)</t>
+    <t>-439.4 (±380.3)</t>
   </si>
   <si>
     <t>493.8 (±166.2)</t>
@@ -277,7 +277,7 @@
     <t>133.0 (±121.8)</t>
   </si>
   <si>
-    <t>840.4 (±285.4)</t>
+    <t>887.2 (±295.0)</t>
   </si>
   <si>
     <t>-244.8 (±107.7)</t>
@@ -286,7 +286,7 @@
     <t>269.8 (±75.3)</t>
   </si>
   <si>
-    <t>-33.0 (±126.6)</t>
+    <t>-14.6 (±125.3)</t>
   </si>
   <si>
     <t>4165.4 (±2292.8)</t>
@@ -337,7 +337,7 @@
     <t>-26.4 (±138.8)</t>
   </si>
   <si>
-    <t>435.0 (±99.9)</t>
+    <t>466.4 (±103.0)</t>
   </si>
   <si>
     <t>254.6 (±75.0)</t>
@@ -346,13 +346,13 @@
     <t>595.8 (±1567.7)</t>
   </si>
   <si>
-    <t>-528.4 (±263.2)</t>
+    <t>-583.2 (±262.5)</t>
   </si>
   <si>
     <t>-3.6% (±6.4%)</t>
   </si>
   <si>
-    <t>-7.8% (±5.7%)</t>
+    <t>-7.2% (±5.4%)</t>
   </si>
   <si>
     <t>20.6% (±7.8%)</t>
@@ -361,7 +361,7 @@
     <t>11.2% (±10.3%)</t>
   </si>
   <si>
-    <t>27.7% (±11.0%)</t>
+    <t>27.4% (±10.6%)</t>
   </si>
   <si>
     <t>-9.1% (±3.6%)</t>
@@ -370,7 +370,7 @@
     <t>41.6% (±14.8%)</t>
   </si>
   <si>
-    <t>-1.2% (±4.2%)</t>
+    <t>-0.5% (±4.0%)</t>
   </si>
   <si>
     <t>9.8% (±5.6%)</t>
@@ -421,7 +421,7 @@
     <t>-2.9% (±12.8%)</t>
   </si>
   <si>
-    <t>41.0% (±12.2%)</t>
+    <t>32.3% (±8.8%)</t>
   </si>
   <si>
     <t>29.5% (±10.4%)</t>
@@ -430,13 +430,13 @@
     <t>3.0% (±7.6%)</t>
   </si>
   <si>
-    <t>-9.6% (±4.2%)</t>
+    <t>-10.1% (±3.9%)</t>
   </si>
   <si>
     <t>-263.5(±524.5)</t>
   </si>
   <si>
-    <t>-561.0(±469.1)</t>
+    <t>-539.6(±467.0)</t>
   </si>
   <si>
     <t>2019.8(±679.8)</t>
@@ -445,7 +445,7 @@
     <t>784.5(±718.4)</t>
   </si>
   <si>
-    <t>1837.9(±624.2)</t>
+    <t>1940.3(±645.1)</t>
   </si>
   <si>
     <t>-381.3(±167.8)</t>
@@ -454,7 +454,7 @@
     <t>2998.1(±836.8)</t>
   </si>
   <si>
-    <t>-85.7(±328.7)</t>
+    <t>-37.9(±325.4)</t>
   </si>
   <si>
     <t>652.9(±359.4)</t>
@@ -505,7 +505,7 @@
     <t>-114.3(±600.9)</t>
   </si>
   <si>
-    <t>2332.3(±535.6)</t>
+    <t>2500.7(±552.2)</t>
   </si>
   <si>
     <t>1952.0(±575.0)</t>
@@ -514,7 +514,7 @@
     <t>157.1(±413.5)</t>
   </si>
   <si>
-    <t>-770.3(±383.7)</t>
+    <t>-850.1(±382.6)</t>
   </si>
   <si>
     <t>Male</t>
@@ -523,7 +523,7 @@
     <t>1591.8 (±141.8)</t>
   </si>
   <si>
-    <t>2539.8 (±188.8)</t>
+    <t>2670.0 (±197.2)</t>
   </si>
   <si>
     <t>1199.8 (±72.6)</t>
@@ -532,7 +532,7 @@
     <t>410.0 (±33.8)</t>
   </si>
   <si>
-    <t>1110.6 (±107.8)</t>
+    <t>1190.6 (±106.9)</t>
   </si>
   <si>
     <t>1247.8 (±75.5)</t>
@@ -541,7 +541,7 @@
     <t>155.8 (±19.2)</t>
   </si>
   <si>
-    <t>1066.6 (±98.4)</t>
+    <t>1123.6 (±105.5)</t>
   </si>
   <si>
     <t>19588.8 (±1198.3)</t>
@@ -592,7 +592,7 @@
     <t>444.2 (±59.3)</t>
   </si>
   <si>
-    <t>371.6 (±28.2)</t>
+    <t>505.0 (±30.0)</t>
   </si>
   <si>
     <t>270.0 (±31.9)</t>
@@ -601,13 +601,13 @@
     <t>9172.2 (±723.4)</t>
   </si>
   <si>
-    <t>2745.6 (±110.4)</t>
+    <t>2875.6 (±122.6)</t>
   </si>
   <si>
     <t>243.2 (±141.8)</t>
   </si>
   <si>
-    <t>186.2 (±188.8)</t>
+    <t>204.0 (±197.2)</t>
   </si>
   <si>
     <t>375.2 (±72.6)</t>
@@ -616,7 +616,7 @@
     <t>121.0 (±33.8)</t>
   </si>
   <si>
-    <t>660.4 (±107.8)</t>
+    <t>656.4 (±106.9)</t>
   </si>
   <si>
     <t>5.2 (±75.5)</t>
@@ -625,7 +625,7 @@
     <t>112.2 (±19.2)</t>
   </si>
   <si>
-    <t>110.4 (±98.4)</t>
+    <t>118.4 (±105.5)</t>
   </si>
   <si>
     <t>3769.2 (±1198.3)</t>
@@ -676,7 +676,7 @@
     <t>34.8 (±59.3)</t>
   </si>
   <si>
-    <t>153.4 (±28.2)</t>
+    <t>159.0 (±30.0)</t>
   </si>
   <si>
     <t>154.0 (±31.9)</t>
@@ -685,13 +685,13 @@
     <t>1797.8 (±723.4)</t>
   </si>
   <si>
-    <t>-73.6 (±110.4)</t>
+    <t>-95.6 (±122.6)</t>
   </si>
   <si>
     <t>15.3% (±9.5%)</t>
   </si>
   <si>
-    <t>7.3% (±7.4%)</t>
+    <t>7.6% (±7.4%)</t>
   </si>
   <si>
     <t>31.3% (±7.5%)</t>
@@ -700,7 +700,7 @@
     <t>29.5% (±9.9%)</t>
   </si>
   <si>
-    <t>59.5% (±14.1%)</t>
+    <t>55.1% (±12.7%)</t>
   </si>
   <si>
     <t>0.4% (±5.7%)</t>
@@ -709,7 +709,7 @@
     <t>72.0% (±18.9%)</t>
   </si>
   <si>
-    <t>10.4% (±9.4%)</t>
+    <t>10.5% (±9.5%)</t>
   </si>
   <si>
     <t>19.2% (±6.8%)</t>
@@ -760,7 +760,7 @@
     <t>7.8% (±12.7%)</t>
   </si>
   <si>
-    <t>41.3% (±10.0%)</t>
+    <t>31.5% (±7.4%)</t>
   </si>
   <si>
     <t>57.0% (±16.6%)</t>
@@ -769,13 +769,13 @@
     <t>19.6% (±8.7%)</t>
   </si>
   <si>
-    <t>-2.7% (±3.7%)</t>
+    <t>-3.3% (±4.0%)</t>
   </si>
   <si>
     <t>1123.3(±654.9)</t>
   </si>
   <si>
-    <t>602.7(±611.1)</t>
+    <t>660.3(±638.3)</t>
   </si>
   <si>
     <t>3370.5(±652.1)</t>
@@ -784,7 +784,7 @@
     <t>2224.3(±621.3)</t>
   </si>
   <si>
-    <t>4184.8(±683.1)</t>
+    <t>4159.4(±677.4)</t>
   </si>
   <si>
     <t>20.4(±296.2)</t>
@@ -793,7 +793,7 @@
     <t>5678.1(±971.7)</t>
   </si>
   <si>
-    <t>845.3(±753.4)</t>
+    <t>906.5(±807.8)</t>
   </si>
   <si>
     <t>1663.6(±528.9)</t>
@@ -844,7 +844,7 @@
     <t>271.1(±462.1)</t>
   </si>
   <si>
-    <t>2327.1(±427.8)</t>
+    <t>2412.0(±455.1)</t>
   </si>
   <si>
     <t>4180.2(±865.9)</t>
@@ -853,19 +853,16 @@
     <t>1137.8(±457.9)</t>
   </si>
   <si>
-    <t>-247.8(±371.7)</t>
+    <t>-321.9(±412.8)</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>6015.8 (±425.0)</t>
   </si>
   <si>
-    <t>8370.6 (±551.3)</t>
+    <t>8793.4 (±552.9)</t>
   </si>
   <si>
     <t>3593.0 (±230.2)</t>
@@ -874,7 +871,7 @@
     <t>1598.0 (±148.1)</t>
   </si>
   <si>
-    <t>4143.2 (±389.1)</t>
+    <t>4427.4 (±398.3)</t>
   </si>
   <si>
     <t>3924.6 (±176.4)</t>
@@ -883,15 +880,12 @@
     <t>805.0 (±94.1)</t>
   </si>
   <si>
-    <t>3899.6 (±220.4)</t>
+    <t>4106.2 (±226.6)</t>
   </si>
   <si>
     <t>62189.4 (±3462.9)</t>
   </si>
   <si>
-    <t>65581.5 (±23397.5)</t>
-  </si>
-  <si>
     <t>6709.4 (±719.6)</t>
   </si>
   <si>
@@ -937,7 +931,7 @@
     <t>1358.6 (±195.6)</t>
   </si>
   <si>
-    <t>1433.6 (±126.1)</t>
+    <t>1947.6 (±129.3)</t>
   </si>
   <si>
     <t>1133.4 (±105.5)</t>
@@ -946,13 +940,13 @@
     <t>28848.4 (±2262.1)</t>
   </si>
   <si>
-    <t>8237.0 (±364.1)</t>
+    <t>8639.8 (±377.4)</t>
   </si>
   <si>
     <t>85.2 (±425.0)</t>
   </si>
   <si>
-    <t>-270.6 (±551.3)</t>
+    <t>-235.4 (±552.9)</t>
   </si>
   <si>
     <t>869.0 (±230.2)</t>
@@ -961,7 +955,7 @@
     <t>254.0 (±148.1)</t>
   </si>
   <si>
-    <t>1500.8 (±389.1)</t>
+    <t>1543.6 (±398.3)</t>
   </si>
   <si>
     <t>-239.6 (±176.4)</t>
@@ -970,15 +964,12 @@
     <t>382.0 (±94.1)</t>
   </si>
   <si>
-    <t>77.4 (±220.4)</t>
+    <t>103.8 (±226.6)</t>
   </si>
   <si>
     <t>7934.6 (±3462.9)</t>
   </si>
   <si>
-    <t>3721.5 (±23397.5)</t>
-  </si>
-  <si>
     <t>1033.6 (±719.6)</t>
   </si>
   <si>
@@ -1024,7 +1015,7 @@
     <t>8.4 (±195.6)</t>
   </si>
   <si>
-    <t>588.4 (±126.1)</t>
+    <t>625.4 (±129.3)</t>
   </si>
   <si>
     <t>408.6 (±105.5)</t>
@@ -1033,13 +1024,13 @@
     <t>2391.6 (±2262.1)</t>
   </si>
   <si>
-    <t>-602.0 (±364.1)</t>
+    <t>-678.8 (±377.4)</t>
   </si>
   <si>
     <t>1.4% (±6.7%)</t>
   </si>
   <si>
-    <t>-3.2% (±6.0%)</t>
+    <t>-2.7% (±5.7%)</t>
   </si>
   <si>
     <t>24.2% (±7.5%)</t>
@@ -1048,7 +1039,7 @@
     <t>15.9% (±9.8%)</t>
   </si>
   <si>
-    <t>36.2% (±11.7%)</t>
+    <t>34.9% (±11.2%)</t>
   </si>
   <si>
     <t>-6.1% (±4.0%)</t>
@@ -1057,15 +1048,12 @@
     <t>47.5% (±15.5%)</t>
   </si>
   <si>
-    <t>2.0% (±5.5%)</t>
+    <t>2.5% (±5.3%)</t>
   </si>
   <si>
     <t>12.8% (±6.0%)</t>
   </si>
   <si>
-    <t>5.7% (±27.8%)</t>
-  </si>
-  <si>
     <t>15.4% (±11.2%)</t>
   </si>
   <si>
@@ -1111,7 +1099,7 @@
     <t>0.6% (±12.6%)</t>
   </si>
   <si>
-    <t>41.0% (±11.4%)</t>
+    <t>32.1% (±8.2%)</t>
   </si>
   <si>
     <t>36.1% (±11.6%)</t>
@@ -1120,13 +1108,13 @@
     <t>8.3% (±7.9%)</t>
   </si>
   <si>
-    <t>-7.3% (±3.9%)</t>
+    <t>-7.9% (±3.8%)</t>
   </si>
   <si>
     <t>104.4(±520.8)</t>
   </si>
   <si>
-    <t>-240.9(±490.8)</t>
+    <t>-209.6(±492.3)</t>
   </si>
   <si>
     <t>2442.4(±647.0)</t>
@@ -1135,7 +1123,7 @@
     <t>1134.2(±661.4)</t>
   </si>
   <si>
-    <t>2440.0(±632.7)</t>
+    <t>2509.6(±647.6)</t>
   </si>
   <si>
     <t>-267.1(±196.6)</t>
@@ -1144,15 +1132,12 @@
     <t>3480.6(±857.4)</t>
   </si>
   <si>
-    <t>150.1(±427.3)</t>
+    <t>201.3(±439.4)</t>
   </si>
   <si>
     <t>917.8(±400.6)</t>
   </si>
   <si>
-    <t>468.1(±2943.3)</t>
-  </si>
-  <si>
     <t>826.7(±575.5)</t>
   </si>
   <si>
@@ -1198,7 +1183,7 @@
     <t>23.4(±544.3)</t>
   </si>
   <si>
-    <t>2330.9(±499.6)</t>
+    <t>2477.5(±512.2)</t>
   </si>
   <si>
     <t>2442.8(±630.7)</t>
@@ -1207,7 +1192,7 @@
     <t>445.2(±421.1)</t>
   </si>
   <si>
-    <t>-612.4(±370.4)</t>
+    <t>-690.5(±383.9)</t>
   </si>
   <si>
     <t>Age</t>
@@ -1757,52 +1742,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>5958</v>
+        <v>6263</v>
       </c>
       <c r="D3">
-        <v>5052</v>
+        <v>5340</v>
       </c>
       <c r="E3">
-        <v>5948</v>
+        <v>6230</v>
       </c>
       <c r="F3">
-        <v>6390</v>
+        <v>6668</v>
       </c>
       <c r="G3">
-        <v>5806</v>
+        <v>6116</v>
       </c>
       <c r="H3">
-        <v>5374</v>
+        <v>5684</v>
       </c>
       <c r="I3">
-        <v>5830.8</v>
+        <v>6123.400000000001</v>
       </c>
       <c r="J3">
-        <v>435.8</v>
+        <v>433.9</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>382</v>
+        <v>380.3</v>
       </c>
       <c r="M3">
-        <v>5448.8</v>
+        <v>5743.1</v>
       </c>
       <c r="N3">
-        <v>6212.8</v>
+        <v>6503.700000000001</v>
       </c>
       <c r="O3">
-        <v>-456.8</v>
+        <v>-439.4</v>
       </c>
       <c r="P3">
-        <v>382</v>
+        <v>380.3</v>
       </c>
       <c r="Q3">
-        <v>-7.8</v>
+        <v>-7.2</v>
       </c>
       <c r="R3">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -1817,10 +1802,10 @@
         <v>81428</v>
       </c>
       <c r="W3">
-        <v>-561</v>
+        <v>-539.6</v>
       </c>
       <c r="X3">
-        <v>469.1</v>
+        <v>467</v>
       </c>
       <c r="Y3" t="s">
         <v>139</v>
@@ -1988,52 +1973,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>3003</v>
+        <v>3216</v>
       </c>
       <c r="D6">
-        <v>2441</v>
+        <v>2620</v>
       </c>
       <c r="E6">
-        <v>3369</v>
+        <v>3570</v>
       </c>
       <c r="F6">
-        <v>3288</v>
+        <v>3507</v>
       </c>
       <c r="G6">
-        <v>3062</v>
+        <v>3271</v>
       </c>
       <c r="H6">
-        <v>3873</v>
+        <v>4124</v>
       </c>
       <c r="I6">
-        <v>3032.599999999999</v>
+        <v>3236.799999999999</v>
       </c>
       <c r="J6">
-        <v>325.6</v>
+        <v>336.5</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>285.4</v>
+        <v>295</v>
       </c>
       <c r="M6">
-        <v>2747.199999999999</v>
+        <v>2941.799999999999</v>
       </c>
       <c r="N6">
-        <v>3318</v>
+        <v>3531.799999999999</v>
       </c>
       <c r="O6">
-        <v>840.4</v>
+        <v>887.2</v>
       </c>
       <c r="P6">
-        <v>285.4</v>
+        <v>295</v>
       </c>
       <c r="Q6">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="R6">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="s">
         <v>58</v>
@@ -2048,10 +2033,10 @@
         <v>45726</v>
       </c>
       <c r="W6">
-        <v>1837.9</v>
+        <v>1940.3</v>
       </c>
       <c r="X6">
-        <v>624.2</v>
+        <v>645.1</v>
       </c>
       <c r="Y6" t="s">
         <v>142</v>
@@ -2219,52 +2204,52 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>2713</v>
+        <v>2861</v>
       </c>
       <c r="D9">
-        <v>2674</v>
+        <v>2820</v>
       </c>
       <c r="E9">
-        <v>2808</v>
+        <v>2959</v>
       </c>
       <c r="F9">
-        <v>3079</v>
+        <v>3217</v>
       </c>
       <c r="G9">
-        <v>2891</v>
+        <v>3056</v>
       </c>
       <c r="H9">
-        <v>2800</v>
+        <v>2968</v>
       </c>
       <c r="I9">
-        <v>2833.000000000001</v>
+        <v>2982.600000000001</v>
       </c>
       <c r="J9">
-        <v>144.4</v>
+        <v>142.9</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>126.6</v>
+        <v>125.3</v>
       </c>
       <c r="M9">
-        <v>2706.400000000001</v>
+        <v>2857.300000000001</v>
       </c>
       <c r="N9">
-        <v>2959.600000000001</v>
+        <v>3107.900000000001</v>
       </c>
       <c r="O9">
-        <v>-33</v>
+        <v>-14.6</v>
       </c>
       <c r="P9">
-        <v>126.6</v>
+        <v>125.3</v>
       </c>
       <c r="Q9">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
         <v>61</v>
@@ -2279,10 +2264,10 @@
         <v>38511</v>
       </c>
       <c r="W9">
-        <v>-85.7</v>
+        <v>-37.9</v>
       </c>
       <c r="X9">
-        <v>328.7</v>
+        <v>325.4</v>
       </c>
       <c r="Y9" t="s">
         <v>145</v>
@@ -3528,52 +3513,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1008</v>
+        <v>1365</v>
       </c>
       <c r="D26">
-        <v>878</v>
+        <v>1262</v>
       </c>
       <c r="E26">
-        <v>1220</v>
+        <v>1601</v>
       </c>
       <c r="F26">
-        <v>1100</v>
+        <v>1504</v>
       </c>
       <c r="G26">
-        <v>1104</v>
+        <v>1481</v>
       </c>
       <c r="H26">
-        <v>1497</v>
+        <v>1909</v>
       </c>
       <c r="I26">
-        <v>1062</v>
+        <v>1442.6</v>
       </c>
       <c r="J26">
-        <v>114</v>
+        <v>117.5</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>99.90000000000001</v>
+        <v>103</v>
       </c>
       <c r="M26">
-        <v>962.1</v>
+        <v>1339.6</v>
       </c>
       <c r="N26">
-        <v>1161.9</v>
+        <v>1545.6</v>
       </c>
       <c r="O26">
-        <v>435</v>
+        <v>466.4</v>
       </c>
       <c r="P26">
-        <v>99.90000000000001</v>
+        <v>103</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>32.3</v>
       </c>
       <c r="R26">
-        <v>12.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S26" t="s">
         <v>78</v>
@@ -3588,10 +3573,10 @@
         <v>18651</v>
       </c>
       <c r="W26">
-        <v>2332.3</v>
+        <v>2500.7</v>
       </c>
       <c r="X26">
-        <v>535.6</v>
+        <v>552.2</v>
       </c>
       <c r="Y26" t="s">
         <v>162</v>
@@ -3759,52 +3744,52 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>5656</v>
+        <v>5899</v>
       </c>
       <c r="D29">
-        <v>5245</v>
+        <v>5509</v>
       </c>
       <c r="E29">
-        <v>5638</v>
+        <v>5931</v>
       </c>
       <c r="F29">
-        <v>5871</v>
+        <v>6151</v>
       </c>
       <c r="G29">
-        <v>5047</v>
+        <v>5331</v>
       </c>
       <c r="H29">
-        <v>4963</v>
+        <v>5181</v>
       </c>
       <c r="I29">
-        <v>5491.400000000001</v>
+        <v>5764.200000000001</v>
       </c>
       <c r="J29">
-        <v>300.3</v>
+        <v>299.5</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>263.2</v>
+        <v>262.5</v>
       </c>
       <c r="M29">
-        <v>5228.200000000001</v>
+        <v>5501.700000000001</v>
       </c>
       <c r="N29">
-        <v>5754.6</v>
+        <v>6026.700000000001</v>
       </c>
       <c r="O29">
-        <v>-528.4</v>
+        <v>-583.2</v>
       </c>
       <c r="P29">
-        <v>263.2</v>
+        <v>262.5</v>
       </c>
       <c r="Q29">
-        <v>-9.6</v>
+        <v>-10.1</v>
       </c>
       <c r="R29">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="S29" t="s">
         <v>81</v>
@@ -3819,10 +3804,10 @@
         <v>68600</v>
       </c>
       <c r="W29">
-        <v>-770.3</v>
+        <v>-850.1</v>
       </c>
       <c r="X29">
-        <v>383.7</v>
+        <v>382.6</v>
       </c>
       <c r="Y29" t="s">
         <v>165</v>
@@ -4003,49 +3988,49 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>2428</v>
+        <v>2540</v>
       </c>
       <c r="D3">
-        <v>2168</v>
+        <v>2288</v>
       </c>
       <c r="E3">
-        <v>2661</v>
+        <v>2796</v>
       </c>
       <c r="F3">
-        <v>2741</v>
+        <v>2862</v>
       </c>
       <c r="G3">
-        <v>2701</v>
+        <v>2864</v>
       </c>
       <c r="H3">
-        <v>2726</v>
+        <v>2874</v>
       </c>
       <c r="I3">
-        <v>2539.8</v>
+        <v>2670</v>
       </c>
       <c r="J3">
-        <v>215.4</v>
+        <v>225</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>188.8</v>
+        <v>197.2</v>
       </c>
       <c r="M3">
-        <v>2351</v>
+        <v>2472.8</v>
       </c>
       <c r="N3">
-        <v>2728.6</v>
+        <v>2867.199999999999</v>
       </c>
       <c r="O3">
-        <v>186.2</v>
+        <v>204</v>
       </c>
       <c r="P3">
-        <v>188.8</v>
+        <v>197.2</v>
       </c>
       <c r="Q3">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="R3">
         <v>7.4</v>
@@ -4063,10 +4048,10 @@
         <v>30894</v>
       </c>
       <c r="W3">
-        <v>602.7</v>
+        <v>660.3</v>
       </c>
       <c r="X3">
-        <v>611.1</v>
+        <v>638.3</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4234,52 +4219,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>1116</v>
+        <v>1188</v>
       </c>
       <c r="D6">
-        <v>893</v>
+        <v>974</v>
       </c>
       <c r="E6">
-        <v>1275</v>
+        <v>1351</v>
       </c>
       <c r="F6">
-        <v>1130</v>
+        <v>1220</v>
       </c>
       <c r="G6">
-        <v>1139</v>
+        <v>1220</v>
       </c>
       <c r="H6">
-        <v>1771</v>
+        <v>1847</v>
       </c>
       <c r="I6">
-        <v>1110.6</v>
+        <v>1190.6</v>
       </c>
       <c r="J6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>107.8</v>
+        <v>106.9</v>
       </c>
       <c r="M6">
-        <v>1002.8</v>
+        <v>1083.7</v>
       </c>
       <c r="N6">
-        <v>1218.4</v>
+        <v>1297.5</v>
       </c>
       <c r="O6">
-        <v>660.4</v>
+        <v>656.4</v>
       </c>
       <c r="P6">
-        <v>107.8</v>
+        <v>106.9</v>
       </c>
       <c r="Q6">
-        <v>59.5</v>
+        <v>55.1</v>
       </c>
       <c r="R6">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="s">
         <v>171</v>
@@ -4294,10 +4279,10 @@
         <v>15781</v>
       </c>
       <c r="W6">
-        <v>4184.8</v>
+        <v>4159.4</v>
       </c>
       <c r="X6">
-        <v>683.1</v>
+        <v>677.4</v>
       </c>
       <c r="Y6" t="s">
         <v>255</v>
@@ -4465,52 +4450,52 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>923</v>
+        <v>971</v>
       </c>
       <c r="D9">
-        <v>953</v>
+        <v>999</v>
       </c>
       <c r="E9">
-        <v>1085</v>
+        <v>1144</v>
       </c>
       <c r="F9">
-        <v>1204</v>
+        <v>1264</v>
       </c>
       <c r="G9">
-        <v>1168</v>
+        <v>1240</v>
       </c>
       <c r="H9">
-        <v>1177</v>
+        <v>1242</v>
       </c>
       <c r="I9">
-        <v>1066.6</v>
+        <v>1123.6</v>
       </c>
       <c r="J9">
-        <v>112.3</v>
+        <v>120.4</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>98.40000000000001</v>
+        <v>105.5</v>
       </c>
       <c r="M9">
-        <v>968.1999999999999</v>
+        <v>1018.1</v>
       </c>
       <c r="N9">
-        <v>1165</v>
+        <v>1229.1</v>
       </c>
       <c r="O9">
-        <v>110.4</v>
+        <v>118.4</v>
       </c>
       <c r="P9">
-        <v>98.40000000000001</v>
+        <v>105.5</v>
       </c>
       <c r="Q9">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="R9">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S9" t="s">
         <v>174</v>
@@ -4525,10 +4510,10 @@
         <v>13061</v>
       </c>
       <c r="W9">
-        <v>845.3</v>
+        <v>906.5</v>
       </c>
       <c r="X9">
-        <v>753.4</v>
+        <v>807.8</v>
       </c>
       <c r="Y9" t="s">
         <v>258</v>
@@ -5774,52 +5759,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>370</v>
+        <v>506</v>
       </c>
       <c r="D26">
-        <v>327</v>
+        <v>456</v>
       </c>
       <c r="E26">
-        <v>427</v>
+        <v>561</v>
       </c>
       <c r="F26">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="G26">
-        <v>373</v>
+        <v>513</v>
       </c>
       <c r="H26">
-        <v>525</v>
+        <v>664</v>
       </c>
       <c r="I26">
-        <v>371.6</v>
+        <v>505</v>
       </c>
       <c r="J26">
-        <v>32.2</v>
+        <v>34.2</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>28.2</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>343.4</v>
+        <v>475</v>
       </c>
       <c r="N26">
-        <v>399.8</v>
+        <v>535</v>
       </c>
       <c r="O26">
-        <v>153.4</v>
+        <v>159</v>
       </c>
       <c r="P26">
-        <v>28.2</v>
+        <v>30</v>
       </c>
       <c r="Q26">
-        <v>41.3</v>
+        <v>31.5</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="S26" t="s">
         <v>191</v>
@@ -5834,10 +5819,10 @@
         <v>6592</v>
       </c>
       <c r="W26">
-        <v>2327.1</v>
+        <v>2412</v>
       </c>
       <c r="X26">
-        <v>427.8</v>
+        <v>455.1</v>
       </c>
       <c r="Y26" t="s">
         <v>275</v>
@@ -6005,52 +5990,52 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>2777</v>
+        <v>2913</v>
       </c>
       <c r="D29">
-        <v>2590</v>
+        <v>2707</v>
       </c>
       <c r="E29">
-        <v>2904</v>
+        <v>3047</v>
       </c>
       <c r="F29">
-        <v>2848</v>
+        <v>2993</v>
       </c>
       <c r="G29">
-        <v>2609</v>
+        <v>2718</v>
       </c>
       <c r="H29">
-        <v>2672</v>
+        <v>2780</v>
       </c>
       <c r="I29">
-        <v>2745.6</v>
+        <v>2875.6</v>
       </c>
       <c r="J29">
-        <v>126</v>
+        <v>139.9</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>110.4</v>
+        <v>122.6</v>
       </c>
       <c r="M29">
-        <v>2635.2</v>
+        <v>2753</v>
       </c>
       <c r="N29">
-        <v>2856</v>
+        <v>2998.2</v>
       </c>
       <c r="O29">
-        <v>-73.59999999999999</v>
+        <v>-95.59999999999999</v>
       </c>
       <c r="P29">
-        <v>110.4</v>
+        <v>122.6</v>
       </c>
       <c r="Q29">
-        <v>-2.7</v>
+        <v>-3.3</v>
       </c>
       <c r="R29">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="S29" t="s">
         <v>194</v>
@@ -6065,10 +6050,10 @@
         <v>29703</v>
       </c>
       <c r="W29">
-        <v>-247.8</v>
+        <v>-321.9</v>
       </c>
       <c r="X29">
-        <v>371.7</v>
+        <v>412.8</v>
       </c>
       <c r="Y29" t="s">
         <v>278</v>
@@ -6081,7 +6066,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6220,13 +6205,13 @@
         <v>6.7</v>
       </c>
       <c r="S2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="U2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="V2">
         <v>81611</v>
@@ -6238,7 +6223,7 @@
         <v>520.8</v>
       </c>
       <c r="Y2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -6249,73 +6234,73 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>8386</v>
+        <v>8803</v>
       </c>
       <c r="D3">
-        <v>7220</v>
+        <v>7628</v>
       </c>
       <c r="E3">
-        <v>8609</v>
+        <v>9026</v>
       </c>
       <c r="F3">
-        <v>9131</v>
+        <v>9530</v>
       </c>
       <c r="G3">
-        <v>8507</v>
+        <v>8980</v>
       </c>
       <c r="H3">
-        <v>8100</v>
+        <v>8558</v>
       </c>
       <c r="I3">
-        <v>8370.599999999999</v>
+        <v>8793.399999999998</v>
       </c>
       <c r="J3">
-        <v>628.9</v>
+        <v>630.8</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>551.3</v>
+        <v>552.9</v>
       </c>
       <c r="M3">
-        <v>7819.299999999998</v>
+        <v>8240.499999999998</v>
       </c>
       <c r="N3">
-        <v>8921.899999999998</v>
+        <v>9346.299999999997</v>
       </c>
       <c r="O3">
-        <v>-270.6</v>
+        <v>-235.4</v>
       </c>
       <c r="P3">
-        <v>551.3</v>
+        <v>552.9</v>
       </c>
       <c r="Q3">
-        <v>-3.2</v>
+        <v>-2.7</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="S3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V3">
         <v>112322</v>
       </c>
       <c r="W3">
-        <v>-240.9</v>
+        <v>-209.6</v>
       </c>
       <c r="X3">
-        <v>490.8</v>
+        <v>492.3</v>
       </c>
       <c r="Y3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -6374,13 +6359,13 @@
         <v>7.5</v>
       </c>
       <c r="S4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="V4">
         <v>35580</v>
@@ -6392,7 +6377,7 @@
         <v>647</v>
       </c>
       <c r="Y4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -6451,13 +6436,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="U5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V5">
         <v>22394</v>
@@ -6469,7 +6454,7 @@
         <v>661.4</v>
       </c>
       <c r="Y5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -6480,73 +6465,73 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>4119</v>
+        <v>4404</v>
       </c>
       <c r="D6">
-        <v>3334</v>
+        <v>3594</v>
       </c>
       <c r="E6">
-        <v>4644</v>
+        <v>4921</v>
       </c>
       <c r="F6">
-        <v>4418</v>
+        <v>4727</v>
       </c>
       <c r="G6">
-        <v>4201</v>
+        <v>4491</v>
       </c>
       <c r="H6">
-        <v>5644</v>
+        <v>5971</v>
       </c>
       <c r="I6">
-        <v>4143.2</v>
+        <v>4427.4</v>
       </c>
       <c r="J6">
-        <v>443.9</v>
+        <v>454.4</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>389.1</v>
+        <v>398.3</v>
       </c>
       <c r="M6">
-        <v>3754.1</v>
+        <v>4029.099999999999</v>
       </c>
       <c r="N6">
-        <v>4532.3</v>
+        <v>4825.7</v>
       </c>
       <c r="O6">
-        <v>1500.8</v>
+        <v>1543.6</v>
       </c>
       <c r="P6">
-        <v>389.1</v>
+        <v>398.3</v>
       </c>
       <c r="Q6">
-        <v>36.2</v>
+        <v>34.9</v>
       </c>
       <c r="R6">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="U6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V6">
         <v>61507</v>
       </c>
       <c r="W6">
-        <v>2440</v>
+        <v>2509.6</v>
       </c>
       <c r="X6">
-        <v>632.7</v>
+        <v>647.6</v>
       </c>
       <c r="Y6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -6605,13 +6590,13 @@
         <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="U7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V7">
         <v>89698</v>
@@ -6623,7 +6608,7 @@
         <v>196.6</v>
       </c>
       <c r="Y7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -6682,13 +6667,13 @@
         <v>15.5</v>
       </c>
       <c r="S8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="U8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V8">
         <v>10975</v>
@@ -6700,7 +6685,7 @@
         <v>857.4</v>
       </c>
       <c r="Y8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6711,73 +6696,73 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>3636</v>
+        <v>3832</v>
       </c>
       <c r="D9">
-        <v>3627</v>
+        <v>3819</v>
       </c>
       <c r="E9">
-        <v>3893</v>
+        <v>4103</v>
       </c>
       <c r="F9">
-        <v>4283</v>
+        <v>4481</v>
       </c>
       <c r="G9">
-        <v>4059</v>
+        <v>4296</v>
       </c>
       <c r="H9">
-        <v>3977</v>
+        <v>4210</v>
       </c>
       <c r="I9">
-        <v>3899.6</v>
+        <v>4106.2</v>
       </c>
       <c r="J9">
-        <v>251.5</v>
+        <v>258.5</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>220.4</v>
+        <v>226.6</v>
       </c>
       <c r="M9">
-        <v>3679.2</v>
+        <v>3879.6</v>
       </c>
       <c r="N9">
-        <v>4120</v>
+        <v>4332.8</v>
       </c>
       <c r="O9">
-        <v>77.40000000000001</v>
+        <v>103.8</v>
       </c>
       <c r="P9">
-        <v>220.4</v>
+        <v>226.6</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="S9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V9">
         <v>51572</v>
       </c>
       <c r="W9">
-        <v>150.1</v>
+        <v>201.3</v>
       </c>
       <c r="X9">
-        <v>427.3</v>
+        <v>439.4</v>
       </c>
       <c r="Y9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -6836,13 +6821,13 @@
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="U10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V10">
         <v>864526</v>
@@ -6854,7 +6839,7 @@
         <v>400.6</v>
       </c>
       <c r="Y10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -6862,76 +6847,76 @@
         <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6253</v>
       </c>
       <c r="D11">
-        <v>56952</v>
+        <v>5494</v>
       </c>
       <c r="E11">
-        <v>68447</v>
+        <v>7396</v>
       </c>
       <c r="F11">
-        <v>71821</v>
+        <v>6599</v>
       </c>
       <c r="G11">
-        <v>65107</v>
+        <v>7805</v>
       </c>
       <c r="H11">
-        <v>69303</v>
+        <v>7743</v>
       </c>
       <c r="I11">
-        <v>65581.49999999999</v>
+        <v>6709.400000000001</v>
       </c>
       <c r="J11">
-        <v>26693.1</v>
+        <v>820.9</v>
       </c>
       <c r="K11">
         <v>1.96</v>
       </c>
       <c r="L11">
-        <v>23397.5</v>
+        <v>719.6</v>
       </c>
       <c r="M11">
-        <v>42183.99999999999</v>
+        <v>5989.8</v>
       </c>
       <c r="N11">
-        <v>88978.99999999999</v>
+        <v>7429.000000000001</v>
       </c>
       <c r="O11">
-        <v>3721.5</v>
+        <v>1033.6</v>
       </c>
       <c r="P11">
-        <v>23397.5</v>
+        <v>719.6</v>
       </c>
       <c r="Q11">
-        <v>5.7</v>
+        <v>15.4</v>
       </c>
       <c r="R11">
-        <v>27.8</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="U11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V11">
-        <v>794943</v>
+        <v>125029</v>
       </c>
       <c r="W11">
-        <v>468.1</v>
+        <v>826.7</v>
       </c>
       <c r="X11">
-        <v>2943.3</v>
+        <v>575.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -6939,76 +6924,76 @@
         <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>6253</v>
+        <v>4767</v>
       </c>
       <c r="D12">
-        <v>5494</v>
+        <v>4036</v>
       </c>
       <c r="E12">
-        <v>7396</v>
+        <v>5163</v>
       </c>
       <c r="F12">
-        <v>6599</v>
+        <v>4925</v>
       </c>
       <c r="G12">
-        <v>7805</v>
+        <v>4986</v>
       </c>
       <c r="H12">
-        <v>7743</v>
+        <v>4977</v>
       </c>
       <c r="I12">
-        <v>6709.400000000001</v>
+        <v>4775.4</v>
       </c>
       <c r="J12">
-        <v>820.9</v>
+        <v>390.8</v>
       </c>
       <c r="K12">
         <v>1.96</v>
       </c>
       <c r="L12">
-        <v>719.6</v>
+        <v>342.6</v>
       </c>
       <c r="M12">
-        <v>5989.8</v>
+        <v>4432.799999999999</v>
       </c>
       <c r="N12">
-        <v>7429.000000000001</v>
+        <v>5118</v>
       </c>
       <c r="O12">
-        <v>1033.6</v>
+        <v>201.6</v>
       </c>
       <c r="P12">
-        <v>719.6</v>
+        <v>342.6</v>
       </c>
       <c r="Q12">
-        <v>15.4</v>
+        <v>4.2</v>
       </c>
       <c r="R12">
-        <v>11.2</v>
+        <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="U12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V12">
-        <v>125029</v>
+        <v>61284</v>
       </c>
       <c r="W12">
-        <v>826.7</v>
+        <v>329</v>
       </c>
       <c r="X12">
-        <v>575.5</v>
+        <v>559</v>
       </c>
       <c r="Y12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -7016,76 +7001,76 @@
         <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>4767</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>4036</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>5163</v>
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>4925</v>
+        <v>125</v>
       </c>
       <c r="G13">
-        <v>4986</v>
+        <v>105</v>
       </c>
       <c r="H13">
-        <v>4977</v>
+        <v>113</v>
       </c>
       <c r="I13">
-        <v>4775.4</v>
+        <v>113.2</v>
       </c>
       <c r="J13">
-        <v>390.8</v>
+        <v>12.8</v>
       </c>
       <c r="K13">
         <v>1.96</v>
       </c>
       <c r="L13">
-        <v>342.6</v>
+        <v>11.2</v>
       </c>
       <c r="M13">
-        <v>4432.799999999999</v>
+        <v>102</v>
       </c>
       <c r="N13">
-        <v>5118</v>
+        <v>124.4</v>
       </c>
       <c r="O13">
-        <v>201.6</v>
+        <v>-0.2</v>
       </c>
       <c r="P13">
-        <v>342.6</v>
+        <v>11.2</v>
       </c>
       <c r="Q13">
-        <v>4.2</v>
+        <v>-0.2</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V13">
-        <v>61284</v>
+        <v>2179</v>
       </c>
       <c r="W13">
-        <v>329</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="X13">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="Y13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -7093,76 +7078,76 @@
         <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>954</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>996</v>
       </c>
       <c r="E14">
-        <v>111</v>
+        <v>1122</v>
       </c>
       <c r="F14">
-        <v>125</v>
+        <v>1235</v>
       </c>
       <c r="G14">
-        <v>105</v>
+        <v>1241</v>
       </c>
       <c r="H14">
-        <v>113</v>
+        <v>1378</v>
       </c>
       <c r="I14">
-        <v>113.2</v>
+        <v>1109.6</v>
       </c>
       <c r="J14">
-        <v>12.8</v>
+        <v>118.5</v>
       </c>
       <c r="K14">
         <v>1.96</v>
       </c>
       <c r="L14">
-        <v>11.2</v>
+        <v>103.9</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>1005.7</v>
       </c>
       <c r="N14">
-        <v>124.4</v>
+        <v>1213.5</v>
       </c>
       <c r="O14">
-        <v>-0.2</v>
+        <v>268.4</v>
       </c>
       <c r="P14">
-        <v>11.2</v>
+        <v>103.9</v>
       </c>
       <c r="Q14">
-        <v>-0.2</v>
+        <v>24.2</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="S14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="U14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="V14">
-        <v>2179</v>
+        <v>14360</v>
       </c>
       <c r="W14">
-        <v>-9.199999999999999</v>
+        <v>1869.1</v>
       </c>
       <c r="X14">
-        <v>514</v>
+        <v>723.5</v>
       </c>
       <c r="Y14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -7170,76 +7155,76 @@
         <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>954</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>996</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>1122</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>1235</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>1241</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>1378</v>
+        <v>17</v>
       </c>
       <c r="I15">
-        <v>1109.6</v>
+        <v>16.8</v>
       </c>
       <c r="J15">
-        <v>118.5</v>
+        <v>3.2</v>
       </c>
       <c r="K15">
         <v>1.96</v>
       </c>
       <c r="L15">
-        <v>103.9</v>
+        <v>2.8</v>
       </c>
       <c r="M15">
-        <v>1005.7</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>1213.5</v>
+        <v>19.6</v>
       </c>
       <c r="O15">
-        <v>268.4</v>
+        <v>0.2</v>
       </c>
       <c r="P15">
-        <v>103.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q15">
-        <v>24.2</v>
+        <v>1.2</v>
       </c>
       <c r="R15">
-        <v>10.6</v>
+        <v>14.5</v>
       </c>
       <c r="S15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V15">
-        <v>14360</v>
+        <v>466</v>
       </c>
       <c r="W15">
-        <v>1869.1</v>
+        <v>42.9</v>
       </c>
       <c r="X15">
-        <v>723.5</v>
+        <v>600.9</v>
       </c>
       <c r="Y15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -7247,76 +7232,76 @@
         <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>1651</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1618</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>1847</v>
       </c>
       <c r="F16">
-        <v>22</v>
+        <v>2077</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>1916</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>2230</v>
       </c>
       <c r="I16">
-        <v>16.8</v>
+        <v>1821.8</v>
       </c>
       <c r="J16">
-        <v>3.2</v>
+        <v>170.5</v>
       </c>
       <c r="K16">
         <v>1.96</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>149.4</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>1672.4</v>
       </c>
       <c r="N16">
-        <v>19.6</v>
+        <v>1971.200000000001</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>408.2</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>149.4</v>
       </c>
       <c r="Q16">
-        <v>1.2</v>
+        <v>22.4</v>
       </c>
       <c r="R16">
-        <v>14.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V16">
-        <v>466</v>
+        <v>20980</v>
       </c>
       <c r="W16">
-        <v>42.9</v>
+        <v>1945.7</v>
       </c>
       <c r="X16">
-        <v>600.9</v>
+        <v>712.1</v>
       </c>
       <c r="Y16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -7324,76 +7309,76 @@
         <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>1651</v>
+        <v>228</v>
       </c>
       <c r="D17">
-        <v>1618</v>
+        <v>191</v>
       </c>
       <c r="E17">
-        <v>1847</v>
+        <v>218</v>
       </c>
       <c r="F17">
-        <v>2077</v>
+        <v>247</v>
       </c>
       <c r="G17">
-        <v>1916</v>
+        <v>248</v>
       </c>
       <c r="H17">
-        <v>2230</v>
+        <v>288</v>
       </c>
       <c r="I17">
-        <v>1821.8</v>
+        <v>226.4</v>
       </c>
       <c r="J17">
-        <v>170.5</v>
+        <v>21.1</v>
       </c>
       <c r="K17">
         <v>1.96</v>
       </c>
       <c r="L17">
-        <v>149.4</v>
+        <v>18.5</v>
       </c>
       <c r="M17">
-        <v>1672.4</v>
+        <v>207.9</v>
       </c>
       <c r="N17">
-        <v>1971.200000000001</v>
+        <v>244.9</v>
       </c>
       <c r="O17">
-        <v>408.2</v>
+        <v>61.6</v>
       </c>
       <c r="P17">
-        <v>149.4</v>
+        <v>18.5</v>
       </c>
       <c r="Q17">
-        <v>22.4</v>
+        <v>27.2</v>
       </c>
       <c r="R17">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="S17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="V17">
-        <v>20980</v>
+        <v>3874</v>
       </c>
       <c r="W17">
-        <v>1945.7</v>
+        <v>1590.1</v>
       </c>
       <c r="X17">
-        <v>712.1</v>
+        <v>477.5</v>
       </c>
       <c r="Y17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -7401,76 +7386,76 @@
         <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="D18">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="G18">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="H18">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="I18">
-        <v>226.4</v>
+        <v>170.4</v>
       </c>
       <c r="J18">
-        <v>21.1</v>
+        <v>26.6</v>
       </c>
       <c r="K18">
         <v>1.96</v>
       </c>
       <c r="L18">
-        <v>18.5</v>
+        <v>23.3</v>
       </c>
       <c r="M18">
-        <v>207.9</v>
+        <v>147.1</v>
       </c>
       <c r="N18">
-        <v>244.9</v>
+        <v>193.7</v>
       </c>
       <c r="O18">
-        <v>61.6</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
-        <v>18.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q18">
-        <v>27.2</v>
+        <v>0.9</v>
       </c>
       <c r="R18">
-        <v>9.6</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="V18">
-        <v>3874</v>
+        <v>2816</v>
       </c>
       <c r="W18">
-        <v>1590.1</v>
+        <v>56.8</v>
       </c>
       <c r="X18">
-        <v>477.5</v>
+        <v>827.4</v>
       </c>
       <c r="Y18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -7478,76 +7463,76 @@
         <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F19">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="H19">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="I19">
-        <v>170.4</v>
+        <v>50</v>
       </c>
       <c r="J19">
-        <v>26.6</v>
+        <v>15.6</v>
       </c>
       <c r="K19">
         <v>1.96</v>
       </c>
       <c r="L19">
-        <v>23.3</v>
+        <v>13.7</v>
       </c>
       <c r="M19">
-        <v>147.1</v>
+        <v>36.3</v>
       </c>
       <c r="N19">
-        <v>193.7</v>
+        <v>63.7</v>
       </c>
       <c r="O19">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="P19">
-        <v>23.3</v>
+        <v>13.7</v>
       </c>
       <c r="Q19">
-        <v>0.9</v>
+        <v>24</v>
       </c>
       <c r="R19">
-        <v>12.1</v>
+        <v>26.7</v>
       </c>
       <c r="S19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V19">
-        <v>2816</v>
+        <v>2242</v>
       </c>
       <c r="W19">
-        <v>56.8</v>
+        <v>535.2</v>
       </c>
       <c r="X19">
-        <v>827.4</v>
+        <v>611.1</v>
       </c>
       <c r="Y19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -7555,76 +7540,76 @@
         <v>279</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>12593</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>11590</v>
       </c>
       <c r="E20">
-        <v>76</v>
+        <v>12781</v>
       </c>
       <c r="F20">
-        <v>34</v>
+        <v>13975</v>
       </c>
       <c r="G20">
-        <v>56</v>
+        <v>12288</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>12818</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>12645.4</v>
       </c>
       <c r="J20">
-        <v>15.6</v>
+        <v>778.5</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>13.7</v>
+        <v>682.4</v>
       </c>
       <c r="M20">
-        <v>36.3</v>
+        <v>11963</v>
       </c>
       <c r="N20">
-        <v>63.7</v>
+        <v>13327.8</v>
       </c>
       <c r="O20">
-        <v>12</v>
+        <v>172.6</v>
       </c>
       <c r="P20">
-        <v>13.7</v>
+        <v>682.4</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>1.4</v>
       </c>
       <c r="R20">
-        <v>26.7</v>
+        <v>5.2</v>
       </c>
       <c r="S20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="V20">
-        <v>2242</v>
+        <v>126638</v>
       </c>
       <c r="W20">
-        <v>535.2</v>
+        <v>136.3</v>
       </c>
       <c r="X20">
-        <v>611.1</v>
+        <v>538.9</v>
       </c>
       <c r="Y20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -7632,76 +7617,76 @@
         <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>12593</v>
+        <v>3814</v>
       </c>
       <c r="D21">
-        <v>11590</v>
+        <v>3439</v>
       </c>
       <c r="E21">
-        <v>12781</v>
+        <v>3853</v>
       </c>
       <c r="F21">
-        <v>13975</v>
+        <v>3802</v>
       </c>
       <c r="G21">
-        <v>12288</v>
+        <v>3529</v>
       </c>
       <c r="H21">
-        <v>12818</v>
+        <v>3195</v>
       </c>
       <c r="I21">
-        <v>12645.4</v>
+        <v>3687.4</v>
       </c>
       <c r="J21">
-        <v>778.5</v>
+        <v>169.3</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>682.4</v>
+        <v>148.4</v>
       </c>
       <c r="M21">
-        <v>11963</v>
+        <v>3539</v>
       </c>
       <c r="N21">
-        <v>13327.8</v>
+        <v>3835.8</v>
       </c>
       <c r="O21">
-        <v>172.6</v>
+        <v>-492.4</v>
       </c>
       <c r="P21">
-        <v>682.4</v>
+        <v>148.4</v>
       </c>
       <c r="Q21">
-        <v>1.4</v>
+        <v>-13.4</v>
       </c>
       <c r="R21">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="S21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V21">
-        <v>126638</v>
+        <v>44968</v>
       </c>
       <c r="W21">
-        <v>136.3</v>
+        <v>-1095</v>
       </c>
       <c r="X21">
-        <v>538.9</v>
+        <v>330</v>
       </c>
       <c r="Y21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -7709,76 +7694,76 @@
         <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>3814</v>
+        <v>17159</v>
       </c>
       <c r="D22">
-        <v>3439</v>
+        <v>16267</v>
       </c>
       <c r="E22">
-        <v>3853</v>
+        <v>20617</v>
       </c>
       <c r="F22">
-        <v>3802</v>
+        <v>21044</v>
       </c>
       <c r="G22">
-        <v>3529</v>
+        <v>20373</v>
       </c>
       <c r="H22">
-        <v>3195</v>
+        <v>30765</v>
       </c>
       <c r="I22">
-        <v>3687.4</v>
+        <v>19092</v>
       </c>
       <c r="J22">
-        <v>169.3</v>
+        <v>1974.5</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>148.4</v>
+        <v>1730.7</v>
       </c>
       <c r="M22">
-        <v>3539</v>
+        <v>17361.3</v>
       </c>
       <c r="N22">
-        <v>3835.8</v>
+        <v>20822.7</v>
       </c>
       <c r="O22">
-        <v>-492.4</v>
+        <v>11673</v>
       </c>
       <c r="P22">
-        <v>148.4</v>
+        <v>1730.7</v>
       </c>
       <c r="Q22">
-        <v>-13.4</v>
+        <v>61.1</v>
       </c>
       <c r="R22">
-        <v>3.3</v>
+        <v>13.4</v>
       </c>
       <c r="S22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="V22">
-        <v>44968</v>
+        <v>249754</v>
       </c>
       <c r="W22">
-        <v>-1095</v>
+        <v>4673.8</v>
       </c>
       <c r="X22">
-        <v>330</v>
+        <v>693</v>
       </c>
       <c r="Y22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -7786,76 +7771,76 @@
         <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>17159</v>
+        <v>8708</v>
       </c>
       <c r="D23">
-        <v>16267</v>
+        <v>7549</v>
       </c>
       <c r="E23">
-        <v>20617</v>
+        <v>8677</v>
       </c>
       <c r="F23">
-        <v>21044</v>
+        <v>9574</v>
       </c>
       <c r="G23">
-        <v>20373</v>
+        <v>9526</v>
       </c>
       <c r="H23">
-        <v>30765</v>
+        <v>11348</v>
       </c>
       <c r="I23">
-        <v>19092</v>
+        <v>8806.799999999999</v>
       </c>
       <c r="J23">
-        <v>1974.5</v>
+        <v>736.8</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>1730.7</v>
+        <v>645.8</v>
       </c>
       <c r="M23">
-        <v>17361.3</v>
+        <v>8160.999999999999</v>
       </c>
       <c r="N23">
-        <v>20822.7</v>
+        <v>9452.599999999999</v>
       </c>
       <c r="O23">
-        <v>11673</v>
+        <v>2541.2</v>
       </c>
       <c r="P23">
-        <v>1730.7</v>
+        <v>645.8</v>
       </c>
       <c r="Q23">
-        <v>61.1</v>
+        <v>28.9</v>
       </c>
       <c r="R23">
-        <v>13.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V23">
-        <v>249754</v>
+        <v>95220</v>
       </c>
       <c r="W23">
-        <v>4673.8</v>
+        <v>2668.8</v>
       </c>
       <c r="X23">
-        <v>693</v>
+        <v>678.2</v>
       </c>
       <c r="Y23" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -7863,76 +7848,76 @@
         <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>8708</v>
+        <v>5927</v>
       </c>
       <c r="D24">
-        <v>7549</v>
+        <v>5389</v>
       </c>
       <c r="E24">
-        <v>8677</v>
+        <v>6722</v>
       </c>
       <c r="F24">
-        <v>9574</v>
+        <v>6472</v>
       </c>
       <c r="G24">
-        <v>9526</v>
+        <v>6744</v>
       </c>
       <c r="H24">
-        <v>11348</v>
+        <v>7265</v>
       </c>
       <c r="I24">
-        <v>8806.799999999999</v>
+        <v>6250.8</v>
       </c>
       <c r="J24">
-        <v>736.8</v>
+        <v>521.9</v>
       </c>
       <c r="K24">
         <v>1.96</v>
       </c>
       <c r="L24">
-        <v>645.8</v>
+        <v>457.5</v>
       </c>
       <c r="M24">
-        <v>8160.999999999999</v>
+        <v>5793.3</v>
       </c>
       <c r="N24">
-        <v>9452.599999999999</v>
+        <v>6708.3</v>
       </c>
       <c r="O24">
-        <v>2541.2</v>
+        <v>1014.2</v>
       </c>
       <c r="P24">
-        <v>645.8</v>
+        <v>457.5</v>
       </c>
       <c r="Q24">
-        <v>28.9</v>
+        <v>16.2</v>
       </c>
       <c r="R24">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="S24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="V24">
-        <v>95220</v>
+        <v>118422</v>
       </c>
       <c r="W24">
-        <v>2668.8</v>
+        <v>856.4</v>
       </c>
       <c r="X24">
-        <v>678.2</v>
+        <v>386.4</v>
       </c>
       <c r="Y24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -7940,76 +7925,76 @@
         <v>279</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>5927</v>
+        <v>1212</v>
       </c>
       <c r="D25">
-        <v>5389</v>
+        <v>1083</v>
       </c>
       <c r="E25">
-        <v>6722</v>
+        <v>1745</v>
       </c>
       <c r="F25">
-        <v>6472</v>
+        <v>1349</v>
       </c>
       <c r="G25">
-        <v>6744</v>
+        <v>1404</v>
       </c>
       <c r="H25">
-        <v>7265</v>
+        <v>1367</v>
       </c>
       <c r="I25">
-        <v>6250.8</v>
+        <v>1358.6</v>
       </c>
       <c r="J25">
-        <v>521.9</v>
+        <v>223.1</v>
       </c>
       <c r="K25">
         <v>1.96</v>
       </c>
       <c r="L25">
-        <v>457.5</v>
+        <v>195.6</v>
       </c>
       <c r="M25">
-        <v>5793.3</v>
+        <v>1163</v>
       </c>
       <c r="N25">
-        <v>6708.3</v>
+        <v>1554.2</v>
       </c>
       <c r="O25">
-        <v>1014.2</v>
+        <v>8.4</v>
       </c>
       <c r="P25">
-        <v>457.5</v>
+        <v>195.6</v>
       </c>
       <c r="Q25">
-        <v>16.2</v>
+        <v>0.6</v>
       </c>
       <c r="R25">
-        <v>7.9</v>
+        <v>12.6</v>
       </c>
       <c r="S25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V25">
-        <v>118422</v>
+        <v>35933</v>
       </c>
       <c r="W25">
-        <v>856.4</v>
+        <v>23.4</v>
       </c>
       <c r="X25">
-        <v>386.4</v>
+        <v>544.3</v>
       </c>
       <c r="Y25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -8017,76 +8002,76 @@
         <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>1212</v>
+        <v>1871</v>
       </c>
       <c r="D26">
-        <v>1083</v>
+        <v>1718</v>
       </c>
       <c r="E26">
-        <v>1745</v>
+        <v>2162</v>
       </c>
       <c r="F26">
-        <v>1349</v>
+        <v>1993</v>
       </c>
       <c r="G26">
-        <v>1404</v>
+        <v>1994</v>
       </c>
       <c r="H26">
-        <v>1367</v>
+        <v>2573</v>
       </c>
       <c r="I26">
-        <v>1358.6</v>
+        <v>1947.6</v>
       </c>
       <c r="J26">
-        <v>223.1</v>
+        <v>147.5</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>195.6</v>
+        <v>129.3</v>
       </c>
       <c r="M26">
-        <v>1163</v>
+        <v>1818.3</v>
       </c>
       <c r="N26">
-        <v>1554.2</v>
+        <v>2076.9</v>
       </c>
       <c r="O26">
-        <v>8.4</v>
+        <v>625.4</v>
       </c>
       <c r="P26">
-        <v>195.6</v>
+        <v>129.3</v>
       </c>
       <c r="Q26">
-        <v>0.6</v>
+        <v>32.1</v>
       </c>
       <c r="R26">
-        <v>12.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="V26">
-        <v>35933</v>
+        <v>25243</v>
       </c>
       <c r="W26">
-        <v>23.4</v>
+        <v>2477.5</v>
       </c>
       <c r="X26">
-        <v>544.3</v>
+        <v>512.2</v>
       </c>
       <c r="Y26" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -8094,76 +8079,76 @@
         <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>1378</v>
+        <v>1001</v>
       </c>
       <c r="D27">
-        <v>1205</v>
+        <v>990</v>
       </c>
       <c r="E27">
-        <v>1647</v>
+        <v>1243</v>
       </c>
       <c r="F27">
-        <v>1461</v>
+        <v>1151</v>
       </c>
       <c r="G27">
-        <v>1477</v>
+        <v>1282</v>
       </c>
       <c r="H27">
-        <v>2022</v>
+        <v>1542</v>
       </c>
       <c r="I27">
-        <v>1433.6</v>
+        <v>1133.4</v>
       </c>
       <c r="J27">
-        <v>143.9</v>
+        <v>120.4</v>
       </c>
       <c r="K27">
         <v>1.96</v>
       </c>
       <c r="L27">
-        <v>126.1</v>
+        <v>105.5</v>
       </c>
       <c r="M27">
-        <v>1307.5</v>
+        <v>1027.9</v>
       </c>
       <c r="N27">
-        <v>1559.7</v>
+        <v>1238.9</v>
       </c>
       <c r="O27">
-        <v>588.4</v>
+        <v>408.6</v>
       </c>
       <c r="P27">
-        <v>126.1</v>
+        <v>105.5</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>36.1</v>
       </c>
       <c r="R27">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="V27">
-        <v>25243</v>
+        <v>16727</v>
       </c>
       <c r="W27">
-        <v>2330.9</v>
+        <v>2442.8</v>
       </c>
       <c r="X27">
-        <v>499.6</v>
+        <v>630.7</v>
       </c>
       <c r="Y27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -8171,76 +8156,76 @@
         <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>1001</v>
+        <v>30034</v>
       </c>
       <c r="D28">
-        <v>990</v>
+        <v>23862</v>
       </c>
       <c r="E28">
-        <v>1243</v>
+        <v>29731</v>
       </c>
       <c r="F28">
-        <v>1151</v>
+        <v>31306</v>
       </c>
       <c r="G28">
-        <v>1282</v>
+        <v>29309</v>
       </c>
       <c r="H28">
-        <v>1542</v>
+        <v>31240</v>
       </c>
       <c r="I28">
-        <v>1133.4</v>
+        <v>28848.40000000001</v>
       </c>
       <c r="J28">
-        <v>120.4</v>
+        <v>2580.7</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>105.5</v>
+        <v>2262.1</v>
       </c>
       <c r="M28">
-        <v>1027.9</v>
+        <v>26586.30000000001</v>
       </c>
       <c r="N28">
-        <v>1238.9</v>
+        <v>31110.5</v>
       </c>
       <c r="O28">
-        <v>408.6</v>
+        <v>2391.6</v>
       </c>
       <c r="P28">
-        <v>105.5</v>
+        <v>2262.1</v>
       </c>
       <c r="Q28">
-        <v>36.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="R28">
-        <v>11.6</v>
+        <v>7.9</v>
       </c>
       <c r="S28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V28">
-        <v>16727</v>
+        <v>537190</v>
       </c>
       <c r="W28">
-        <v>2442.8</v>
+        <v>445.2</v>
       </c>
       <c r="X28">
-        <v>630.7</v>
+        <v>421.1</v>
       </c>
       <c r="Y28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -8248,153 +8233,76 @@
         <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>30034</v>
+        <v>8812</v>
       </c>
       <c r="D29">
-        <v>23862</v>
+        <v>8216</v>
       </c>
       <c r="E29">
-        <v>29731</v>
+        <v>8978</v>
       </c>
       <c r="F29">
-        <v>31306</v>
+        <v>9144</v>
       </c>
       <c r="G29">
-        <v>29309</v>
+        <v>8049</v>
       </c>
       <c r="H29">
-        <v>31240</v>
+        <v>7961</v>
       </c>
       <c r="I29">
-        <v>28848.40000000001</v>
+        <v>8639.800000000001</v>
       </c>
       <c r="J29">
-        <v>2580.7</v>
+        <v>430.6</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>2262.1</v>
+        <v>377.4</v>
       </c>
       <c r="M29">
-        <v>26586.30000000001</v>
+        <v>8262.400000000001</v>
       </c>
       <c r="N29">
-        <v>31110.5</v>
+        <v>9017.200000000001</v>
       </c>
       <c r="O29">
-        <v>2391.6</v>
+        <v>-678.8</v>
       </c>
       <c r="P29">
-        <v>2262.1</v>
+        <v>377.4</v>
       </c>
       <c r="Q29">
-        <v>8.300000000000001</v>
+        <v>-7.9</v>
       </c>
       <c r="R29">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="S29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="V29">
-        <v>537190</v>
+        <v>98303</v>
       </c>
       <c r="W29">
-        <v>445.2</v>
+        <v>-690.5</v>
       </c>
       <c r="X29">
-        <v>421.1</v>
+        <v>383.9</v>
       </c>
       <c r="Y29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>8433</v>
-      </c>
-      <c r="D30">
-        <v>7835</v>
-      </c>
-      <c r="E30">
-        <v>8542</v>
-      </c>
-      <c r="F30">
-        <v>8719</v>
-      </c>
-      <c r="G30">
-        <v>7656</v>
-      </c>
-      <c r="H30">
-        <v>7635</v>
-      </c>
-      <c r="I30">
-        <v>8237.000000000002</v>
-      </c>
-      <c r="J30">
-        <v>415.4</v>
-      </c>
-      <c r="K30">
-        <v>1.96</v>
-      </c>
-      <c r="L30">
-        <v>364.1</v>
-      </c>
-      <c r="M30">
-        <v>7872.900000000001</v>
-      </c>
-      <c r="N30">
-        <v>8601.100000000002</v>
-      </c>
-      <c r="O30">
-        <v>-602</v>
-      </c>
-      <c r="P30">
-        <v>364.1</v>
-      </c>
-      <c r="Q30">
-        <v>-7.3</v>
-      </c>
-      <c r="R30">
-        <v>3.9</v>
-      </c>
-      <c r="S30" t="s">
-        <v>309</v>
-      </c>
-      <c r="T30" t="s">
-        <v>338</v>
-      </c>
-      <c r="U30" t="s">
-        <v>367</v>
-      </c>
-      <c r="V30">
-        <v>98303</v>
-      </c>
-      <c r="W30">
-        <v>-612.4</v>
-      </c>
-      <c r="X30">
-        <v>370.4</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8404,7 +8312,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8412,7 +8320,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8421,18 +8329,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -8452,7 +8360,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>166</v>
@@ -8472,7 +8380,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>279</v>
@@ -8492,7 +8400,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -8501,18 +8409,18 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>166</v>
@@ -8521,18 +8429,18 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -8541,18 +8449,18 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -8572,7 +8480,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
         <v>166</v>
@@ -8592,7 +8500,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>279</v>
@@ -8612,7 +8520,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -8632,7 +8540,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
         <v>166</v>
@@ -8652,7 +8560,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
         <v>279</v>
@@ -8672,13 +8580,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -8692,13 +8600,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s">
         <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -8712,13 +8620,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
         <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D16">
         <v>13</v>
@@ -8732,7 +8640,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -8741,18 +8649,18 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B18" t="s">
         <v>166</v>
@@ -8761,18 +8669,18 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B19" t="s">
         <v>279</v>
@@ -8781,18 +8689,18 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -8812,7 +8720,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B21" t="s">
         <v>166</v>
@@ -8832,7 +8740,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B22" t="s">
         <v>279</v>
@@ -8852,7 +8760,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -8872,7 +8780,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B24" t="s">
         <v>166</v>
@@ -8892,7 +8800,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B25" t="s">
         <v>279</v>
@@ -8912,7 +8820,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -8921,18 +8829,18 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
         <v>166</v>
@@ -8941,18 +8849,18 @@
         <v>33</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B28" t="s">
         <v>279</v>
@@ -8961,18 +8869,18 @@
         <v>33</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -8992,7 +8900,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B30" t="s">
         <v>166</v>
@@ -9012,7 +8920,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
         <v>279</v>
@@ -9032,30 +8940,30 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -9072,10 +8980,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -9092,30 +9000,30 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -9132,10 +9040,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
         <v>36</v>
@@ -9152,30 +9060,30 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -9192,10 +9100,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -9212,33 +9120,33 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -9252,13 +9160,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D43">
         <v>8</v>
@@ -9272,30 +9180,30 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -9312,10 +9220,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
@@ -9332,30 +9240,30 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
@@ -9372,10 +9280,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -9392,30 +9300,30 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -9432,10 +9340,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
@@ -9452,30 +9360,30 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -9492,10 +9400,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -9512,30 +9420,30 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
         <v>42</v>
@@ -9552,10 +9460,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
         <v>42</v>
@@ -9572,30 +9480,30 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -9612,10 +9520,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -9632,30 +9540,30 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
@@ -9672,10 +9580,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
         <v>44</v>
@@ -9692,13 +9600,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <v>17</v>
@@ -9712,10 +9620,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -9732,10 +9640,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
@@ -9752,30 +9660,30 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
         <v>46</v>
@@ -9792,10 +9700,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
         <v>46</v>
@@ -9812,30 +9720,30 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
         <v>47</v>
@@ -9852,10 +9760,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
         <v>47</v>
@@ -9872,30 +9780,30 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
         <v>48</v>
@@ -9912,10 +9820,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -9932,30 +9840,30 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
         <v>49</v>
@@ -9972,10 +9880,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
         <v>49</v>
@@ -9992,90 +9900,90 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
         <v>50</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C82" t="s">
         <v>50</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
         <v>51</v>
@@ -10092,10 +10000,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
         <v>51</v>
@@ -10112,30 +10020,30 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
         <v>52</v>
@@ -10152,10 +10060,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
         <v>52</v>
@@ -10172,93 +10080,93 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
         <v>53</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
         <v>53</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>399</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C93" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D93">
         <v>16</v>
@@ -10272,13 +10180,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D94">
         <v>16</v>
@@ -10287,26 +10195,6 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>401</v>
-      </c>
-      <c r="B95" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" t="s">
-        <v>404</v>
-      </c>
-      <c r="D95">
-        <v>16</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
         <v>16</v>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
+++ b/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(90+).xlsx
@@ -181,1018 +181,1018 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>4424.0 (±314.5)</t>
-  </si>
-  <si>
-    <t>6123.4 (±380.3)</t>
-  </si>
-  <si>
-    <t>2393.2 (±166.2)</t>
-  </si>
-  <si>
-    <t>1188.0 (±121.8)</t>
-  </si>
-  <si>
-    <t>3236.8 (±295.0)</t>
-  </si>
-  <si>
-    <t>2676.8 (±107.7)</t>
-  </si>
-  <si>
-    <t>649.2 (±75.3)</t>
-  </si>
-  <si>
-    <t>2982.6 (±125.3)</t>
-  </si>
-  <si>
-    <t>42600.6 (±2292.8)</t>
-  </si>
-  <si>
-    <t>4344.6 (±459.9)</t>
-  </si>
-  <si>
-    <t>3599.8 (±271.1)</t>
+    <t>6011.0 (±322.9)</t>
+  </si>
+  <si>
+    <t>8012.0 (±407.8)</t>
+  </si>
+  <si>
+    <t>3234.4 (±181.4)</t>
+  </si>
+  <si>
+    <t>1902.8 (±139.5)</t>
+  </si>
+  <si>
+    <t>4370.4 (±327.5)</t>
+  </si>
+  <si>
+    <t>3561.4 (±114.1)</t>
+  </si>
+  <si>
+    <t>862.4 (±84.2)</t>
+  </si>
+  <si>
+    <t>3801.0 (±133.1)</t>
+  </si>
+  <si>
+    <t>56784.4 (±2664.3)</t>
+  </si>
+  <si>
+    <t>5490.8 (±570.0)</t>
+  </si>
+  <si>
+    <t>4873.6 (±292.1)</t>
   </si>
   <si>
     <t>77.8 (±7.8)</t>
   </si>
   <si>
-    <t>903.0 (±83.8)</t>
-  </si>
-  <si>
-    <t>11.4 (±2.7)</t>
-  </si>
-  <si>
-    <t>1426.6 (±104.7)</t>
-  </si>
-  <si>
-    <t>165.6 (±16.0)</t>
-  </si>
-  <si>
-    <t>112.8 (±14.8)</t>
-  </si>
-  <si>
-    <t>34.2 (±8.3)</t>
-  </si>
-  <si>
-    <t>8790.0 (±491.5)</t>
-  </si>
-  <si>
-    <t>2544.8 (±115.5)</t>
-  </si>
-  <si>
-    <t>14201.6 (±1275.7)</t>
-  </si>
-  <si>
-    <t>6017.2 (±424.2)</t>
-  </si>
-  <si>
-    <t>4261.0 (±324.8)</t>
-  </si>
-  <si>
-    <t>914.4 (±138.8)</t>
-  </si>
-  <si>
-    <t>1442.6 (±103.0)</t>
-  </si>
-  <si>
-    <t>863.4 (±75.0)</t>
-  </si>
-  <si>
-    <t>19676.2 (±1567.7)</t>
-  </si>
-  <si>
-    <t>5764.2 (±262.5)</t>
-  </si>
-  <si>
-    <t>-158.0 (±314.5)</t>
-  </si>
-  <si>
-    <t>-439.4 (±380.3)</t>
-  </si>
-  <si>
-    <t>493.8 (±166.2)</t>
-  </si>
-  <si>
-    <t>133.0 (±121.8)</t>
-  </si>
-  <si>
-    <t>887.2 (±295.0)</t>
-  </si>
-  <si>
-    <t>-244.8 (±107.7)</t>
-  </si>
-  <si>
-    <t>269.8 (±75.3)</t>
-  </si>
-  <si>
-    <t>-14.6 (±125.3)</t>
-  </si>
-  <si>
-    <t>4165.4 (±2292.8)</t>
-  </si>
-  <si>
-    <t>553.4 (±459.9)</t>
-  </si>
-  <si>
-    <t>89.2 (±271.1)</t>
+    <t>1237.0 (±108.8)</t>
+  </si>
+  <si>
+    <t>15.2 (±2.9)</t>
+  </si>
+  <si>
+    <t>1929.4 (±124.6)</t>
+  </si>
+  <si>
+    <t>254.6 (±16.5)</t>
+  </si>
+  <si>
+    <t>172.8 (±17.6)</t>
+  </si>
+  <si>
+    <t>89.2 (±9.0)</t>
+  </si>
+  <si>
+    <t>11217.2 (±449.0)</t>
+  </si>
+  <si>
+    <t>3382.6 (±99.9)</t>
+  </si>
+  <si>
+    <t>17467.0 (±1495.4)</t>
+  </si>
+  <si>
+    <t>7838.8 (±520.2)</t>
+  </si>
+  <si>
+    <t>5511.4 (±350.6)</t>
+  </si>
+  <si>
+    <t>1686.6 (±151.6)</t>
+  </si>
+  <si>
+    <t>1716.0 (±98.4)</t>
+  </si>
+  <si>
+    <t>1095.2 (±87.5)</t>
+  </si>
+  <si>
+    <t>34533.8 (±1794.4)</t>
+  </si>
+  <si>
+    <t>7036.4 (±265.0)</t>
+  </si>
+  <si>
+    <t>-53.0 (±322.9)</t>
+  </si>
+  <si>
+    <t>-262.0 (±407.8)</t>
+  </si>
+  <si>
+    <t>623.6 (±181.4)</t>
+  </si>
+  <si>
+    <t>303.2 (±139.5)</t>
+  </si>
+  <si>
+    <t>969.6 (±327.5)</t>
+  </si>
+  <si>
+    <t>-195.4 (±114.1)</t>
+  </si>
+  <si>
+    <t>322.6 (±84.2)</t>
+  </si>
+  <si>
+    <t>76.0 (±133.1)</t>
+  </si>
+  <si>
+    <t>6028.6 (±2664.3)</t>
+  </si>
+  <si>
+    <t>906.2 (±570.0)</t>
+  </si>
+  <si>
+    <t>226.4 (±292.1)</t>
   </si>
   <si>
     <t>-4.8 (±7.8)</t>
   </si>
   <si>
-    <t>157.0 (±83.8)</t>
-  </si>
-  <si>
-    <t>3.6 (±2.7)</t>
-  </si>
-  <si>
-    <t>224.4 (±104.7)</t>
-  </si>
-  <si>
-    <t>31.4 (±16.0)</t>
-  </si>
-  <si>
-    <t>19.2 (±14.8)</t>
-  </si>
-  <si>
-    <t>2.8 (±8.3)</t>
-  </si>
-  <si>
-    <t>-301.0 (±491.5)</t>
-  </si>
-  <si>
-    <t>-399.8 (±115.5)</t>
-  </si>
-  <si>
-    <t>7703.4 (±1275.7)</t>
-  </si>
-  <si>
-    <t>1444.8 (±424.2)</t>
-  </si>
-  <si>
-    <t>513.0 (±324.8)</t>
-  </si>
-  <si>
-    <t>-26.4 (±138.8)</t>
-  </si>
-  <si>
-    <t>466.4 (±103.0)</t>
-  </si>
-  <si>
-    <t>254.6 (±75.0)</t>
-  </si>
-  <si>
-    <t>595.8 (±1567.7)</t>
-  </si>
-  <si>
-    <t>-583.2 (±262.5)</t>
-  </si>
-  <si>
-    <t>-3.6% (±6.4%)</t>
-  </si>
-  <si>
-    <t>-7.2% (±5.4%)</t>
-  </si>
-  <si>
-    <t>20.6% (±7.8%)</t>
-  </si>
-  <si>
-    <t>11.2% (±10.3%)</t>
-  </si>
-  <si>
-    <t>27.4% (±10.6%)</t>
-  </si>
-  <si>
-    <t>-9.1% (±3.6%)</t>
-  </si>
-  <si>
-    <t>41.6% (±14.8%)</t>
-  </si>
-  <si>
-    <t>-0.5% (±4.0%)</t>
-  </si>
-  <si>
-    <t>9.8% (±5.6%)</t>
-  </si>
-  <si>
-    <t>12.7% (±10.8%)</t>
-  </si>
-  <si>
-    <t>2.5% (±7.2%)</t>
+    <t>251.0 (±108.8)</t>
+  </si>
+  <si>
+    <t>3.8 (±2.9)</t>
+  </si>
+  <si>
+    <t>374.6 (±124.6)</t>
+  </si>
+  <si>
+    <t>44.4 (±16.5)</t>
+  </si>
+  <si>
+    <t>25.2 (±17.6)</t>
+  </si>
+  <si>
+    <t>32.8 (±9.0)</t>
+  </si>
+  <si>
+    <t>-291.2 (±449.0)</t>
+  </si>
+  <si>
+    <t>-393.6 (±99.9)</t>
+  </si>
+  <si>
+    <t>9202.0 (±1495.4)</t>
+  </si>
+  <si>
+    <t>1604.2 (±520.2)</t>
+  </si>
+  <si>
+    <t>945.6 (±350.6)</t>
+  </si>
+  <si>
+    <t>193.4 (±151.6)</t>
+  </si>
+  <si>
+    <t>532.0 (±98.4)</t>
+  </si>
+  <si>
+    <t>322.8 (±87.5)</t>
+  </si>
+  <si>
+    <t>1699.2 (±1794.4)</t>
+  </si>
+  <si>
+    <t>-713.4 (±265.0)</t>
+  </si>
+  <si>
+    <t>-0.9% (±5.0%)</t>
+  </si>
+  <si>
+    <t>-3.3% (±4.7%)</t>
+  </si>
+  <si>
+    <t>19.3% (±6.4%)</t>
+  </si>
+  <si>
+    <t>15.9% (±7.9%)</t>
+  </si>
+  <si>
+    <t>22.2% (±8.5%)</t>
+  </si>
+  <si>
+    <t>-5.5% (±2.9%)</t>
+  </si>
+  <si>
+    <t>37.4% (±12.2%)</t>
+  </si>
+  <si>
+    <t>2.0% (±3.5%)</t>
+  </si>
+  <si>
+    <t>10.6% (±4.9%)</t>
+  </si>
+  <si>
+    <t>16.5% (±11.0%)</t>
+  </si>
+  <si>
+    <t>4.6% (±5.9%)</t>
   </si>
   <si>
     <t>-6.2% (±8.5%)</t>
   </si>
   <si>
-    <t>17.4% (±10.0%)</t>
-  </si>
-  <si>
-    <t>31.6% (±25.2%)</t>
-  </si>
-  <si>
-    <t>15.7% (±7.9%)</t>
-  </si>
-  <si>
-    <t>19.0% (±10.5%)</t>
-  </si>
-  <si>
-    <t>17.0% (±13.6%)</t>
-  </si>
-  <si>
-    <t>8.2% (±21.1%)</t>
-  </si>
-  <si>
-    <t>-3.4% (±5.1%)</t>
-  </si>
-  <si>
-    <t>-15.7% (±3.7%)</t>
-  </si>
-  <si>
-    <t>54.2% (±12.7%)</t>
-  </si>
-  <si>
-    <t>24.0% (±8.2%)</t>
-  </si>
-  <si>
-    <t>12.0% (±7.9%)</t>
-  </si>
-  <si>
-    <t>-2.9% (±12.8%)</t>
-  </si>
-  <si>
-    <t>32.3% (±8.8%)</t>
-  </si>
-  <si>
-    <t>29.5% (±10.4%)</t>
-  </si>
-  <si>
-    <t>3.0% (±7.6%)</t>
-  </si>
-  <si>
-    <t>-10.1% (±3.9%)</t>
-  </si>
-  <si>
-    <t>-263.5(±524.5)</t>
-  </si>
-  <si>
-    <t>-539.6(±467.0)</t>
-  </si>
-  <si>
-    <t>2019.8(±679.8)</t>
-  </si>
-  <si>
-    <t>784.5(±718.4)</t>
-  </si>
-  <si>
-    <t>1940.3(±645.1)</t>
-  </si>
-  <si>
-    <t>-381.3(±167.8)</t>
-  </si>
-  <si>
-    <t>2998.1(±836.8)</t>
-  </si>
-  <si>
-    <t>-37.9(±325.4)</t>
-  </si>
-  <si>
-    <t>652.9(±359.4)</t>
-  </si>
-  <si>
-    <t>739.7(±614.7)</t>
-  </si>
-  <si>
-    <t>191.1(±580.7)</t>
+    <t>20.3% (±9.7%)</t>
+  </si>
+  <si>
+    <t>25.0% (±20.0%)</t>
+  </si>
+  <si>
+    <t>19.4% (±7.2%)</t>
+  </si>
+  <si>
+    <t>17.4% (±7.1%)</t>
+  </si>
+  <si>
+    <t>14.6% (±10.6%)</t>
+  </si>
+  <si>
+    <t>36.8% (±12.6%)</t>
+  </si>
+  <si>
+    <t>-2.6% (±3.7%)</t>
+  </si>
+  <si>
+    <t>-11.6% (±2.6%)</t>
+  </si>
+  <si>
+    <t>52.7% (±12.1%)</t>
+  </si>
+  <si>
+    <t>20.5% (±7.5%)</t>
+  </si>
+  <si>
+    <t>17.2% (±7.0%)</t>
+  </si>
+  <si>
+    <t>11.5% (±9.2%)</t>
+  </si>
+  <si>
+    <t>31.0% (±7.1%)</t>
+  </si>
+  <si>
+    <t>29.5% (±9.6%)</t>
+  </si>
+  <si>
+    <t>4.9% (±5.2%)</t>
+  </si>
+  <si>
+    <t>-10.1% (±3.3%)</t>
+  </si>
+  <si>
+    <t>-88.4(±538.5)</t>
+  </si>
+  <si>
+    <t>-321.8(±500.9)</t>
+  </si>
+  <si>
+    <t>2550.7(±742.0)</t>
+  </si>
+  <si>
+    <t>1788.4(±822.8)</t>
+  </si>
+  <si>
+    <t>2120.5(±716.2)</t>
+  </si>
+  <si>
+    <t>-304.3(±177.7)</t>
+  </si>
+  <si>
+    <t>3584.8(±935.7)</t>
+  </si>
+  <si>
+    <t>197.3(±345.7)</t>
+  </si>
+  <si>
+    <t>945.0(±417.6)</t>
+  </si>
+  <si>
+    <t>1211.2(±761.9)</t>
+  </si>
+  <si>
+    <t>485.0(±625.7)</t>
   </si>
   <si>
     <t>-329.9(±536.1)</t>
   </si>
   <si>
-    <t>1329.3(±709.5)</t>
-  </si>
-  <si>
-    <t>1034.5(±775.8)</t>
-  </si>
-  <si>
-    <t>1344.5(±627.3)</t>
-  </si>
-  <si>
-    <t>1101.8(±561.4)</t>
-  </si>
-  <si>
-    <t>981.1(±756.3)</t>
-  </si>
-  <si>
-    <t>212.3(±629.2)</t>
-  </si>
-  <si>
-    <t>-329.4(±537.9)</t>
-  </si>
-  <si>
-    <t>-1257.4(±363.2)</t>
-  </si>
-  <si>
-    <t>4066.1(±673.4)</t>
-  </si>
-  <si>
-    <t>2084.3(±612.0)</t>
-  </si>
-  <si>
-    <t>644.8(±408.2)</t>
-  </si>
-  <si>
-    <t>-114.3(±600.9)</t>
-  </si>
-  <si>
-    <t>2500.7(±552.2)</t>
-  </si>
-  <si>
-    <t>1952.0(±575.0)</t>
-  </si>
-  <si>
-    <t>157.1(±413.5)</t>
-  </si>
-  <si>
-    <t>-850.1(±382.6)</t>
+    <t>2125.1(±921.2)</t>
+  </si>
+  <si>
+    <t>1092.0(±833.3)</t>
+  </si>
+  <si>
+    <t>2244.5(±746.5)</t>
+  </si>
+  <si>
+    <t>1557.9(±578.9)</t>
+  </si>
+  <si>
+    <t>1287.7(±899.3)</t>
+  </si>
+  <si>
+    <t>2486.7(±682.4)</t>
+  </si>
+  <si>
+    <t>-318.7(±491.4)</t>
+  </si>
+  <si>
+    <t>-1237.9(±314.2)</t>
+  </si>
+  <si>
+    <t>4857.2(±789.3)</t>
+  </si>
+  <si>
+    <t>2314.3(±750.4)</t>
+  </si>
+  <si>
+    <t>1188.5(±440.7)</t>
+  </si>
+  <si>
+    <t>837.3(±656.3)</t>
+  </si>
+  <si>
+    <t>2852.4(±527.6)</t>
+  </si>
+  <si>
+    <t>2474.9(±670.8)</t>
+  </si>
+  <si>
+    <t>448.1(±473.2)</t>
+  </si>
+  <si>
+    <t>-1039.9(±386.3)</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>1591.8 (±141.8)</t>
-  </si>
-  <si>
-    <t>2670.0 (±197.2)</t>
-  </si>
-  <si>
-    <t>1199.8 (±72.6)</t>
-  </si>
-  <si>
-    <t>410.0 (±33.8)</t>
-  </si>
-  <si>
-    <t>1190.6 (±106.9)</t>
-  </si>
-  <si>
-    <t>1247.8 (±75.5)</t>
-  </si>
-  <si>
-    <t>155.8 (±19.2)</t>
-  </si>
-  <si>
-    <t>1123.6 (±105.5)</t>
-  </si>
-  <si>
-    <t>19588.8 (±1198.3)</t>
-  </si>
-  <si>
-    <t>2364.8 (±264.6)</t>
-  </si>
-  <si>
-    <t>1175.6 (±72.4)</t>
+    <t>2183.8 (±192.5)</t>
+  </si>
+  <si>
+    <t>3511.6 (±209.5)</t>
+  </si>
+  <si>
+    <t>1600.0 (±78.5)</t>
+  </si>
+  <si>
+    <t>655.0 (±51.4)</t>
+  </si>
+  <si>
+    <t>1620.6 (±109.0)</t>
+  </si>
+  <si>
+    <t>1629.2 (±91.2)</t>
+  </si>
+  <si>
+    <t>208.8 (±22.9)</t>
+  </si>
+  <si>
+    <t>1443.0 (±123.3)</t>
+  </si>
+  <si>
+    <t>26090.6 (±1452.2)</t>
+  </si>
+  <si>
+    <t>2988.0 (±316.2)</t>
+  </si>
+  <si>
+    <t>1633.2 (±65.5)</t>
   </si>
   <si>
     <t>35.4 (±3.9)</t>
   </si>
   <si>
-    <t>206.6 (±24.5)</t>
-  </si>
-  <si>
-    <t>5.4 (±1.3)</t>
-  </si>
-  <si>
-    <t>395.2 (±45.9)</t>
-  </si>
-  <si>
-    <t>60.8 (±9.5)</t>
-  </si>
-  <si>
-    <t>57.6 (±9.3)</t>
-  </si>
-  <si>
-    <t>15.8 (±6.2)</t>
-  </si>
-  <si>
-    <t>3855.4 (±229.4)</t>
-  </si>
-  <si>
-    <t>1142.6 (±36.9)</t>
-  </si>
-  <si>
-    <t>4890.4 (±462.1)</t>
-  </si>
-  <si>
-    <t>2789.6 (±225.2)</t>
-  </si>
-  <si>
-    <t>1989.8 (±138.3)</t>
-  </si>
-  <si>
-    <t>444.2 (±59.3)</t>
-  </si>
-  <si>
-    <t>505.0 (±30.0)</t>
-  </si>
-  <si>
-    <t>270.0 (±31.9)</t>
-  </si>
-  <si>
-    <t>9172.2 (±723.4)</t>
-  </si>
-  <si>
-    <t>2875.6 (±122.6)</t>
-  </si>
-  <si>
-    <t>243.2 (±141.8)</t>
-  </si>
-  <si>
-    <t>204.0 (±197.2)</t>
-  </si>
-  <si>
-    <t>375.2 (±72.6)</t>
-  </si>
-  <si>
-    <t>121.0 (±33.8)</t>
-  </si>
-  <si>
-    <t>656.4 (±106.9)</t>
-  </si>
-  <si>
-    <t>5.2 (±75.5)</t>
-  </si>
-  <si>
-    <t>112.2 (±19.2)</t>
-  </si>
-  <si>
-    <t>118.4 (±105.5)</t>
-  </si>
-  <si>
-    <t>3769.2 (±1198.3)</t>
-  </si>
-  <si>
-    <t>480.2 (±264.6)</t>
-  </si>
-  <si>
-    <t>112.4 (±72.4)</t>
+    <t>285.2 (±31.2)</t>
+  </si>
+  <si>
+    <t>6.6 (±1.2)</t>
+  </si>
+  <si>
+    <t>536.8 (±51.9)</t>
+  </si>
+  <si>
+    <t>96.8 (±8.8)</t>
+  </si>
+  <si>
+    <t>85.6 (±11.0)</t>
+  </si>
+  <si>
+    <t>44.2 (±11.6)</t>
+  </si>
+  <si>
+    <t>4892.2 (±252.4)</t>
+  </si>
+  <si>
+    <t>1524.8 (±27.1)</t>
+  </si>
+  <si>
+    <t>6003.6 (±538.5)</t>
+  </si>
+  <si>
+    <t>3616.2 (±272.3)</t>
+  </si>
+  <si>
+    <t>2582.2 (±150.8)</t>
+  </si>
+  <si>
+    <t>830.6 (±70.6)</t>
+  </si>
+  <si>
+    <t>607.4 (±26.5)</t>
+  </si>
+  <si>
+    <t>341.2 (±40.9)</t>
+  </si>
+  <si>
+    <t>16197.2 (±995.5)</t>
+  </si>
+  <si>
+    <t>3540.2 (±126.2)</t>
+  </si>
+  <si>
+    <t>418.2 (±192.5)</t>
+  </si>
+  <si>
+    <t>322.4 (±209.5)</t>
+  </si>
+  <si>
+    <t>500.0 (±78.5)</t>
+  </si>
+  <si>
+    <t>266.0 (±51.4)</t>
+  </si>
+  <si>
+    <t>730.4 (±109.0)</t>
+  </si>
+  <si>
+    <t>74.8 (±91.2)</t>
+  </si>
+  <si>
+    <t>144.2 (±22.9)</t>
+  </si>
+  <si>
+    <t>195.0 (±123.3)</t>
+  </si>
+  <si>
+    <t>4783.4 (±1452.2)</t>
+  </si>
+  <si>
+    <t>745.0 (±316.2)</t>
+  </si>
+  <si>
+    <t>146.8 (±65.5)</t>
   </si>
   <si>
     <t>4.6 (±3.9)</t>
   </si>
   <si>
-    <t>111.4 (±24.5)</t>
-  </si>
-  <si>
-    <t>-3.4 (±1.3)</t>
-  </si>
-  <si>
-    <t>183.8 (±45.9)</t>
-  </si>
-  <si>
-    <t>30.2 (±9.5)</t>
-  </si>
-  <si>
-    <t>-17.6 (±9.3)</t>
-  </si>
-  <si>
-    <t>9.2 (±6.2)</t>
-  </si>
-  <si>
-    <t>473.6 (±229.4)</t>
-  </si>
-  <si>
-    <t>-92.6 (±36.9)</t>
-  </si>
-  <si>
-    <t>3969.6 (±462.1)</t>
-  </si>
-  <si>
-    <t>1096.4 (±225.2)</t>
-  </si>
-  <si>
-    <t>501.2 (±138.3)</t>
-  </si>
-  <si>
-    <t>34.8 (±59.3)</t>
-  </si>
-  <si>
-    <t>159.0 (±30.0)</t>
-  </si>
-  <si>
-    <t>154.0 (±31.9)</t>
-  </si>
-  <si>
-    <t>1797.8 (±723.4)</t>
-  </si>
-  <si>
-    <t>-95.6 (±122.6)</t>
-  </si>
-  <si>
-    <t>15.3% (±9.5%)</t>
-  </si>
-  <si>
-    <t>7.6% (±7.4%)</t>
-  </si>
-  <si>
-    <t>31.3% (±7.5%)</t>
-  </si>
-  <si>
-    <t>29.5% (±9.9%)</t>
-  </si>
-  <si>
-    <t>55.1% (±12.7%)</t>
-  </si>
-  <si>
-    <t>0.4% (±5.7%)</t>
-  </si>
-  <si>
-    <t>72.0% (±18.9%)</t>
-  </si>
-  <si>
-    <t>10.5% (±9.5%)</t>
-  </si>
-  <si>
-    <t>19.2% (±6.8%)</t>
-  </si>
-  <si>
-    <t>20.3% (±12.1%)</t>
-  </si>
-  <si>
-    <t>9.6% (±6.4%)</t>
+    <t>164.8 (±31.2)</t>
+  </si>
+  <si>
+    <t>-1.6 (±1.2)</t>
+  </si>
+  <si>
+    <t>235.2 (±51.9)</t>
+  </si>
+  <si>
+    <t>28.2 (±8.8)</t>
+  </si>
+  <si>
+    <t>-1.6 (±11.0)</t>
+  </si>
+  <si>
+    <t>25.8 (±11.6)</t>
+  </si>
+  <si>
+    <t>592.8 (±252.4)</t>
+  </si>
+  <si>
+    <t>-23.8 (±27.1)</t>
+  </si>
+  <si>
+    <t>4605.4 (±538.5)</t>
+  </si>
+  <si>
+    <t>1192.8 (±272.3)</t>
+  </si>
+  <si>
+    <t>726.8 (±150.8)</t>
+  </si>
+  <si>
+    <t>273.4 (±70.6)</t>
+  </si>
+  <si>
+    <t>179.6 (±26.5)</t>
+  </si>
+  <si>
+    <t>183.8 (±40.9)</t>
+  </si>
+  <si>
+    <t>2688.8 (±995.5)</t>
+  </si>
+  <si>
+    <t>-134.2 (±126.2)</t>
+  </si>
+  <si>
+    <t>19.2% (±9.7%)</t>
+  </si>
+  <si>
+    <t>9.2% (±6.2%)</t>
+  </si>
+  <si>
+    <t>31.3% (±6.2%)</t>
+  </si>
+  <si>
+    <t>40.6% (±10.2%)</t>
+  </si>
+  <si>
+    <t>45.1% (±9.2%)</t>
+  </si>
+  <si>
+    <t>4.6% (±5.6%)</t>
+  </si>
+  <si>
+    <t>69.1% (±16.7%)</t>
+  </si>
+  <si>
+    <t>13.5% (±8.9%)</t>
+  </si>
+  <si>
+    <t>18.3% (±6.2%)</t>
+  </si>
+  <si>
+    <t>24.9% (±11.9%)</t>
+  </si>
+  <si>
+    <t>9.0% (±4.2%)</t>
   </si>
   <si>
     <t>13.0% (±11.2%)</t>
   </si>
   <si>
-    <t>53.9% (±16.3%)</t>
-  </si>
-  <si>
-    <t>-63.0% (±7.1%)</t>
-  </si>
-  <si>
-    <t>46.5% (±15.2%)</t>
-  </si>
-  <si>
-    <t>49.7% (±20.3%)</t>
-  </si>
-  <si>
-    <t>-30.6% (±9.6%)</t>
-  </si>
-  <si>
-    <t>58.2% (±44.6%)</t>
-  </si>
-  <si>
-    <t>12.3% (±6.3%)</t>
-  </si>
-  <si>
-    <t>-8.1% (±2.9%)</t>
-  </si>
-  <si>
-    <t>81.2% (±15.7%)</t>
-  </si>
-  <si>
-    <t>39.3% (±10.4%)</t>
-  </si>
-  <si>
-    <t>25.2% (±8.1%)</t>
-  </si>
-  <si>
-    <t>7.8% (±12.7%)</t>
-  </si>
-  <si>
-    <t>31.5% (±7.4%)</t>
-  </si>
-  <si>
-    <t>57.0% (±16.6%)</t>
-  </si>
-  <si>
-    <t>19.6% (±8.7%)</t>
-  </si>
-  <si>
-    <t>-3.3% (±4.0%)</t>
-  </si>
-  <si>
-    <t>1123.3(±654.9)</t>
-  </si>
-  <si>
-    <t>660.3(±638.3)</t>
-  </si>
-  <si>
-    <t>3370.5(±652.1)</t>
-  </si>
-  <si>
-    <t>2224.3(±621.3)</t>
-  </si>
-  <si>
-    <t>4159.4(±677.4)</t>
-  </si>
-  <si>
-    <t>20.4(±296.2)</t>
-  </si>
-  <si>
-    <t>5678.1(±971.7)</t>
-  </si>
-  <si>
-    <t>906.5(±807.8)</t>
-  </si>
-  <si>
-    <t>1663.6(±528.9)</t>
-  </si>
-  <si>
-    <t>956.3(±527.0)</t>
-  </si>
-  <si>
-    <t>769.8(±495.9)</t>
+    <t>57.8% (±15.6%)</t>
+  </si>
+  <si>
+    <t>-24.2% (±11.7%)</t>
+  </si>
+  <si>
+    <t>43.8% (±12.7%)</t>
+  </si>
+  <si>
+    <t>29.1% (±10.7%)</t>
+  </si>
+  <si>
+    <t>-1.9% (±11.1%)</t>
+  </si>
+  <si>
+    <t>58.4% (±33.0%)</t>
+  </si>
+  <si>
+    <t>12.1% (±5.5%)</t>
+  </si>
+  <si>
+    <t>-1.6% (±1.7%)</t>
+  </si>
+  <si>
+    <t>76.7% (±14.5%)</t>
+  </si>
+  <si>
+    <t>33.0% (±9.3%)</t>
+  </si>
+  <si>
+    <t>28.1% (±7.0%)</t>
+  </si>
+  <si>
+    <t>32.9% (±10.4%)</t>
+  </si>
+  <si>
+    <t>29.6% (±5.4%)</t>
+  </si>
+  <si>
+    <t>53.9% (±16.5%)</t>
+  </si>
+  <si>
+    <t>16.6% (±6.8%)</t>
+  </si>
+  <si>
+    <t>-3.8% (±3.3%)</t>
+  </si>
+  <si>
+    <t>1931.6(±889.1)</t>
+  </si>
+  <si>
+    <t>1043.6(±678.1)</t>
+  </si>
+  <si>
+    <t>4491.6(±705.1)</t>
+  </si>
+  <si>
+    <t>4889.7(±944.9)</t>
+  </si>
+  <si>
+    <t>4628.4(±690.7)</t>
+  </si>
+  <si>
+    <t>293.4(±357.8)</t>
+  </si>
+  <si>
+    <t>7297.6(±1158.9)</t>
+  </si>
+  <si>
+    <t>1493.0(±944.0)</t>
+  </si>
+  <si>
+    <t>2111.3(±640.9)</t>
+  </si>
+  <si>
+    <t>1483.7(±629.7)</t>
+  </si>
+  <si>
+    <t>1005.4(±448.6)</t>
   </si>
   <si>
     <t>635.4(±538.6)</t>
   </si>
   <si>
-    <t>4370.3(±961.2)</t>
-  </si>
-  <si>
-    <t>-2881.4(±1101.7)</t>
-  </si>
-  <si>
-    <t>4284.4(±1069.9)</t>
-  </si>
-  <si>
-    <t>2949.2(±927.8)</t>
-  </si>
-  <si>
-    <t>-2048.9(±1082.7)</t>
-  </si>
-  <si>
-    <t>996.7(±671.8)</t>
-  </si>
-  <si>
-    <t>1343.3(±650.7)</t>
-  </si>
-  <si>
-    <t>-703.0(±280.2)</t>
-  </si>
-  <si>
-    <t>6582.9(±766.3)</t>
-  </si>
-  <si>
-    <t>4232.9(±869.4)</t>
-  </si>
-  <si>
-    <t>1289.8(±355.9)</t>
-  </si>
-  <si>
-    <t>271.1(±462.1)</t>
-  </si>
-  <si>
-    <t>2412.0(±455.1)</t>
-  </si>
-  <si>
-    <t>4180.2(±865.9)</t>
-  </si>
-  <si>
-    <t>1137.8(±457.9)</t>
-  </si>
-  <si>
-    <t>-321.9(±412.8)</t>
+    <t>6465.3(±1224.0)</t>
+  </si>
+  <si>
+    <t>-1355.9(±1016.9)</t>
+  </si>
+  <si>
+    <t>5482.5(±1209.8)</t>
+  </si>
+  <si>
+    <t>2753.9(±859.4)</t>
+  </si>
+  <si>
+    <t>-186.3(±1280.6)</t>
+  </si>
+  <si>
+    <t>2795.2(±1256.8)</t>
+  </si>
+  <si>
+    <t>1681.4(±715.9)</t>
+  </si>
+  <si>
+    <t>-180.7(±205.8)</t>
+  </si>
+  <si>
+    <t>7637.2(±893.0)</t>
+  </si>
+  <si>
+    <t>4605.0(±1051.3)</t>
+  </si>
+  <si>
+    <t>1870.3(±388.1)</t>
+  </si>
+  <si>
+    <t>2130.1(±550.1)</t>
+  </si>
+  <si>
+    <t>2724.5(±402.0)</t>
+  </si>
+  <si>
+    <t>4989.1(±1110.2)</t>
+  </si>
+  <si>
+    <t>1701.8(±630.0)</t>
+  </si>
+  <si>
+    <t>-451.8(±424.9)</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>6015.8 (±425.0)</t>
-  </si>
-  <si>
-    <t>8793.4 (±552.9)</t>
-  </si>
-  <si>
-    <t>3593.0 (±230.2)</t>
-  </si>
-  <si>
-    <t>1598.0 (±148.1)</t>
-  </si>
-  <si>
-    <t>4427.4 (±398.3)</t>
-  </si>
-  <si>
-    <t>3924.6 (±176.4)</t>
-  </si>
-  <si>
-    <t>805.0 (±94.1)</t>
-  </si>
-  <si>
-    <t>4106.2 (±226.6)</t>
-  </si>
-  <si>
-    <t>62189.4 (±3462.9)</t>
-  </si>
-  <si>
-    <t>6709.4 (±719.6)</t>
-  </si>
-  <si>
-    <t>4775.4 (±342.6)</t>
+    <t>8194.8 (±473.4)</t>
+  </si>
+  <si>
+    <t>11523.6 (±599.6)</t>
+  </si>
+  <si>
+    <t>4834.4 (±250.7)</t>
+  </si>
+  <si>
+    <t>2557.8 (±183.6)</t>
+  </si>
+  <si>
+    <t>5991.0 (±430.2)</t>
+  </si>
+  <si>
+    <t>5190.6 (±198.6)</t>
+  </si>
+  <si>
+    <t>1071.2 (±106.8)</t>
+  </si>
+  <si>
+    <t>5244.0 (±248.2)</t>
+  </si>
+  <si>
+    <t>82875.0 (±4098.0)</t>
+  </si>
+  <si>
+    <t>8478.8 (±882.8)</t>
+  </si>
+  <si>
+    <t>6506.8 (±356.1)</t>
   </si>
   <si>
     <t>113.2 (±11.2)</t>
   </si>
   <si>
-    <t>1109.6 (±103.9)</t>
-  </si>
-  <si>
-    <t>16.8 (±2.8)</t>
-  </si>
-  <si>
-    <t>1821.8 (±149.4)</t>
-  </si>
-  <si>
-    <t>226.4 (±18.5)</t>
-  </si>
-  <si>
-    <t>170.4 (±23.3)</t>
-  </si>
-  <si>
-    <t>50.0 (±13.7)</t>
-  </si>
-  <si>
-    <t>12645.4 (±682.4)</t>
-  </si>
-  <si>
-    <t>3687.4 (±148.4)</t>
-  </si>
-  <si>
-    <t>19092.0 (±1730.7)</t>
-  </si>
-  <si>
-    <t>8806.8 (±645.8)</t>
-  </si>
-  <si>
-    <t>6250.8 (±457.5)</t>
-  </si>
-  <si>
-    <t>1358.6 (±195.6)</t>
-  </si>
-  <si>
-    <t>1947.6 (±129.3)</t>
-  </si>
-  <si>
-    <t>1133.4 (±105.5)</t>
-  </si>
-  <si>
-    <t>28848.4 (±2262.1)</t>
-  </si>
-  <si>
-    <t>8639.8 (±377.4)</t>
-  </si>
-  <si>
-    <t>85.2 (±425.0)</t>
-  </si>
-  <si>
-    <t>-235.4 (±552.9)</t>
-  </si>
-  <si>
-    <t>869.0 (±230.2)</t>
-  </si>
-  <si>
-    <t>254.0 (±148.1)</t>
-  </si>
-  <si>
-    <t>1543.6 (±398.3)</t>
-  </si>
-  <si>
-    <t>-239.6 (±176.4)</t>
-  </si>
-  <si>
-    <t>382.0 (±94.1)</t>
-  </si>
-  <si>
-    <t>103.8 (±226.6)</t>
-  </si>
-  <si>
-    <t>7934.6 (±3462.9)</t>
-  </si>
-  <si>
-    <t>1033.6 (±719.6)</t>
-  </si>
-  <si>
-    <t>201.6 (±342.6)</t>
+    <t>1522.2 (±135.2)</t>
+  </si>
+  <si>
+    <t>21.8 (±3.4)</t>
+  </si>
+  <si>
+    <t>2466.2 (±175.5)</t>
+  </si>
+  <si>
+    <t>351.4 (±19.8)</t>
+  </si>
+  <si>
+    <t>258.4 (±28.1)</t>
+  </si>
+  <si>
+    <t>133.4 (±19.6)</t>
+  </si>
+  <si>
+    <t>16109.2 (±654.9)</t>
+  </si>
+  <si>
+    <t>4907.4 (±112.2)</t>
+  </si>
+  <si>
+    <t>23470.6 (±2026.8)</t>
+  </si>
+  <si>
+    <t>11455.0 (±792.0)</t>
+  </si>
+  <si>
+    <t>8093.6 (±497.9)</t>
+  </si>
+  <si>
+    <t>2517.2 (±217.6)</t>
+  </si>
+  <si>
+    <t>2323.4 (±119.1)</t>
+  </si>
+  <si>
+    <t>1436.4 (±125.6)</t>
+  </si>
+  <si>
+    <t>50731.0 (±2754.0)</t>
+  </si>
+  <si>
+    <t>10576.6 (±376.2)</t>
+  </si>
+  <si>
+    <t>365.2 (±473.4)</t>
+  </si>
+  <si>
+    <t>60.4 (±599.6)</t>
+  </si>
+  <si>
+    <t>1123.6 (±250.7)</t>
+  </si>
+  <si>
+    <t>569.2 (±183.6)</t>
+  </si>
+  <si>
+    <t>1700.0 (±430.2)</t>
+  </si>
+  <si>
+    <t>-120.6 (±198.6)</t>
+  </si>
+  <si>
+    <t>466.8 (±106.8)</t>
+  </si>
+  <si>
+    <t>271.0 (±248.2)</t>
+  </si>
+  <si>
+    <t>10812.0 (±4098.0)</t>
+  </si>
+  <si>
+    <t>1651.2 (±882.8)</t>
+  </si>
+  <si>
+    <t>373.2 (±356.1)</t>
   </si>
   <si>
     <t>-0.2 (±11.2)</t>
   </si>
   <si>
-    <t>268.4 (±103.9)</t>
-  </si>
-  <si>
-    <t>0.2 (±2.8)</t>
-  </si>
-  <si>
-    <t>408.2 (±149.4)</t>
-  </si>
-  <si>
-    <t>61.6 (±18.5)</t>
-  </si>
-  <si>
-    <t>1.6 (±23.3)</t>
-  </si>
-  <si>
-    <t>12.0 (±13.7)</t>
-  </si>
-  <si>
-    <t>172.6 (±682.4)</t>
-  </si>
-  <si>
-    <t>-492.4 (±148.4)</t>
-  </si>
-  <si>
-    <t>11673.0 (±1730.7)</t>
-  </si>
-  <si>
-    <t>2541.2 (±645.8)</t>
-  </si>
-  <si>
-    <t>1014.2 (±457.5)</t>
-  </si>
-  <si>
-    <t>8.4 (±195.6)</t>
-  </si>
-  <si>
-    <t>625.4 (±129.3)</t>
-  </si>
-  <si>
-    <t>408.6 (±105.5)</t>
-  </si>
-  <si>
-    <t>2391.6 (±2262.1)</t>
-  </si>
-  <si>
-    <t>-678.8 (±377.4)</t>
-  </si>
-  <si>
-    <t>1.4% (±6.7%)</t>
-  </si>
-  <si>
-    <t>-2.7% (±5.7%)</t>
-  </si>
-  <si>
-    <t>24.2% (±7.5%)</t>
-  </si>
-  <si>
-    <t>15.9% (±9.8%)</t>
-  </si>
-  <si>
-    <t>34.9% (±11.2%)</t>
-  </si>
-  <si>
-    <t>-6.1% (±4.0%)</t>
-  </si>
-  <si>
-    <t>47.5% (±15.5%)</t>
-  </si>
-  <si>
-    <t>2.5% (±5.3%)</t>
-  </si>
-  <si>
-    <t>12.8% (±6.0%)</t>
-  </si>
-  <si>
-    <t>15.4% (±11.2%)</t>
-  </si>
-  <si>
-    <t>4.2% (±7.0%)</t>
+    <t>415.8 (±135.2)</t>
+  </si>
+  <si>
+    <t>2.2 (±3.4)</t>
+  </si>
+  <si>
+    <t>609.8 (±175.5)</t>
+  </si>
+  <si>
+    <t>72.6 (±19.8)</t>
+  </si>
+  <si>
+    <t>23.6 (±28.1)</t>
+  </si>
+  <si>
+    <t>58.6 (±19.6)</t>
+  </si>
+  <si>
+    <t>301.8 (±654.9)</t>
+  </si>
+  <si>
+    <t>-417.4 (±112.2)</t>
+  </si>
+  <si>
+    <t>13807.4 (±2026.8)</t>
+  </si>
+  <si>
+    <t>2797.0 (±792.0)</t>
+  </si>
+  <si>
+    <t>1672.4 (±497.9)</t>
+  </si>
+  <si>
+    <t>466.8 (±217.6)</t>
+  </si>
+  <si>
+    <t>711.6 (±119.1)</t>
+  </si>
+  <si>
+    <t>506.6 (±125.6)</t>
+  </si>
+  <si>
+    <t>4387.0 (±2754.0)</t>
+  </si>
+  <si>
+    <t>-847.6 (±376.2)</t>
+  </si>
+  <si>
+    <t>4.5% (±5.7%)</t>
+  </si>
+  <si>
+    <t>0.5% (±4.9%)</t>
+  </si>
+  <si>
+    <t>23.2% (±6.0%)</t>
+  </si>
+  <si>
+    <t>22.3% (±8.2%)</t>
+  </si>
+  <si>
+    <t>28.4% (±8.6%)</t>
+  </si>
+  <si>
+    <t>-2.3% (±3.6%)</t>
+  </si>
+  <si>
+    <t>43.6% (±13.0%)</t>
+  </si>
+  <si>
+    <t>5.2% (±4.8%)</t>
+  </si>
+  <si>
+    <t>13.0% (±5.3%)</t>
+  </si>
+  <si>
+    <t>19.5% (±11.3%)</t>
+  </si>
+  <si>
+    <t>5.7% (±5.5%)</t>
   </si>
   <si>
     <t>-0.2% (±9.0%)</t>
   </si>
   <si>
-    <t>24.2% (±10.6%)</t>
-  </si>
-  <si>
-    <t>1.2% (±14.5%)</t>
-  </si>
-  <si>
-    <t>22.4% (±9.3%)</t>
-  </si>
-  <si>
-    <t>27.2% (±9.6%)</t>
-  </si>
-  <si>
-    <t>0.9% (±12.1%)</t>
-  </si>
-  <si>
-    <t>24.0% (±26.7%)</t>
-  </si>
-  <si>
-    <t>1.4% (±5.2%)</t>
-  </si>
-  <si>
-    <t>-13.4% (±3.3%)</t>
-  </si>
-  <si>
-    <t>61.1% (±13.4%)</t>
-  </si>
-  <si>
-    <t>28.9% (±8.8%)</t>
-  </si>
-  <si>
-    <t>16.2% (±7.9%)</t>
-  </si>
-  <si>
-    <t>0.6% (±12.6%)</t>
-  </si>
-  <si>
-    <t>32.1% (±8.2%)</t>
-  </si>
-  <si>
-    <t>36.1% (±11.6%)</t>
-  </si>
-  <si>
-    <t>8.3% (±7.9%)</t>
-  </si>
-  <si>
-    <t>-7.9% (±3.8%)</t>
-  </si>
-  <si>
-    <t>104.4(±520.8)</t>
-  </si>
-  <si>
-    <t>-209.6(±492.3)</t>
-  </si>
-  <si>
-    <t>2442.4(±647.0)</t>
-  </si>
-  <si>
-    <t>1134.2(±661.4)</t>
-  </si>
-  <si>
-    <t>2509.6(±647.6)</t>
-  </si>
-  <si>
-    <t>-267.1(±196.6)</t>
-  </si>
-  <si>
-    <t>3480.6(±857.4)</t>
-  </si>
-  <si>
-    <t>201.3(±439.4)</t>
-  </si>
-  <si>
-    <t>917.8(±400.6)</t>
-  </si>
-  <si>
-    <t>826.7(±575.5)</t>
-  </si>
-  <si>
-    <t>329.0(±559.0)</t>
+    <t>27.3% (±10.4%)</t>
+  </si>
+  <si>
+    <t>10.1% (±14.9%)</t>
+  </si>
+  <si>
+    <t>24.7% (±8.3%)</t>
+  </si>
+  <si>
+    <t>20.7% (±6.5%)</t>
+  </si>
+  <si>
+    <t>9.1% (±10.7%)</t>
+  </si>
+  <si>
+    <t>43.9% (±18.4%)</t>
+  </si>
+  <si>
+    <t>1.9% (±4.0%)</t>
+  </si>
+  <si>
+    <t>-8.5% (±2.1%)</t>
+  </si>
+  <si>
+    <t>58.8% (±12.6%)</t>
+  </si>
+  <si>
+    <t>24.4% (±8.0%)</t>
+  </si>
+  <si>
+    <t>20.7% (±7.0%)</t>
+  </si>
+  <si>
+    <t>18.5% (±9.4%)</t>
+  </si>
+  <si>
+    <t>30.6% (±6.3%)</t>
+  </si>
+  <si>
+    <t>35.3% (±10.9%)</t>
+  </si>
+  <si>
+    <t>8.6% (±5.5%)</t>
+  </si>
+  <si>
+    <t>-8.0% (±3.2%)</t>
+  </si>
+  <si>
+    <t>447.5(±580.1)</t>
+  </si>
+  <si>
+    <t>53.8(±533.8)</t>
+  </si>
+  <si>
+    <t>3158.0(±704.6)</t>
+  </si>
+  <si>
+    <t>2541.8(±819.8)</t>
+  </si>
+  <si>
+    <t>2763.9(±699.4)</t>
+  </si>
+  <si>
+    <t>-134.5(±221.5)</t>
+  </si>
+  <si>
+    <t>4253.3(±973.1)</t>
+  </si>
+  <si>
+    <t>525.5(±481.2)</t>
+  </si>
+  <si>
+    <t>1250.6(±474.0)</t>
+  </si>
+  <si>
+    <t>1320.7(±706.0)</t>
+  </si>
+  <si>
+    <t>609.0(±581.0)</t>
   </si>
   <si>
     <t>-9.2(±514.0)</t>
   </si>
   <si>
-    <t>1869.1(±723.5)</t>
-  </si>
-  <si>
-    <t>42.9(±600.9)</t>
-  </si>
-  <si>
-    <t>1945.7(±712.1)</t>
-  </si>
-  <si>
-    <t>1590.1(±477.5)</t>
-  </si>
-  <si>
-    <t>56.8(±827.4)</t>
-  </si>
-  <si>
-    <t>535.2(±611.1)</t>
-  </si>
-  <si>
-    <t>136.3(±538.9)</t>
-  </si>
-  <si>
-    <t>-1095.0(±330.0)</t>
-  </si>
-  <si>
-    <t>4673.8(±693.0)</t>
-  </si>
-  <si>
-    <t>2668.8(±678.2)</t>
-  </si>
-  <si>
-    <t>856.4(±386.4)</t>
-  </si>
-  <si>
-    <t>23.4(±544.3)</t>
-  </si>
-  <si>
-    <t>2477.5(±512.2)</t>
-  </si>
-  <si>
-    <t>2442.8(±630.7)</t>
-  </si>
-  <si>
-    <t>445.2(±421.1)</t>
-  </si>
-  <si>
-    <t>-690.5(±383.9)</t>
+    <t>2895.5(±941.5)</t>
+  </si>
+  <si>
+    <t>472.1(±729.6)</t>
+  </si>
+  <si>
+    <t>2906.6(±836.5)</t>
+  </si>
+  <si>
+    <t>1874.0(±511.1)</t>
+  </si>
+  <si>
+    <t>838.1(±997.8)</t>
+  </si>
+  <si>
+    <t>2613.7(±874.3)</t>
+  </si>
+  <si>
+    <t>238.3(±517.2)</t>
+  </si>
+  <si>
+    <t>-928.2(±249.5)</t>
+  </si>
+  <si>
+    <t>5528.4(±811.5)</t>
+  </si>
+  <si>
+    <t>2937.4(±831.8)</t>
+  </si>
+  <si>
+    <t>1412.2(±420.5)</t>
+  </si>
+  <si>
+    <t>1299.1(±605.6)</t>
+  </si>
+  <si>
+    <t>2819.0(±471.8)</t>
+  </si>
+  <si>
+    <t>3028.6(±750.9)</t>
+  </si>
+  <si>
+    <t>816.7(±512.6)</t>
+  </si>
+  <si>
+    <t>-862.2(±382.7)</t>
   </si>
   <si>
     <t>Age</t>
@@ -1665,52 +1665,52 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>4430</v>
+        <v>5984</v>
       </c>
       <c r="D2">
-        <v>3838</v>
+        <v>5352</v>
       </c>
       <c r="E2">
-        <v>4824</v>
+        <v>6389</v>
       </c>
       <c r="F2">
-        <v>4763</v>
+        <v>6328</v>
       </c>
       <c r="G2">
-        <v>4265</v>
+        <v>6002</v>
       </c>
       <c r="H2">
-        <v>4266</v>
+        <v>5958</v>
       </c>
       <c r="I2">
-        <v>4424</v>
+        <v>6011.000000000001</v>
       </c>
       <c r="J2">
-        <v>358.8</v>
+        <v>368.4</v>
       </c>
       <c r="K2">
         <v>1.96</v>
       </c>
       <c r="L2">
-        <v>314.5</v>
+        <v>322.9</v>
       </c>
       <c r="M2">
-        <v>4109.5</v>
+        <v>5688.100000000001</v>
       </c>
       <c r="N2">
-        <v>4738.5</v>
+        <v>6333.900000000001</v>
       </c>
       <c r="O2">
-        <v>-158</v>
+        <v>-53</v>
       </c>
       <c r="P2">
-        <v>314.5</v>
+        <v>322.9</v>
       </c>
       <c r="Q2">
-        <v>-3.6</v>
+        <v>-0.9</v>
       </c>
       <c r="R2">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
         <v>54</v>
@@ -1725,10 +1725,10 @@
         <v>59960</v>
       </c>
       <c r="W2">
-        <v>-263.5</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="X2">
-        <v>524.5</v>
+        <v>538.5</v>
       </c>
       <c r="Y2" t="s">
         <v>138</v>
@@ -1742,52 +1742,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>6263</v>
+        <v>8057</v>
       </c>
       <c r="D3">
-        <v>5340</v>
+        <v>7138</v>
       </c>
       <c r="E3">
-        <v>6230</v>
+        <v>8158</v>
       </c>
       <c r="F3">
-        <v>6668</v>
+        <v>8529</v>
       </c>
       <c r="G3">
-        <v>6116</v>
+        <v>8178</v>
       </c>
       <c r="H3">
-        <v>5684</v>
+        <v>7750</v>
       </c>
       <c r="I3">
-        <v>6123.400000000001</v>
+        <v>8012</v>
       </c>
       <c r="J3">
-        <v>433.9</v>
+        <v>465.2</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>380.3</v>
+        <v>407.8</v>
       </c>
       <c r="M3">
-        <v>5743.1</v>
+        <v>7604.2</v>
       </c>
       <c r="N3">
-        <v>6503.700000000001</v>
+        <v>8419.799999999999</v>
       </c>
       <c r="O3">
-        <v>-439.4</v>
+        <v>-262</v>
       </c>
       <c r="P3">
-        <v>380.3</v>
+        <v>407.8</v>
       </c>
       <c r="Q3">
-        <v>-7.2</v>
+        <v>-3.3</v>
       </c>
       <c r="R3">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -1802,10 +1802,10 @@
         <v>81428</v>
       </c>
       <c r="W3">
-        <v>-539.6</v>
+        <v>-321.8</v>
       </c>
       <c r="X3">
-        <v>467</v>
+        <v>500.9</v>
       </c>
       <c r="Y3" t="s">
         <v>139</v>
@@ -1819,52 +1819,52 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>2246</v>
+        <v>3051</v>
       </c>
       <c r="D4">
-        <v>2099</v>
+        <v>2929</v>
       </c>
       <c r="E4">
-        <v>2605</v>
+        <v>3441</v>
       </c>
       <c r="F4">
-        <v>2497</v>
+        <v>3326</v>
       </c>
       <c r="G4">
-        <v>2519</v>
+        <v>3425</v>
       </c>
       <c r="H4">
-        <v>2887</v>
+        <v>3858</v>
       </c>
       <c r="I4">
-        <v>2393.2</v>
+        <v>3234.4</v>
       </c>
       <c r="J4">
-        <v>189.6</v>
+        <v>207</v>
       </c>
       <c r="K4">
         <v>1.96</v>
       </c>
       <c r="L4">
-        <v>166.2</v>
+        <v>181.4</v>
       </c>
       <c r="M4">
-        <v>2227</v>
+        <v>3053</v>
       </c>
       <c r="N4">
-        <v>2559.4</v>
+        <v>3415.8</v>
       </c>
       <c r="O4">
-        <v>493.8</v>
+        <v>623.6</v>
       </c>
       <c r="P4">
-        <v>166.2</v>
+        <v>181.4</v>
       </c>
       <c r="Q4">
-        <v>20.6</v>
+        <v>19.3</v>
       </c>
       <c r="R4">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="S4" t="s">
         <v>56</v>
@@ -1879,10 +1879,10 @@
         <v>24448</v>
       </c>
       <c r="W4">
-        <v>2019.8</v>
+        <v>2550.7</v>
       </c>
       <c r="X4">
-        <v>679.8</v>
+        <v>742</v>
       </c>
       <c r="Y4" t="s">
         <v>140</v>
@@ -1896,52 +1896,52 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>1205</v>
+        <v>1896</v>
       </c>
       <c r="D5">
-        <v>928</v>
+        <v>1598</v>
       </c>
       <c r="E5">
-        <v>1326</v>
+        <v>2026</v>
       </c>
       <c r="F5">
-        <v>1285</v>
+        <v>2018</v>
       </c>
       <c r="G5">
-        <v>1196</v>
+        <v>1976</v>
       </c>
       <c r="H5">
-        <v>1321</v>
+        <v>2206</v>
       </c>
       <c r="I5">
-        <v>1188</v>
+        <v>1902.8</v>
       </c>
       <c r="J5">
-        <v>138.9</v>
+        <v>159.2</v>
       </c>
       <c r="K5">
         <v>1.96</v>
       </c>
       <c r="L5">
-        <v>121.8</v>
+        <v>139.5</v>
       </c>
       <c r="M5">
-        <v>1066.2</v>
+        <v>1763.3</v>
       </c>
       <c r="N5">
-        <v>1309.8</v>
+        <v>2042.3</v>
       </c>
       <c r="O5">
-        <v>133</v>
+        <v>303.2</v>
       </c>
       <c r="P5">
-        <v>121.8</v>
+        <v>139.5</v>
       </c>
       <c r="Q5">
-        <v>11.2</v>
+        <v>15.9</v>
       </c>
       <c r="R5">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="S5" t="s">
         <v>57</v>
@@ -1956,10 +1956,10 @@
         <v>16954</v>
       </c>
       <c r="W5">
-        <v>784.5</v>
+        <v>1788.4</v>
       </c>
       <c r="X5">
-        <v>718.4</v>
+        <v>822.8</v>
       </c>
       <c r="Y5" t="s">
         <v>141</v>
@@ -1973,52 +1973,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>3216</v>
+        <v>4288</v>
       </c>
       <c r="D6">
-        <v>2620</v>
+        <v>3687</v>
       </c>
       <c r="E6">
-        <v>3570</v>
+        <v>4682</v>
       </c>
       <c r="F6">
-        <v>3507</v>
+        <v>4707</v>
       </c>
       <c r="G6">
-        <v>3271</v>
+        <v>4488</v>
       </c>
       <c r="H6">
-        <v>4124</v>
+        <v>5340</v>
       </c>
       <c r="I6">
-        <v>3236.799999999999</v>
+        <v>4370.4</v>
       </c>
       <c r="J6">
-        <v>336.5</v>
+        <v>373.6</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>295</v>
+        <v>327.5</v>
       </c>
       <c r="M6">
-        <v>2941.799999999999</v>
+        <v>4042.9</v>
       </c>
       <c r="N6">
-        <v>3531.799999999999</v>
+        <v>4697.9</v>
       </c>
       <c r="O6">
-        <v>887.2</v>
+        <v>969.6</v>
       </c>
       <c r="P6">
-        <v>295</v>
+        <v>327.5</v>
       </c>
       <c r="Q6">
-        <v>27.4</v>
+        <v>22.2</v>
       </c>
       <c r="R6">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="S6" t="s">
         <v>58</v>
@@ -2033,10 +2033,10 @@
         <v>45726</v>
       </c>
       <c r="W6">
-        <v>1940.3</v>
+        <v>2120.5</v>
       </c>
       <c r="X6">
-        <v>645.1</v>
+        <v>716.2</v>
       </c>
       <c r="Y6" t="s">
         <v>142</v>
@@ -2050,52 +2050,52 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>2657</v>
+        <v>3541</v>
       </c>
       <c r="D7">
-        <v>2565</v>
+        <v>3417</v>
       </c>
       <c r="E7">
-        <v>2704</v>
+        <v>3611</v>
       </c>
       <c r="F7">
-        <v>2897</v>
+        <v>3784</v>
       </c>
       <c r="G7">
-        <v>2561</v>
+        <v>3454</v>
       </c>
       <c r="H7">
-        <v>2432</v>
+        <v>3366</v>
       </c>
       <c r="I7">
-        <v>2676.8</v>
+        <v>3561.4</v>
       </c>
       <c r="J7">
-        <v>122.9</v>
+        <v>130.2</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>107.7</v>
+        <v>114.1</v>
       </c>
       <c r="M7">
-        <v>2569.1</v>
+        <v>3447.3</v>
       </c>
       <c r="N7">
-        <v>2784.5</v>
+        <v>3675.5</v>
       </c>
       <c r="O7">
-        <v>-244.8</v>
+        <v>-195.4</v>
       </c>
       <c r="P7">
-        <v>107.7</v>
+        <v>114.1</v>
       </c>
       <c r="Q7">
-        <v>-9.1</v>
+        <v>-5.5</v>
       </c>
       <c r="R7">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="S7" t="s">
         <v>59</v>
@@ -2110,10 +2110,10 @@
         <v>64205</v>
       </c>
       <c r="W7">
-        <v>-381.3</v>
+        <v>-304.3</v>
       </c>
       <c r="X7">
-        <v>167.8</v>
+        <v>177.7</v>
       </c>
       <c r="Y7" t="s">
         <v>143</v>
@@ -2127,52 +2127,52 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>569</v>
+        <v>752</v>
       </c>
       <c r="D8">
-        <v>547</v>
+        <v>761</v>
       </c>
       <c r="E8">
-        <v>648</v>
+        <v>860</v>
       </c>
       <c r="F8">
-        <v>781</v>
+        <v>989</v>
       </c>
       <c r="G8">
-        <v>701</v>
+        <v>950</v>
       </c>
       <c r="H8">
-        <v>919</v>
+        <v>1185</v>
       </c>
       <c r="I8">
-        <v>649.2</v>
+        <v>862.4</v>
       </c>
       <c r="J8">
-        <v>85.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="K8">
         <v>1.96</v>
       </c>
       <c r="L8">
-        <v>75.3</v>
+        <v>84.2</v>
       </c>
       <c r="M8">
-        <v>573.9000000000001</v>
+        <v>778.1999999999999</v>
       </c>
       <c r="N8">
-        <v>724.5</v>
+        <v>946.6</v>
       </c>
       <c r="O8">
-        <v>269.8</v>
+        <v>322.6</v>
       </c>
       <c r="P8">
-        <v>75.3</v>
+        <v>84.2</v>
       </c>
       <c r="Q8">
-        <v>41.6</v>
+        <v>37.4</v>
       </c>
       <c r="R8">
-        <v>14.8</v>
+        <v>12.2</v>
       </c>
       <c r="S8" t="s">
         <v>60</v>
@@ -2187,10 +2187,10 @@
         <v>8999</v>
       </c>
       <c r="W8">
-        <v>2998.1</v>
+        <v>3584.8</v>
       </c>
       <c r="X8">
-        <v>836.8</v>
+        <v>935.7</v>
       </c>
       <c r="Y8" t="s">
         <v>144</v>
@@ -2204,52 +2204,52 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>2861</v>
+        <v>3627</v>
       </c>
       <c r="D9">
-        <v>2820</v>
+        <v>3647</v>
       </c>
       <c r="E9">
-        <v>2959</v>
+        <v>3816</v>
       </c>
       <c r="F9">
-        <v>3217</v>
+        <v>4035</v>
       </c>
       <c r="G9">
-        <v>3056</v>
+        <v>3880</v>
       </c>
       <c r="H9">
-        <v>2968</v>
+        <v>3877</v>
       </c>
       <c r="I9">
-        <v>2982.600000000001</v>
+        <v>3801.000000000001</v>
       </c>
       <c r="J9">
-        <v>142.9</v>
+        <v>151.8</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>125.3</v>
+        <v>133.1</v>
       </c>
       <c r="M9">
-        <v>2857.300000000001</v>
+        <v>3667.900000000001</v>
       </c>
       <c r="N9">
-        <v>3107.900000000001</v>
+        <v>3934.100000000001</v>
       </c>
       <c r="O9">
-        <v>-14.6</v>
+        <v>76</v>
       </c>
       <c r="P9">
-        <v>125.3</v>
+        <v>133.1</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S9" t="s">
         <v>61</v>
@@ -2264,10 +2264,10 @@
         <v>38511</v>
       </c>
       <c r="W9">
-        <v>-37.9</v>
+        <v>197.3</v>
       </c>
       <c r="X9">
-        <v>325.4</v>
+        <v>345.7</v>
       </c>
       <c r="Y9" t="s">
         <v>145</v>
@@ -2281,52 +2281,52 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>41930</v>
+        <v>55022</v>
       </c>
       <c r="D10">
-        <v>37826</v>
+        <v>51722</v>
       </c>
       <c r="E10">
-        <v>43894</v>
+        <v>57975</v>
       </c>
       <c r="F10">
-        <v>45257</v>
+        <v>59895</v>
       </c>
       <c r="G10">
-        <v>44096</v>
+        <v>59308</v>
       </c>
       <c r="H10">
-        <v>46766</v>
+        <v>62813</v>
       </c>
       <c r="I10">
-        <v>42600.60000000001</v>
+        <v>56784.40000000001</v>
       </c>
       <c r="J10">
-        <v>2615.8</v>
+        <v>3039.6</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>2292.8</v>
+        <v>2664.3</v>
       </c>
       <c r="M10">
-        <v>40307.8</v>
+        <v>54120.10000000001</v>
       </c>
       <c r="N10">
-        <v>44893.40000000001</v>
+        <v>59448.70000000001</v>
       </c>
       <c r="O10">
-        <v>4165.4</v>
+        <v>6028.6</v>
       </c>
       <c r="P10">
-        <v>2292.8</v>
+        <v>2664.3</v>
       </c>
       <c r="Q10">
-        <v>9.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="R10">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="S10" t="s">
         <v>62</v>
@@ -2341,10 +2341,10 @@
         <v>637962</v>
       </c>
       <c r="W10">
-        <v>652.9</v>
+        <v>945</v>
       </c>
       <c r="X10">
-        <v>359.4</v>
+        <v>417.6</v>
       </c>
       <c r="Y10" t="s">
         <v>146</v>
@@ -2358,52 +2358,52 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>4108</v>
+        <v>5191</v>
       </c>
       <c r="D11">
-        <v>3553</v>
+        <v>4511</v>
       </c>
       <c r="E11">
-        <v>4838</v>
+        <v>5979</v>
       </c>
       <c r="F11">
-        <v>4220</v>
+        <v>5380</v>
       </c>
       <c r="G11">
-        <v>5004</v>
+        <v>6393</v>
       </c>
       <c r="H11">
-        <v>4898</v>
+        <v>6397</v>
       </c>
       <c r="I11">
-        <v>4344.6</v>
+        <v>5490.8</v>
       </c>
       <c r="J11">
-        <v>524.7</v>
+        <v>650.3</v>
       </c>
       <c r="K11">
         <v>1.96</v>
       </c>
       <c r="L11">
-        <v>459.9</v>
+        <v>570</v>
       </c>
       <c r="M11">
-        <v>3884.7</v>
+        <v>4920.8</v>
       </c>
       <c r="N11">
-        <v>4804.5</v>
+        <v>6060.8</v>
       </c>
       <c r="O11">
-        <v>553.4</v>
+        <v>906.2</v>
       </c>
       <c r="P11">
-        <v>459.9</v>
+        <v>570</v>
       </c>
       <c r="Q11">
-        <v>12.7</v>
+        <v>16.5</v>
       </c>
       <c r="R11">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S11" t="s">
         <v>63</v>
@@ -2418,10 +2418,10 @@
         <v>74816</v>
       </c>
       <c r="W11">
-        <v>739.7</v>
+        <v>1211.2</v>
       </c>
       <c r="X11">
-        <v>614.7</v>
+        <v>761.9</v>
       </c>
       <c r="Y11" t="s">
         <v>147</v>
@@ -2435,52 +2435,52 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>3609</v>
+        <v>4845</v>
       </c>
       <c r="D12">
-        <v>3008</v>
+        <v>4249</v>
       </c>
       <c r="E12">
-        <v>3888</v>
+        <v>5195</v>
       </c>
       <c r="F12">
-        <v>3718</v>
+        <v>4985</v>
       </c>
       <c r="G12">
-        <v>3776</v>
+        <v>5094</v>
       </c>
       <c r="H12">
-        <v>3689</v>
+        <v>5100</v>
       </c>
       <c r="I12">
-        <v>3599.8</v>
+        <v>4873.599999999999</v>
       </c>
       <c r="J12">
-        <v>309.3</v>
+        <v>333.2</v>
       </c>
       <c r="K12">
         <v>1.96</v>
       </c>
       <c r="L12">
-        <v>271.1</v>
+        <v>292.1</v>
       </c>
       <c r="M12">
-        <v>3328.7</v>
+        <v>4581.499999999999</v>
       </c>
       <c r="N12">
-        <v>3870.9</v>
+        <v>5165.7</v>
       </c>
       <c r="O12">
-        <v>89.2</v>
+        <v>226.4</v>
       </c>
       <c r="P12">
-        <v>271.1</v>
+        <v>292.1</v>
       </c>
       <c r="Q12">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="R12">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="S12" t="s">
         <v>64</v>
@@ -2495,10 +2495,10 @@
         <v>46683</v>
       </c>
       <c r="W12">
-        <v>191.1</v>
+        <v>485</v>
       </c>
       <c r="X12">
-        <v>580.7</v>
+        <v>625.7</v>
       </c>
       <c r="Y12" t="s">
         <v>148</v>
@@ -2589,52 +2589,52 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>780</v>
+        <v>1082</v>
       </c>
       <c r="D14">
-        <v>802</v>
+        <v>1101</v>
       </c>
       <c r="E14">
-        <v>931</v>
+        <v>1272</v>
       </c>
       <c r="F14">
-        <v>1015</v>
+        <v>1381</v>
       </c>
       <c r="G14">
-        <v>987</v>
+        <v>1349</v>
       </c>
       <c r="H14">
-        <v>1060</v>
+        <v>1488</v>
       </c>
       <c r="I14">
-        <v>902.9999999999999</v>
+        <v>1237</v>
       </c>
       <c r="J14">
-        <v>95.59999999999999</v>
+        <v>124.1</v>
       </c>
       <c r="K14">
         <v>1.96</v>
       </c>
       <c r="L14">
-        <v>83.8</v>
+        <v>108.8</v>
       </c>
       <c r="M14">
-        <v>819.1999999999999</v>
+        <v>1128.2</v>
       </c>
       <c r="N14">
-        <v>986.7999999999998</v>
+        <v>1345.8</v>
       </c>
       <c r="O14">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="P14">
-        <v>83.8</v>
+        <v>108.8</v>
       </c>
       <c r="Q14">
-        <v>17.4</v>
+        <v>20.3</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S14" t="s">
         <v>66</v>
@@ -2649,10 +2649,10 @@
         <v>11811</v>
       </c>
       <c r="W14">
-        <v>1329.3</v>
+        <v>2125.1</v>
       </c>
       <c r="X14">
-        <v>709.5</v>
+        <v>921.2</v>
       </c>
       <c r="Y14" t="s">
         <v>150</v>
@@ -2666,52 +2666,52 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I15">
-        <v>11.4</v>
+        <v>15.2</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K15">
         <v>1.96</v>
       </c>
       <c r="L15">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>8.699999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="N15">
-        <v>14.1</v>
+        <v>18.1</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>31.6</v>
+        <v>25</v>
       </c>
       <c r="R15">
-        <v>25.2</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s">
         <v>67</v>
@@ -2726,10 +2726,10 @@
         <v>348</v>
       </c>
       <c r="W15">
-        <v>1034.5</v>
+        <v>1092</v>
       </c>
       <c r="X15">
-        <v>775.8</v>
+        <v>833.3</v>
       </c>
       <c r="Y15" t="s">
         <v>151</v>
@@ -2743,52 +2743,52 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>1307</v>
+        <v>1764</v>
       </c>
       <c r="D16">
-        <v>1281</v>
+        <v>1773</v>
       </c>
       <c r="E16">
-        <v>1461</v>
+        <v>1957</v>
       </c>
       <c r="F16">
-        <v>1605</v>
+        <v>2127</v>
       </c>
       <c r="G16">
-        <v>1479</v>
+        <v>2026</v>
       </c>
       <c r="H16">
-        <v>1651</v>
+        <v>2304</v>
       </c>
       <c r="I16">
-        <v>1426.6</v>
+        <v>1929.4</v>
       </c>
       <c r="J16">
-        <v>119.4</v>
+        <v>142.1</v>
       </c>
       <c r="K16">
         <v>1.96</v>
       </c>
       <c r="L16">
-        <v>104.7</v>
+        <v>124.6</v>
       </c>
       <c r="M16">
-        <v>1321.9</v>
+        <v>1804.8</v>
       </c>
       <c r="N16">
-        <v>1531.3</v>
+        <v>2054</v>
       </c>
       <c r="O16">
-        <v>224.4</v>
+        <v>374.6</v>
       </c>
       <c r="P16">
-        <v>104.7</v>
+        <v>124.6</v>
       </c>
       <c r="Q16">
-        <v>15.7</v>
+        <v>19.4</v>
       </c>
       <c r="R16">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="S16" t="s">
         <v>68</v>
@@ -2803,10 +2803,10 @@
         <v>16690</v>
       </c>
       <c r="W16">
-        <v>1344.5</v>
+        <v>2244.5</v>
       </c>
       <c r="X16">
-        <v>627.3</v>
+        <v>746.5</v>
       </c>
       <c r="Y16" t="s">
         <v>152</v>
@@ -2820,52 +2820,52 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="D17">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="E17">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="F17">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="H17">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="I17">
-        <v>165.6</v>
+        <v>254.6</v>
       </c>
       <c r="J17">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="K17">
         <v>1.96</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="M17">
-        <v>149.6</v>
+        <v>238.1</v>
       </c>
       <c r="N17">
-        <v>181.6</v>
+        <v>271.1</v>
       </c>
       <c r="O17">
-        <v>31.4</v>
+        <v>44.4</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>17.4</v>
       </c>
       <c r="R17">
-        <v>10.5</v>
+        <v>7.1</v>
       </c>
       <c r="S17" t="s">
         <v>69</v>
@@ -2880,10 +2880,10 @@
         <v>2850</v>
       </c>
       <c r="W17">
-        <v>1101.8</v>
+        <v>1557.9</v>
       </c>
       <c r="X17">
-        <v>561.4</v>
+        <v>578.9</v>
       </c>
       <c r="Y17" t="s">
         <v>153</v>
@@ -2897,52 +2897,52 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="E18">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F18">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="G18">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="H18">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="I18">
-        <v>112.8</v>
+        <v>172.8</v>
       </c>
       <c r="J18">
-        <v>16.9</v>
+        <v>20.1</v>
       </c>
       <c r="K18">
         <v>1.96</v>
       </c>
       <c r="L18">
-        <v>14.8</v>
+        <v>17.6</v>
       </c>
       <c r="M18">
-        <v>98.00000000000001</v>
+        <v>155.2</v>
       </c>
       <c r="N18">
-        <v>127.6</v>
+        <v>190.4</v>
       </c>
       <c r="O18">
-        <v>19.2</v>
+        <v>25.2</v>
       </c>
       <c r="P18">
-        <v>14.8</v>
+        <v>17.6</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>14.6</v>
       </c>
       <c r="R18">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="S18" t="s">
         <v>70</v>
@@ -2957,10 +2957,10 @@
         <v>1957</v>
       </c>
       <c r="W18">
-        <v>981.1</v>
+        <v>1287.7</v>
       </c>
       <c r="X18">
-        <v>756.3</v>
+        <v>899.3</v>
       </c>
       <c r="Y18" t="s">
         <v>154</v>
@@ -2974,52 +2974,52 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I19">
-        <v>34.2</v>
+        <v>89.2</v>
       </c>
       <c r="J19">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="K19">
         <v>1.96</v>
       </c>
       <c r="L19">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>25.9</v>
+        <v>80.2</v>
       </c>
       <c r="N19">
-        <v>42.5</v>
+        <v>98.2</v>
       </c>
       <c r="O19">
-        <v>2.8</v>
+        <v>32.8</v>
       </c>
       <c r="P19">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="Q19">
-        <v>8.199999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="R19">
-        <v>21.1</v>
+        <v>12.6</v>
       </c>
       <c r="S19" t="s">
         <v>71</v>
@@ -3034,10 +3034,10 @@
         <v>1319</v>
       </c>
       <c r="W19">
-        <v>212.3</v>
+        <v>2486.7</v>
       </c>
       <c r="X19">
-        <v>629.2</v>
+        <v>682.4</v>
       </c>
       <c r="Y19" t="s">
         <v>155</v>
@@ -3051,52 +3051,52 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>8880</v>
+        <v>11139</v>
       </c>
       <c r="D20">
-        <v>8109</v>
+        <v>10594</v>
       </c>
       <c r="E20">
-        <v>8939</v>
+        <v>11419</v>
       </c>
       <c r="F20">
-        <v>9711</v>
+        <v>12080</v>
       </c>
       <c r="G20">
-        <v>8311</v>
+        <v>10854</v>
       </c>
       <c r="H20">
-        <v>8489</v>
+        <v>10926</v>
       </c>
       <c r="I20">
-        <v>8790.000000000002</v>
+        <v>11217.2</v>
       </c>
       <c r="J20">
-        <v>560.7</v>
+        <v>512.2</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>491.5</v>
+        <v>449</v>
       </c>
       <c r="M20">
-        <v>8298.500000000002</v>
+        <v>10768.2</v>
       </c>
       <c r="N20">
-        <v>9281.500000000002</v>
+        <v>11666.2</v>
       </c>
       <c r="O20">
-        <v>-301</v>
+        <v>-291.2</v>
       </c>
       <c r="P20">
-        <v>491.5</v>
+        <v>449</v>
       </c>
       <c r="Q20">
-        <v>-3.4</v>
+        <v>-2.6</v>
       </c>
       <c r="R20">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="S20" t="s">
         <v>72</v>
@@ -3111,10 +3111,10 @@
         <v>91382</v>
       </c>
       <c r="W20">
-        <v>-329.4</v>
+        <v>-318.7</v>
       </c>
       <c r="X20">
-        <v>537.9</v>
+        <v>491.4</v>
       </c>
       <c r="Y20" t="s">
         <v>156</v>
@@ -3128,52 +3128,52 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>2673</v>
+        <v>3521</v>
       </c>
       <c r="D21">
-        <v>2353</v>
+        <v>3225</v>
       </c>
       <c r="E21">
-        <v>2662</v>
+        <v>3469</v>
       </c>
       <c r="F21">
-        <v>2614</v>
+        <v>3424</v>
       </c>
       <c r="G21">
-        <v>2422</v>
+        <v>3274</v>
       </c>
       <c r="H21">
-        <v>2145</v>
+        <v>2989</v>
       </c>
       <c r="I21">
-        <v>2544.8</v>
+        <v>3382.6</v>
       </c>
       <c r="J21">
-        <v>131.8</v>
+        <v>114</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>115.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M21">
-        <v>2429.3</v>
+        <v>3282.7</v>
       </c>
       <c r="N21">
-        <v>2660.3</v>
+        <v>3482.5</v>
       </c>
       <c r="O21">
-        <v>-399.8</v>
+        <v>-393.6</v>
       </c>
       <c r="P21">
-        <v>115.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Q21">
-        <v>-15.7</v>
+        <v>-11.6</v>
       </c>
       <c r="R21">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="S21" t="s">
         <v>73</v>
@@ -3188,10 +3188,10 @@
         <v>31795</v>
       </c>
       <c r="W21">
-        <v>-1257.4</v>
+        <v>-1237.9</v>
       </c>
       <c r="X21">
-        <v>363.2</v>
+        <v>314.2</v>
       </c>
       <c r="Y21" t="s">
         <v>157</v>
@@ -3205,52 +3205,52 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>12782</v>
+        <v>15674</v>
       </c>
       <c r="D22">
-        <v>12114</v>
+        <v>15113</v>
       </c>
       <c r="E22">
-        <v>15468</v>
+        <v>18666</v>
       </c>
       <c r="F22">
-        <v>15550</v>
+        <v>19024</v>
       </c>
       <c r="G22">
-        <v>15094</v>
+        <v>18858</v>
       </c>
       <c r="H22">
-        <v>21905</v>
+        <v>26669</v>
       </c>
       <c r="I22">
-        <v>14201.6</v>
+        <v>17467</v>
       </c>
       <c r="J22">
-        <v>1455.4</v>
+        <v>1706</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>1275.7</v>
+        <v>1495.4</v>
       </c>
       <c r="M22">
-        <v>12925.9</v>
+        <v>15971.6</v>
       </c>
       <c r="N22">
-        <v>15477.3</v>
+        <v>18962.4</v>
       </c>
       <c r="O22">
-        <v>7703.4</v>
+        <v>9202</v>
       </c>
       <c r="P22">
-        <v>1275.7</v>
+        <v>1495.4</v>
       </c>
       <c r="Q22">
-        <v>54.2</v>
+        <v>52.7</v>
       </c>
       <c r="R22">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="S22" t="s">
         <v>74</v>
@@ -3265,10 +3265,10 @@
         <v>189452</v>
       </c>
       <c r="W22">
-        <v>4066.1</v>
+        <v>4857.2</v>
       </c>
       <c r="X22">
-        <v>673.4</v>
+        <v>789.3</v>
       </c>
       <c r="Y22" t="s">
         <v>158</v>
@@ -3282,52 +3282,52 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>6025</v>
+        <v>7612</v>
       </c>
       <c r="D23">
-        <v>5170</v>
+        <v>6908</v>
       </c>
       <c r="E23">
-        <v>5916</v>
+        <v>7716</v>
       </c>
       <c r="F23">
-        <v>6498</v>
+        <v>8413</v>
       </c>
       <c r="G23">
-        <v>6477</v>
+        <v>8545</v>
       </c>
       <c r="H23">
-        <v>7462</v>
+        <v>9443</v>
       </c>
       <c r="I23">
-        <v>6017.200000000001</v>
+        <v>7838.800000000001</v>
       </c>
       <c r="J23">
-        <v>483.9</v>
+        <v>593.5</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>424.2</v>
+        <v>520.2</v>
       </c>
       <c r="M23">
-        <v>5593.000000000001</v>
+        <v>7318.600000000001</v>
       </c>
       <c r="N23">
-        <v>6441.400000000001</v>
+        <v>8359.000000000002</v>
       </c>
       <c r="O23">
-        <v>1444.8</v>
+        <v>1604.2</v>
       </c>
       <c r="P23">
-        <v>424.2</v>
+        <v>520.2</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>20.5</v>
       </c>
       <c r="R23">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="S23" t="s">
         <v>75</v>
@@ -3342,10 +3342,10 @@
         <v>69318</v>
       </c>
       <c r="W23">
-        <v>2084.3</v>
+        <v>2314.3</v>
       </c>
       <c r="X23">
-        <v>612</v>
+        <v>750.4</v>
       </c>
       <c r="Y23" t="s">
         <v>159</v>
@@ -3359,52 +3359,52 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>4097</v>
+        <v>5365</v>
       </c>
       <c r="D24">
-        <v>3621</v>
+        <v>4799</v>
       </c>
       <c r="E24">
-        <v>4581</v>
+        <v>5773</v>
       </c>
       <c r="F24">
-        <v>4380</v>
+        <v>5700</v>
       </c>
       <c r="G24">
-        <v>4626</v>
+        <v>5920</v>
       </c>
       <c r="H24">
-        <v>4774</v>
+        <v>6457</v>
       </c>
       <c r="I24">
-        <v>4261</v>
+        <v>5511.4</v>
       </c>
       <c r="J24">
-        <v>370.5</v>
+        <v>400</v>
       </c>
       <c r="K24">
         <v>1.96</v>
       </c>
       <c r="L24">
-        <v>324.8</v>
+        <v>350.6</v>
       </c>
       <c r="M24">
-        <v>3936.2</v>
+        <v>5160.799999999999</v>
       </c>
       <c r="N24">
-        <v>4585.8</v>
+        <v>5862</v>
       </c>
       <c r="O24">
-        <v>513</v>
+        <v>945.6</v>
       </c>
       <c r="P24">
-        <v>324.8</v>
+        <v>350.6</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>17.2</v>
       </c>
       <c r="R24">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
         <v>76</v>
@@ -3419,10 +3419,10 @@
         <v>79562</v>
       </c>
       <c r="W24">
-        <v>644.8</v>
+        <v>1188.5</v>
       </c>
       <c r="X24">
-        <v>408.2</v>
+        <v>440.7</v>
       </c>
       <c r="Y24" t="s">
         <v>160</v>
@@ -3436,52 +3436,52 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>807</v>
+        <v>1598</v>
       </c>
       <c r="D25">
-        <v>741</v>
+        <v>1416</v>
       </c>
       <c r="E25">
-        <v>1203</v>
+        <v>1936</v>
       </c>
       <c r="F25">
-        <v>896</v>
+        <v>1729</v>
       </c>
       <c r="G25">
-        <v>925</v>
+        <v>1754</v>
       </c>
       <c r="H25">
-        <v>888</v>
+        <v>1880</v>
       </c>
       <c r="I25">
-        <v>914.4</v>
+        <v>1686.6</v>
       </c>
       <c r="J25">
-        <v>158.3</v>
+        <v>173</v>
       </c>
       <c r="K25">
         <v>1.96</v>
       </c>
       <c r="L25">
-        <v>138.8</v>
+        <v>151.6</v>
       </c>
       <c r="M25">
-        <v>775.5999999999999</v>
+        <v>1535</v>
       </c>
       <c r="N25">
-        <v>1053.2</v>
+        <v>1838.2</v>
       </c>
       <c r="O25">
-        <v>-26.4</v>
+        <v>193.4</v>
       </c>
       <c r="P25">
-        <v>138.8</v>
+        <v>151.6</v>
       </c>
       <c r="Q25">
-        <v>-2.9</v>
+        <v>11.5</v>
       </c>
       <c r="R25">
-        <v>12.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S25" t="s">
         <v>77</v>
@@ -3496,10 +3496,10 @@
         <v>23098</v>
       </c>
       <c r="W25">
-        <v>-114.3</v>
+        <v>837.3</v>
       </c>
       <c r="X25">
-        <v>600.9</v>
+        <v>656.3</v>
       </c>
       <c r="Y25" t="s">
         <v>161</v>
@@ -3513,52 +3513,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1365</v>
+        <v>1633</v>
       </c>
       <c r="D26">
-        <v>1262</v>
+        <v>1550</v>
       </c>
       <c r="E26">
-        <v>1601</v>
+        <v>1871</v>
       </c>
       <c r="F26">
-        <v>1504</v>
+        <v>1772</v>
       </c>
       <c r="G26">
-        <v>1481</v>
+        <v>1754</v>
       </c>
       <c r="H26">
-        <v>1909</v>
+        <v>2248</v>
       </c>
       <c r="I26">
-        <v>1442.6</v>
+        <v>1716</v>
       </c>
       <c r="J26">
-        <v>117.5</v>
+        <v>112.3</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>103</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="M26">
-        <v>1339.6</v>
+        <v>1617.6</v>
       </c>
       <c r="N26">
-        <v>1545.6</v>
+        <v>1814.4</v>
       </c>
       <c r="O26">
-        <v>466.4</v>
+        <v>532</v>
       </c>
       <c r="P26">
-        <v>103</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Q26">
-        <v>32.3</v>
+        <v>31</v>
       </c>
       <c r="R26">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="S26" t="s">
         <v>78</v>
@@ -3573,10 +3573,10 @@
         <v>18651</v>
       </c>
       <c r="W26">
-        <v>2500.7</v>
+        <v>2852.4</v>
       </c>
       <c r="X26">
-        <v>552.2</v>
+        <v>527.6</v>
       </c>
       <c r="Y26" t="s">
         <v>162</v>
@@ -3590,52 +3590,52 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>759</v>
+        <v>984</v>
       </c>
       <c r="D27">
-        <v>772</v>
+        <v>1001</v>
       </c>
       <c r="E27">
-        <v>930</v>
+        <v>1147</v>
       </c>
       <c r="F27">
-        <v>880</v>
+        <v>1088</v>
       </c>
       <c r="G27">
-        <v>976</v>
+        <v>1256</v>
       </c>
       <c r="H27">
-        <v>1118</v>
+        <v>1418</v>
       </c>
       <c r="I27">
-        <v>863.4000000000002</v>
+        <v>1095.2</v>
       </c>
       <c r="J27">
-        <v>85.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K27">
         <v>1.96</v>
       </c>
       <c r="L27">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="M27">
-        <v>788.4000000000002</v>
+        <v>1007.7</v>
       </c>
       <c r="N27">
-        <v>938.4000000000002</v>
+        <v>1182.7</v>
       </c>
       <c r="O27">
-        <v>254.6</v>
+        <v>322.8</v>
       </c>
       <c r="P27">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="Q27">
         <v>29.5</v>
       </c>
       <c r="R27">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="S27" t="s">
         <v>79</v>
@@ -3650,10 +3650,10 @@
         <v>13043</v>
       </c>
       <c r="W27">
-        <v>1952</v>
+        <v>2474.9</v>
       </c>
       <c r="X27">
-        <v>575</v>
+        <v>670.8</v>
       </c>
       <c r="Y27" t="s">
         <v>163</v>
@@ -3667,52 +3667,52 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>20778</v>
+        <v>34741</v>
       </c>
       <c r="D28">
-        <v>16279</v>
+        <v>30645</v>
       </c>
       <c r="E28">
-        <v>20278</v>
+        <v>35153</v>
       </c>
       <c r="F28">
-        <v>21372</v>
+        <v>36664</v>
       </c>
       <c r="G28">
-        <v>19674</v>
+        <v>35466</v>
       </c>
       <c r="H28">
-        <v>20272</v>
+        <v>36233</v>
       </c>
       <c r="I28">
-        <v>19676.2</v>
+        <v>34533.8</v>
       </c>
       <c r="J28">
-        <v>1788.5</v>
+        <v>2047.2</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>1567.7</v>
+        <v>1794.4</v>
       </c>
       <c r="M28">
-        <v>18108.5</v>
+        <v>32739.4</v>
       </c>
       <c r="N28">
-        <v>21243.90000000001</v>
+        <v>36328.2</v>
       </c>
       <c r="O28">
-        <v>595.8</v>
+        <v>1699.2</v>
       </c>
       <c r="P28">
-        <v>1567.7</v>
+        <v>1794.4</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="R28">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="S28" t="s">
         <v>80</v>
@@ -3727,10 +3727,10 @@
         <v>379188</v>
       </c>
       <c r="W28">
-        <v>157.1</v>
+        <v>448.1</v>
       </c>
       <c r="X28">
-        <v>413.5</v>
+        <v>473.2</v>
       </c>
       <c r="Y28" t="s">
         <v>164</v>
@@ -3744,52 +3744,52 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>5899</v>
+        <v>7243</v>
       </c>
       <c r="D29">
-        <v>5509</v>
+        <v>6729</v>
       </c>
       <c r="E29">
-        <v>5931</v>
+        <v>7243</v>
       </c>
       <c r="F29">
-        <v>6151</v>
+        <v>7352</v>
       </c>
       <c r="G29">
-        <v>5331</v>
+        <v>6615</v>
       </c>
       <c r="H29">
-        <v>5181</v>
+        <v>6323</v>
       </c>
       <c r="I29">
-        <v>5764.200000000001</v>
+        <v>7036.400000000001</v>
       </c>
       <c r="J29">
-        <v>299.5</v>
+        <v>302.3</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>262.5</v>
+        <v>265</v>
       </c>
       <c r="M29">
-        <v>5501.700000000001</v>
+        <v>6771.400000000001</v>
       </c>
       <c r="N29">
-        <v>6026.700000000001</v>
+        <v>7301.400000000001</v>
       </c>
       <c r="O29">
-        <v>-583.2</v>
+        <v>-713.4</v>
       </c>
       <c r="P29">
-        <v>262.5</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>-10.1</v>
       </c>
       <c r="R29">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="S29" t="s">
         <v>81</v>
@@ -3804,10 +3804,10 @@
         <v>68600</v>
       </c>
       <c r="W29">
-        <v>-850.1</v>
+        <v>-1039.9</v>
       </c>
       <c r="X29">
-        <v>382.6</v>
+        <v>386.3</v>
       </c>
       <c r="Y29" t="s">
         <v>165</v>
@@ -3911,52 +3911,52 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>1443</v>
+        <v>1952</v>
       </c>
       <c r="D2">
-        <v>1356</v>
+        <v>1904</v>
       </c>
       <c r="E2">
-        <v>1670</v>
+        <v>2243</v>
       </c>
       <c r="F2">
-        <v>1754</v>
+        <v>2369</v>
       </c>
       <c r="G2">
-        <v>1736</v>
+        <v>2451</v>
       </c>
       <c r="H2">
-        <v>1835</v>
+        <v>2602</v>
       </c>
       <c r="I2">
-        <v>1591.8</v>
+        <v>2183.8</v>
       </c>
       <c r="J2">
-        <v>161.8</v>
+        <v>219.6</v>
       </c>
       <c r="K2">
         <v>1.96</v>
       </c>
       <c r="L2">
-        <v>141.8</v>
+        <v>192.5</v>
       </c>
       <c r="M2">
-        <v>1450</v>
+        <v>1991.3</v>
       </c>
       <c r="N2">
-        <v>1733.6</v>
+        <v>2376.3</v>
       </c>
       <c r="O2">
-        <v>243.2</v>
+        <v>418.2</v>
       </c>
       <c r="P2">
-        <v>141.8</v>
+        <v>192.5</v>
       </c>
       <c r="Q2">
-        <v>15.3</v>
+        <v>19.2</v>
       </c>
       <c r="R2">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S2" t="s">
         <v>167</v>
@@ -3971,10 +3971,10 @@
         <v>21651</v>
       </c>
       <c r="W2">
-        <v>1123.3</v>
+        <v>1931.6</v>
       </c>
       <c r="X2">
-        <v>654.9</v>
+        <v>889.1</v>
       </c>
       <c r="Y2" t="s">
         <v>251</v>
@@ -3988,52 +3988,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>2540</v>
+        <v>3358</v>
       </c>
       <c r="D3">
-        <v>2288</v>
+        <v>3118</v>
       </c>
       <c r="E3">
-        <v>2796</v>
+        <v>3639</v>
       </c>
       <c r="F3">
-        <v>2862</v>
+        <v>3685</v>
       </c>
       <c r="G3">
-        <v>2864</v>
+        <v>3758</v>
       </c>
       <c r="H3">
-        <v>2874</v>
+        <v>3834</v>
       </c>
       <c r="I3">
-        <v>2670</v>
+        <v>3511.6</v>
       </c>
       <c r="J3">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>197.2</v>
+        <v>209.5</v>
       </c>
       <c r="M3">
-        <v>2472.8</v>
+        <v>3302.1</v>
       </c>
       <c r="N3">
-        <v>2867.199999999999</v>
+        <v>3721.1</v>
       </c>
       <c r="O3">
-        <v>204</v>
+        <v>322.4</v>
       </c>
       <c r="P3">
-        <v>197.2</v>
+        <v>209.5</v>
       </c>
       <c r="Q3">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R3">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="S3" t="s">
         <v>168</v>
@@ -4048,10 +4048,10 @@
         <v>30894</v>
       </c>
       <c r="W3">
-        <v>660.3</v>
+        <v>1043.6</v>
       </c>
       <c r="X3">
-        <v>638.3</v>
+        <v>678.1</v>
       </c>
       <c r="Y3" t="s">
         <v>252</v>
@@ -4065,52 +4065,52 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>1227</v>
+        <v>1608</v>
       </c>
       <c r="D4">
-        <v>1043</v>
+        <v>1445</v>
       </c>
       <c r="E4">
-        <v>1281</v>
+        <v>1666</v>
       </c>
       <c r="F4">
-        <v>1200</v>
+        <v>1576</v>
       </c>
       <c r="G4">
-        <v>1248</v>
+        <v>1705</v>
       </c>
       <c r="H4">
-        <v>1575</v>
+        <v>2100</v>
       </c>
       <c r="I4">
-        <v>1199.8</v>
+        <v>1600</v>
       </c>
       <c r="J4">
-        <v>82.8</v>
+        <v>89.5</v>
       </c>
       <c r="K4">
         <v>1.96</v>
       </c>
       <c r="L4">
-        <v>72.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="M4">
-        <v>1127.2</v>
+        <v>1521.5</v>
       </c>
       <c r="N4">
-        <v>1272.4</v>
+        <v>1678.5</v>
       </c>
       <c r="O4">
-        <v>375.2</v>
+        <v>500</v>
       </c>
       <c r="P4">
-        <v>72.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="Q4">
         <v>31.3</v>
       </c>
       <c r="R4">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="S4" t="s">
         <v>169</v>
@@ -4125,10 +4125,10 @@
         <v>11132</v>
       </c>
       <c r="W4">
-        <v>3370.5</v>
+        <v>4491.6</v>
       </c>
       <c r="X4">
-        <v>652.1</v>
+        <v>705.1</v>
       </c>
       <c r="Y4" t="s">
         <v>253</v>
@@ -4142,52 +4142,52 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>388</v>
+        <v>615</v>
       </c>
       <c r="D5">
-        <v>353</v>
+        <v>570</v>
       </c>
       <c r="E5">
-        <v>407</v>
+        <v>651</v>
       </c>
       <c r="F5">
-        <v>464</v>
+        <v>718</v>
       </c>
       <c r="G5">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="H5">
-        <v>531</v>
+        <v>921</v>
       </c>
       <c r="I5">
-        <v>409.9999999999999</v>
+        <v>655.0000000000001</v>
       </c>
       <c r="J5">
-        <v>38.6</v>
+        <v>58.6</v>
       </c>
       <c r="K5">
         <v>1.96</v>
       </c>
       <c r="L5">
-        <v>33.8</v>
+        <v>51.4</v>
       </c>
       <c r="M5">
-        <v>376.1999999999999</v>
+        <v>603.6000000000001</v>
       </c>
       <c r="N5">
-        <v>443.8</v>
+        <v>706.4000000000001</v>
       </c>
       <c r="O5">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="P5">
-        <v>33.8</v>
+        <v>51.4</v>
       </c>
       <c r="Q5">
-        <v>29.5</v>
+        <v>40.6</v>
       </c>
       <c r="R5">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="S5" t="s">
         <v>170</v>
@@ -4202,10 +4202,10 @@
         <v>5440</v>
       </c>
       <c r="W5">
-        <v>2224.3</v>
+        <v>4889.7</v>
       </c>
       <c r="X5">
-        <v>621.3</v>
+        <v>944.9</v>
       </c>
       <c r="Y5" t="s">
         <v>254</v>
@@ -4219,52 +4219,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>1188</v>
+        <v>1594</v>
       </c>
       <c r="D6">
-        <v>974</v>
+        <v>1402</v>
       </c>
       <c r="E6">
-        <v>1351</v>
+        <v>1773</v>
       </c>
       <c r="F6">
-        <v>1220</v>
+        <v>1641</v>
       </c>
       <c r="G6">
-        <v>1220</v>
+        <v>1693</v>
       </c>
       <c r="H6">
-        <v>1847</v>
+        <v>2351</v>
       </c>
       <c r="I6">
-        <v>1190.6</v>
+        <v>1620.6</v>
       </c>
       <c r="J6">
-        <v>122</v>
+        <v>124.4</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>106.9</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>1083.7</v>
+        <v>1511.6</v>
       </c>
       <c r="N6">
-        <v>1297.5</v>
+        <v>1729.6</v>
       </c>
       <c r="O6">
-        <v>656.4</v>
+        <v>730.4</v>
       </c>
       <c r="P6">
-        <v>106.9</v>
+        <v>109</v>
       </c>
       <c r="Q6">
-        <v>55.1</v>
+        <v>45.1</v>
       </c>
       <c r="R6">
-        <v>12.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S6" t="s">
         <v>171</v>
@@ -4279,10 +4279,10 @@
         <v>15781</v>
       </c>
       <c r="W6">
-        <v>4159.4</v>
+        <v>4628.4</v>
       </c>
       <c r="X6">
-        <v>677.4</v>
+        <v>690.7</v>
       </c>
       <c r="Y6" t="s">
         <v>255</v>
@@ -4296,52 +4296,52 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>1196</v>
+        <v>1540</v>
       </c>
       <c r="D7">
-        <v>1129</v>
+        <v>1503</v>
       </c>
       <c r="E7">
-        <v>1271</v>
+        <v>1667</v>
       </c>
       <c r="F7">
-        <v>1388</v>
+        <v>1799</v>
       </c>
       <c r="G7">
-        <v>1255</v>
+        <v>1637</v>
       </c>
       <c r="H7">
-        <v>1253</v>
+        <v>1704</v>
       </c>
       <c r="I7">
-        <v>1247.8</v>
+        <v>1629.2</v>
       </c>
       <c r="J7">
-        <v>86.09999999999999</v>
+        <v>104.1</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>75.5</v>
+        <v>91.2</v>
       </c>
       <c r="M7">
-        <v>1172.3</v>
+        <v>1538</v>
       </c>
       <c r="N7">
-        <v>1323.3</v>
+        <v>1720.4</v>
       </c>
       <c r="O7">
-        <v>5.2</v>
+        <v>74.8</v>
       </c>
       <c r="P7">
-        <v>75.5</v>
+        <v>91.2</v>
       </c>
       <c r="Q7">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="R7">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="S7" t="s">
         <v>172</v>
@@ -4356,10 +4356,10 @@
         <v>25493</v>
       </c>
       <c r="W7">
-        <v>20.4</v>
+        <v>293.4</v>
       </c>
       <c r="X7">
-        <v>296.2</v>
+        <v>357.8</v>
       </c>
       <c r="Y7" t="s">
         <v>256</v>
@@ -4373,52 +4373,52 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="E8">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="F8">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G8">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="H8">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="I8">
-        <v>155.8</v>
+        <v>208.8</v>
       </c>
       <c r="J8">
-        <v>21.9</v>
+        <v>26.1</v>
       </c>
       <c r="K8">
         <v>1.96</v>
       </c>
       <c r="L8">
-        <v>19.2</v>
+        <v>22.9</v>
       </c>
       <c r="M8">
-        <v>136.6</v>
+        <v>185.9</v>
       </c>
       <c r="N8">
-        <v>175</v>
+        <v>231.7</v>
       </c>
       <c r="O8">
-        <v>112.2</v>
+        <v>144.2</v>
       </c>
       <c r="P8">
-        <v>19.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q8">
-        <v>72</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="R8">
-        <v>18.9</v>
+        <v>16.7</v>
       </c>
       <c r="S8" t="s">
         <v>173</v>
@@ -4433,10 +4433,10 @@
         <v>1976</v>
       </c>
       <c r="W8">
-        <v>5678.1</v>
+        <v>7297.6</v>
       </c>
       <c r="X8">
-        <v>971.7</v>
+        <v>1158.9</v>
       </c>
       <c r="Y8" t="s">
         <v>257</v>
@@ -4450,52 +4450,52 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>971</v>
+        <v>1230</v>
       </c>
       <c r="D9">
-        <v>999</v>
+        <v>1340</v>
       </c>
       <c r="E9">
-        <v>1144</v>
+        <v>1475</v>
       </c>
       <c r="F9">
-        <v>1264</v>
+        <v>1556</v>
       </c>
       <c r="G9">
-        <v>1240</v>
+        <v>1614</v>
       </c>
       <c r="H9">
-        <v>1242</v>
+        <v>1638</v>
       </c>
       <c r="I9">
-        <v>1123.6</v>
+        <v>1443</v>
       </c>
       <c r="J9">
-        <v>120.4</v>
+        <v>140.7</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>105.5</v>
+        <v>123.3</v>
       </c>
       <c r="M9">
-        <v>1018.1</v>
+        <v>1319.7</v>
       </c>
       <c r="N9">
-        <v>1229.1</v>
+        <v>1566.3</v>
       </c>
       <c r="O9">
-        <v>118.4</v>
+        <v>195</v>
       </c>
       <c r="P9">
-        <v>105.5</v>
+        <v>123.3</v>
       </c>
       <c r="Q9">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="R9">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="S9" t="s">
         <v>174</v>
@@ -4510,10 +4510,10 @@
         <v>13061</v>
       </c>
       <c r="W9">
-        <v>906.5</v>
+        <v>1493</v>
       </c>
       <c r="X9">
-        <v>807.8</v>
+        <v>944</v>
       </c>
       <c r="Y9" t="s">
         <v>258</v>
@@ -4527,52 +4527,52 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>18721</v>
+        <v>24685</v>
       </c>
       <c r="D10">
-        <v>17391</v>
+        <v>23686</v>
       </c>
       <c r="E10">
-        <v>19971</v>
+        <v>26497</v>
       </c>
       <c r="F10">
-        <v>21017</v>
+        <v>27727</v>
       </c>
       <c r="G10">
-        <v>20844</v>
+        <v>27858</v>
       </c>
       <c r="H10">
-        <v>23358</v>
+        <v>30874</v>
       </c>
       <c r="I10">
-        <v>19588.8</v>
+        <v>26090.59999999999</v>
       </c>
       <c r="J10">
-        <v>1367.1</v>
+        <v>1656.8</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>1198.3</v>
+        <v>1452.2</v>
       </c>
       <c r="M10">
-        <v>18390.5</v>
+        <v>24638.39999999999</v>
       </c>
       <c r="N10">
-        <v>20787.1</v>
+        <v>27542.8</v>
       </c>
       <c r="O10">
-        <v>3769.2</v>
+        <v>4783.4</v>
       </c>
       <c r="P10">
-        <v>1198.3</v>
+        <v>1452.2</v>
       </c>
       <c r="Q10">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="R10">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="S10" t="s">
         <v>175</v>
@@ -4587,10 +4587,10 @@
         <v>226564</v>
       </c>
       <c r="W10">
-        <v>1663.6</v>
+        <v>2111.3</v>
       </c>
       <c r="X10">
-        <v>528.9</v>
+        <v>640.9</v>
       </c>
       <c r="Y10" t="s">
         <v>259</v>
@@ -4604,52 +4604,52 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>2145</v>
+        <v>2741</v>
       </c>
       <c r="D11">
-        <v>1941</v>
+        <v>2468</v>
       </c>
       <c r="E11">
-        <v>2558</v>
+        <v>3193</v>
       </c>
       <c r="F11">
-        <v>2379</v>
+        <v>3025</v>
       </c>
       <c r="G11">
-        <v>2801</v>
+        <v>3513</v>
       </c>
       <c r="H11">
-        <v>2845</v>
+        <v>3733</v>
       </c>
       <c r="I11">
-        <v>2364.8</v>
+        <v>2988</v>
       </c>
       <c r="J11">
-        <v>301.9</v>
+        <v>360.7</v>
       </c>
       <c r="K11">
         <v>1.96</v>
       </c>
       <c r="L11">
-        <v>264.6</v>
+        <v>316.2</v>
       </c>
       <c r="M11">
-        <v>2100.2</v>
+        <v>2671.800000000001</v>
       </c>
       <c r="N11">
-        <v>2629.4</v>
+        <v>3304.2</v>
       </c>
       <c r="O11">
-        <v>480.2</v>
+        <v>745</v>
       </c>
       <c r="P11">
-        <v>264.6</v>
+        <v>316.2</v>
       </c>
       <c r="Q11">
-        <v>20.3</v>
+        <v>24.9</v>
       </c>
       <c r="R11">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S11" t="s">
         <v>176</v>
@@ -4664,10 +4664,10 @@
         <v>50213</v>
       </c>
       <c r="W11">
-        <v>956.3</v>
+        <v>1483.7</v>
       </c>
       <c r="X11">
-        <v>527</v>
+        <v>629.7</v>
       </c>
       <c r="Y11" t="s">
         <v>260</v>
@@ -4681,52 +4681,52 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>1158</v>
+        <v>1610</v>
       </c>
       <c r="D12">
-        <v>1028</v>
+        <v>1507</v>
       </c>
       <c r="E12">
-        <v>1275</v>
+        <v>1732</v>
       </c>
       <c r="F12">
-        <v>1207</v>
+        <v>1645</v>
       </c>
       <c r="G12">
-        <v>1210</v>
+        <v>1672</v>
       </c>
       <c r="H12">
-        <v>1288</v>
+        <v>1780</v>
       </c>
       <c r="I12">
-        <v>1175.6</v>
+        <v>1633.2</v>
       </c>
       <c r="J12">
-        <v>82.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="K12">
         <v>1.96</v>
       </c>
       <c r="L12">
-        <v>72.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="M12">
-        <v>1103.2</v>
+        <v>1567.7</v>
       </c>
       <c r="N12">
-        <v>1248</v>
+        <v>1698.7</v>
       </c>
       <c r="O12">
-        <v>112.4</v>
+        <v>146.8</v>
       </c>
       <c r="P12">
-        <v>72.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="Q12">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="S12" t="s">
         <v>177</v>
@@ -4741,10 +4741,10 @@
         <v>14601</v>
       </c>
       <c r="W12">
-        <v>769.8</v>
+        <v>1005.4</v>
       </c>
       <c r="X12">
-        <v>495.9</v>
+        <v>448.6</v>
       </c>
       <c r="Y12" t="s">
         <v>261</v>
@@ -4835,52 +4835,52 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="D14">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="E14">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="F14">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="G14">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="H14">
-        <v>318</v>
+        <v>450</v>
       </c>
       <c r="I14">
-        <v>206.6</v>
+        <v>285.2</v>
       </c>
       <c r="J14">
-        <v>27.9</v>
+        <v>35.6</v>
       </c>
       <c r="K14">
         <v>1.96</v>
       </c>
       <c r="L14">
-        <v>24.5</v>
+        <v>31.2</v>
       </c>
       <c r="M14">
-        <v>182.1</v>
+        <v>254</v>
       </c>
       <c r="N14">
-        <v>231.1</v>
+        <v>316.4</v>
       </c>
       <c r="O14">
-        <v>111.4</v>
+        <v>164.8</v>
       </c>
       <c r="P14">
-        <v>24.5</v>
+        <v>31.2</v>
       </c>
       <c r="Q14">
-        <v>53.9</v>
+        <v>57.8</v>
       </c>
       <c r="R14">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="S14" t="s">
         <v>179</v>
@@ -4895,10 +4895,10 @@
         <v>2549</v>
       </c>
       <c r="W14">
-        <v>4370.3</v>
+        <v>6465.3</v>
       </c>
       <c r="X14">
-        <v>961.2</v>
+        <v>1224</v>
       </c>
       <c r="Y14" t="s">
         <v>263</v>
@@ -4915,49 +4915,49 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
       <c r="I15">
-        <v>5.400000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K15">
         <v>1.96</v>
       </c>
       <c r="L15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
-        <v>4.100000000000001</v>
+        <v>5.400000000000001</v>
       </c>
       <c r="N15">
-        <v>6.700000000000001</v>
+        <v>7.800000000000002</v>
       </c>
       <c r="O15">
-        <v>-3.4</v>
+        <v>-1.6</v>
       </c>
       <c r="P15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q15">
-        <v>-63</v>
+        <v>-24.2</v>
       </c>
       <c r="R15">
-        <v>7.1</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="s">
         <v>180</v>
@@ -4972,10 +4972,10 @@
         <v>118</v>
       </c>
       <c r="W15">
-        <v>-2881.4</v>
+        <v>-1355.9</v>
       </c>
       <c r="X15">
-        <v>1101.7</v>
+        <v>1016.9</v>
       </c>
       <c r="Y15" t="s">
         <v>264</v>
@@ -4989,52 +4989,52 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>344</v>
+        <v>467</v>
       </c>
       <c r="D16">
-        <v>337</v>
+        <v>476</v>
       </c>
       <c r="E16">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="F16">
-        <v>472</v>
+        <v>607</v>
       </c>
       <c r="G16">
-        <v>437</v>
+        <v>600</v>
       </c>
       <c r="H16">
-        <v>579</v>
+        <v>772</v>
       </c>
       <c r="I16">
-        <v>395.1999999999999</v>
+        <v>536.7999999999998</v>
       </c>
       <c r="J16">
-        <v>52.4</v>
+        <v>59.2</v>
       </c>
       <c r="K16">
         <v>1.96</v>
       </c>
       <c r="L16">
-        <v>45.9</v>
+        <v>51.9</v>
       </c>
       <c r="M16">
-        <v>349.2999999999999</v>
+        <v>484.8999999999999</v>
       </c>
       <c r="N16">
-        <v>441.0999999999999</v>
+        <v>588.6999999999998</v>
       </c>
       <c r="O16">
-        <v>183.8</v>
+        <v>235.2</v>
       </c>
       <c r="P16">
-        <v>45.9</v>
+        <v>51.9</v>
       </c>
       <c r="Q16">
-        <v>46.5</v>
+        <v>43.8</v>
       </c>
       <c r="R16">
-        <v>15.2</v>
+        <v>12.7</v>
       </c>
       <c r="S16" t="s">
         <v>181</v>
@@ -5049,10 +5049,10 @@
         <v>4290</v>
       </c>
       <c r="W16">
-        <v>4284.4</v>
+        <v>5482.5</v>
       </c>
       <c r="X16">
-        <v>1069.9</v>
+        <v>1209.8</v>
       </c>
       <c r="Y16" t="s">
         <v>265</v>
@@ -5066,52 +5066,52 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E17">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G17">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="H17">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="I17">
-        <v>60.8</v>
+        <v>96.8</v>
       </c>
       <c r="J17">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>1.96</v>
       </c>
       <c r="L17">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M17">
-        <v>51.3</v>
+        <v>88</v>
       </c>
       <c r="N17">
-        <v>70.30000000000001</v>
+        <v>105.6</v>
       </c>
       <c r="O17">
-        <v>30.2</v>
+        <v>28.2</v>
       </c>
       <c r="P17">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q17">
-        <v>49.7</v>
+        <v>29.1</v>
       </c>
       <c r="R17">
-        <v>20.3</v>
+        <v>10.7</v>
       </c>
       <c r="S17" t="s">
         <v>182</v>
@@ -5126,10 +5126,10 @@
         <v>1024</v>
       </c>
       <c r="W17">
-        <v>2949.2</v>
+        <v>2753.9</v>
       </c>
       <c r="X17">
-        <v>927.8</v>
+        <v>859.4</v>
       </c>
       <c r="Y17" t="s">
         <v>266</v>
@@ -5143,52 +5143,52 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F18">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I18">
-        <v>57.59999999999999</v>
+        <v>85.60000000000001</v>
       </c>
       <c r="J18">
-        <v>10.6</v>
+        <v>12.5</v>
       </c>
       <c r="K18">
         <v>1.96</v>
       </c>
       <c r="L18">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>48.29999999999998</v>
+        <v>74.60000000000001</v>
       </c>
       <c r="N18">
-        <v>66.89999999999999</v>
+        <v>96.60000000000001</v>
       </c>
       <c r="O18">
-        <v>-17.6</v>
+        <v>-1.6</v>
       </c>
       <c r="P18">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="Q18">
-        <v>-30.6</v>
+        <v>-1.9</v>
       </c>
       <c r="R18">
-        <v>9.6</v>
+        <v>11.1</v>
       </c>
       <c r="S18" t="s">
         <v>183</v>
@@ -5203,10 +5203,10 @@
         <v>859</v>
       </c>
       <c r="W18">
-        <v>-2048.9</v>
+        <v>-186.3</v>
       </c>
       <c r="X18">
-        <v>1082.7</v>
+        <v>1280.6</v>
       </c>
       <c r="Y18" t="s">
         <v>267</v>
@@ -5220,52 +5220,52 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I19">
-        <v>15.8</v>
+        <v>44.20000000000001</v>
       </c>
       <c r="J19">
-        <v>7.1</v>
+        <v>13.2</v>
       </c>
       <c r="K19">
         <v>1.96</v>
       </c>
       <c r="L19">
-        <v>6.2</v>
+        <v>11.6</v>
       </c>
       <c r="M19">
-        <v>9.600000000000001</v>
+        <v>32.60000000000001</v>
       </c>
       <c r="N19">
-        <v>22</v>
+        <v>55.80000000000001</v>
       </c>
       <c r="O19">
-        <v>9.199999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="P19">
-        <v>6.2</v>
+        <v>11.6</v>
       </c>
       <c r="Q19">
-        <v>58.2</v>
+        <v>58.4</v>
       </c>
       <c r="R19">
-        <v>44.6</v>
+        <v>33</v>
       </c>
       <c r="S19" t="s">
         <v>184</v>
@@ -5280,10 +5280,10 @@
         <v>923</v>
       </c>
       <c r="W19">
-        <v>996.7</v>
+        <v>2795.2</v>
       </c>
       <c r="X19">
-        <v>671.8</v>
+        <v>1256.8</v>
       </c>
       <c r="Y19" t="s">
         <v>268</v>
@@ -5297,52 +5297,52 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>3713</v>
+        <v>4654</v>
       </c>
       <c r="D20">
-        <v>3481</v>
+        <v>4515</v>
       </c>
       <c r="E20">
-        <v>3842</v>
+        <v>4883</v>
       </c>
       <c r="F20">
-        <v>4264</v>
+        <v>5306</v>
       </c>
       <c r="G20">
-        <v>3977</v>
+        <v>5103</v>
       </c>
       <c r="H20">
-        <v>4329</v>
+        <v>5485</v>
       </c>
       <c r="I20">
-        <v>3855.399999999999</v>
+        <v>4892.2</v>
       </c>
       <c r="J20">
-        <v>261.7</v>
+        <v>288</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>229.4</v>
+        <v>252.4</v>
       </c>
       <c r="M20">
-        <v>3625.999999999999</v>
+        <v>4639.8</v>
       </c>
       <c r="N20">
-        <v>4084.799999999999</v>
+        <v>5144.599999999999</v>
       </c>
       <c r="O20">
-        <v>473.6</v>
+        <v>592.8</v>
       </c>
       <c r="P20">
-        <v>229.4</v>
+        <v>252.4</v>
       </c>
       <c r="Q20">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="R20">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="S20" t="s">
         <v>185</v>
@@ -5357,10 +5357,10 @@
         <v>35256</v>
       </c>
       <c r="W20">
-        <v>1343.3</v>
+        <v>1681.4</v>
       </c>
       <c r="X20">
-        <v>650.7</v>
+        <v>715.9</v>
       </c>
       <c r="Y20" t="s">
         <v>269</v>
@@ -5374,52 +5374,52 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>1141</v>
+        <v>1500</v>
       </c>
       <c r="D21">
-        <v>1086</v>
+        <v>1477</v>
       </c>
       <c r="E21">
-        <v>1191</v>
+        <v>1556</v>
       </c>
       <c r="F21">
-        <v>1188</v>
+        <v>1550</v>
       </c>
       <c r="G21">
-        <v>1107</v>
+        <v>1541</v>
       </c>
       <c r="H21">
-        <v>1050</v>
+        <v>1501</v>
       </c>
       <c r="I21">
-        <v>1142.6</v>
+        <v>1524.8</v>
       </c>
       <c r="J21">
-        <v>42.1</v>
+        <v>30.9</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>36.9</v>
+        <v>27.1</v>
       </c>
       <c r="M21">
-        <v>1105.7</v>
+        <v>1497.700000000001</v>
       </c>
       <c r="N21">
-        <v>1179.5</v>
+        <v>1551.9</v>
       </c>
       <c r="O21">
-        <v>-92.59999999999999</v>
+        <v>-23.8</v>
       </c>
       <c r="P21">
-        <v>36.9</v>
+        <v>27.1</v>
       </c>
       <c r="Q21">
-        <v>-8.1</v>
+        <v>-1.6</v>
       </c>
       <c r="R21">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="s">
         <v>186</v>
@@ -5434,10 +5434,10 @@
         <v>13173</v>
       </c>
       <c r="W21">
-        <v>-703</v>
+        <v>-180.7</v>
       </c>
       <c r="X21">
-        <v>280.2</v>
+        <v>205.8</v>
       </c>
       <c r="Y21" t="s">
         <v>270</v>
@@ -5451,52 +5451,52 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>4377</v>
+        <v>5369</v>
       </c>
       <c r="D22">
-        <v>4153</v>
+        <v>5188</v>
       </c>
       <c r="E22">
-        <v>5149</v>
+        <v>6215</v>
       </c>
       <c r="F22">
-        <v>5494</v>
+        <v>6681</v>
       </c>
       <c r="G22">
-        <v>5279</v>
+        <v>6565</v>
       </c>
       <c r="H22">
-        <v>8860</v>
+        <v>10609</v>
       </c>
       <c r="I22">
-        <v>4890.400000000001</v>
+        <v>6003.6</v>
       </c>
       <c r="J22">
-        <v>527.2</v>
+        <v>614.3</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>462.1</v>
+        <v>538.5</v>
       </c>
       <c r="M22">
-        <v>4428.3</v>
+        <v>5465.1</v>
       </c>
       <c r="N22">
-        <v>5352.500000000001</v>
+        <v>6542.1</v>
       </c>
       <c r="O22">
-        <v>3969.6</v>
+        <v>4605.4</v>
       </c>
       <c r="P22">
-        <v>462.1</v>
+        <v>538.5</v>
       </c>
       <c r="Q22">
-        <v>81.2</v>
+        <v>76.7</v>
       </c>
       <c r="R22">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="S22" t="s">
         <v>187</v>
@@ -5511,10 +5511,10 @@
         <v>60302</v>
       </c>
       <c r="W22">
-        <v>6582.9</v>
+        <v>7637.2</v>
       </c>
       <c r="X22">
-        <v>766.3</v>
+        <v>893</v>
       </c>
       <c r="Y22" t="s">
         <v>271</v>
@@ -5528,52 +5528,52 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>2683</v>
+        <v>3446</v>
       </c>
       <c r="D23">
-        <v>2379</v>
+        <v>3158</v>
       </c>
       <c r="E23">
-        <v>2761</v>
+        <v>3556</v>
       </c>
       <c r="F23">
-        <v>3076</v>
+        <v>3921</v>
       </c>
       <c r="G23">
-        <v>3049</v>
+        <v>4000</v>
       </c>
       <c r="H23">
-        <v>3886</v>
+        <v>4809</v>
       </c>
       <c r="I23">
-        <v>2789.6</v>
+        <v>3616.2</v>
       </c>
       <c r="J23">
-        <v>256.9</v>
+        <v>310.7</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>225.2</v>
+        <v>272.3</v>
       </c>
       <c r="M23">
-        <v>2564.400000000001</v>
+        <v>3343.9</v>
       </c>
       <c r="N23">
-        <v>3014.8</v>
+        <v>3888.5</v>
       </c>
       <c r="O23">
-        <v>1096.4</v>
+        <v>1192.8</v>
       </c>
       <c r="P23">
-        <v>225.2</v>
+        <v>272.3</v>
       </c>
       <c r="Q23">
-        <v>39.3</v>
+        <v>33</v>
       </c>
       <c r="R23">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S23" t="s">
         <v>188</v>
@@ -5588,10 +5588,10 @@
         <v>25902</v>
       </c>
       <c r="W23">
-        <v>4232.9</v>
+        <v>4605</v>
       </c>
       <c r="X23">
-        <v>869.4</v>
+        <v>1051.3</v>
       </c>
       <c r="Y23" t="s">
         <v>272</v>
@@ -5605,52 +5605,52 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>1830</v>
+        <v>2442</v>
       </c>
       <c r="D24">
-        <v>1768</v>
+        <v>2315</v>
       </c>
       <c r="E24">
-        <v>2141</v>
+        <v>2694</v>
       </c>
       <c r="F24">
-        <v>2092</v>
+        <v>2711</v>
       </c>
       <c r="G24">
-        <v>2118</v>
+        <v>2749</v>
       </c>
       <c r="H24">
-        <v>2491</v>
+        <v>3309</v>
       </c>
       <c r="I24">
-        <v>1989.8</v>
+        <v>2582.2</v>
       </c>
       <c r="J24">
-        <v>157.8</v>
+        <v>172</v>
       </c>
       <c r="K24">
         <v>1.96</v>
       </c>
       <c r="L24">
-        <v>138.3</v>
+        <v>150.8</v>
       </c>
       <c r="M24">
-        <v>1851.5</v>
+        <v>2431.4</v>
       </c>
       <c r="N24">
-        <v>2128.1</v>
+        <v>2733</v>
       </c>
       <c r="O24">
-        <v>501.2</v>
+        <v>726.8</v>
       </c>
       <c r="P24">
-        <v>138.3</v>
+        <v>150.8</v>
       </c>
       <c r="Q24">
-        <v>25.2</v>
+        <v>28.1</v>
       </c>
       <c r="R24">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
         <v>189</v>
@@ -5665,10 +5665,10 @@
         <v>38860</v>
       </c>
       <c r="W24">
-        <v>1289.8</v>
+        <v>1870.3</v>
       </c>
       <c r="X24">
-        <v>355.9</v>
+        <v>388.1</v>
       </c>
       <c r="Y24" t="s">
         <v>273</v>
@@ -5682,52 +5682,52 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>405</v>
+        <v>756</v>
       </c>
       <c r="D25">
-        <v>342</v>
+        <v>713</v>
       </c>
       <c r="E25">
-        <v>542</v>
+        <v>901</v>
       </c>
       <c r="F25">
-        <v>453</v>
+        <v>874</v>
       </c>
       <c r="G25">
-        <v>479</v>
+        <v>909</v>
       </c>
       <c r="H25">
-        <v>479</v>
+        <v>1104</v>
       </c>
       <c r="I25">
-        <v>444.2</v>
+        <v>830.6000000000001</v>
       </c>
       <c r="J25">
-        <v>67.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K25">
         <v>1.96</v>
       </c>
       <c r="L25">
-        <v>59.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="M25">
-        <v>384.9</v>
+        <v>760.0000000000001</v>
       </c>
       <c r="N25">
-        <v>503.5000000000001</v>
+        <v>901.2000000000002</v>
       </c>
       <c r="O25">
-        <v>34.8</v>
+        <v>273.4</v>
       </c>
       <c r="P25">
-        <v>59.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="Q25">
-        <v>7.8</v>
+        <v>32.9</v>
       </c>
       <c r="R25">
-        <v>12.7</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="s">
         <v>190</v>
@@ -5742,10 +5742,10 @@
         <v>12835</v>
       </c>
       <c r="W25">
-        <v>271.1</v>
+        <v>2130.1</v>
       </c>
       <c r="X25">
-        <v>462.1</v>
+        <v>550.1</v>
       </c>
       <c r="Y25" t="s">
         <v>274</v>
@@ -5759,52 +5759,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>506</v>
+        <v>604</v>
       </c>
       <c r="D26">
-        <v>456</v>
+        <v>573</v>
       </c>
       <c r="E26">
-        <v>561</v>
+        <v>654</v>
       </c>
       <c r="F26">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="G26">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="H26">
-        <v>664</v>
+        <v>787</v>
       </c>
       <c r="I26">
-        <v>505</v>
+        <v>607.4</v>
       </c>
       <c r="J26">
-        <v>34.2</v>
+        <v>30.2</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>26.5</v>
       </c>
       <c r="M26">
-        <v>475</v>
+        <v>580.9</v>
       </c>
       <c r="N26">
-        <v>535</v>
+        <v>633.9</v>
       </c>
       <c r="O26">
-        <v>159</v>
+        <v>179.6</v>
       </c>
       <c r="P26">
-        <v>30</v>
+        <v>26.5</v>
       </c>
       <c r="Q26">
-        <v>31.5</v>
+        <v>29.6</v>
       </c>
       <c r="R26">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="S26" t="s">
         <v>191</v>
@@ -5819,10 +5819,10 @@
         <v>6592</v>
       </c>
       <c r="W26">
-        <v>2412</v>
+        <v>2724.5</v>
       </c>
       <c r="X26">
-        <v>455.1</v>
+        <v>402</v>
       </c>
       <c r="Y26" t="s">
         <v>275</v>
@@ -5836,52 +5836,52 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="D27">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="E27">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="F27">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="G27">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="H27">
-        <v>424</v>
+        <v>525</v>
       </c>
       <c r="I27">
-        <v>270.0000000000001</v>
+        <v>341.2</v>
       </c>
       <c r="J27">
-        <v>36.4</v>
+        <v>46.7</v>
       </c>
       <c r="K27">
         <v>1.96</v>
       </c>
       <c r="L27">
-        <v>31.9</v>
+        <v>40.9</v>
       </c>
       <c r="M27">
-        <v>238.1000000000001</v>
+        <v>300.3000000000001</v>
       </c>
       <c r="N27">
-        <v>301.9</v>
+        <v>382.1</v>
       </c>
       <c r="O27">
-        <v>154</v>
+        <v>183.8</v>
       </c>
       <c r="P27">
-        <v>31.9</v>
+        <v>40.9</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>53.9</v>
       </c>
       <c r="R27">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="S27" t="s">
         <v>192</v>
@@ -5896,10 +5896,10 @@
         <v>3684</v>
       </c>
       <c r="W27">
-        <v>4180.2</v>
+        <v>4989.1</v>
       </c>
       <c r="X27">
-        <v>865.9</v>
+        <v>1110.2</v>
       </c>
       <c r="Y27" t="s">
         <v>276</v>
@@ -5913,52 +5913,52 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>9256</v>
+        <v>15743</v>
       </c>
       <c r="D28">
-        <v>7583</v>
+        <v>14292</v>
       </c>
       <c r="E28">
-        <v>9453</v>
+        <v>16284</v>
       </c>
       <c r="F28">
-        <v>9934</v>
+        <v>17440</v>
       </c>
       <c r="G28">
-        <v>9635</v>
+        <v>17227</v>
       </c>
       <c r="H28">
-        <v>10970</v>
+        <v>18886</v>
       </c>
       <c r="I28">
-        <v>9172.200000000001</v>
+        <v>16197.2</v>
       </c>
       <c r="J28">
-        <v>825.3</v>
+        <v>1135.7</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>723.4</v>
+        <v>995.5</v>
       </c>
       <c r="M28">
-        <v>8448.800000000001</v>
+        <v>15201.7</v>
       </c>
       <c r="N28">
-        <v>9895.6</v>
+        <v>17192.7</v>
       </c>
       <c r="O28">
-        <v>1797.8</v>
+        <v>2688.8</v>
       </c>
       <c r="P28">
-        <v>723.4</v>
+        <v>995.5</v>
       </c>
       <c r="Q28">
-        <v>19.6</v>
+        <v>16.6</v>
       </c>
       <c r="R28">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="S28" t="s">
         <v>193</v>
@@ -5973,10 +5973,10 @@
         <v>158002</v>
       </c>
       <c r="W28">
-        <v>1137.8</v>
+        <v>1701.8</v>
       </c>
       <c r="X28">
-        <v>457.9</v>
+        <v>630</v>
       </c>
       <c r="Y28" t="s">
         <v>277</v>
@@ -5990,52 +5990,52 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>2913</v>
+        <v>3566</v>
       </c>
       <c r="D29">
-        <v>2707</v>
+        <v>3358</v>
       </c>
       <c r="E29">
-        <v>3047</v>
+        <v>3764</v>
       </c>
       <c r="F29">
-        <v>2993</v>
+        <v>3600</v>
       </c>
       <c r="G29">
-        <v>2718</v>
+        <v>3413</v>
       </c>
       <c r="H29">
-        <v>2780</v>
+        <v>3406</v>
       </c>
       <c r="I29">
-        <v>2875.6</v>
+        <v>3540.2</v>
       </c>
       <c r="J29">
-        <v>139.9</v>
+        <v>144</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>122.6</v>
+        <v>126.2</v>
       </c>
       <c r="M29">
-        <v>2753</v>
+        <v>3414</v>
       </c>
       <c r="N29">
-        <v>2998.2</v>
+        <v>3666.4</v>
       </c>
       <c r="O29">
-        <v>-95.59999999999999</v>
+        <v>-134.2</v>
       </c>
       <c r="P29">
-        <v>122.6</v>
+        <v>126.2</v>
       </c>
       <c r="Q29">
-        <v>-3.3</v>
+        <v>-3.8</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="S29" t="s">
         <v>194</v>
@@ -6050,10 +6050,10 @@
         <v>29703</v>
       </c>
       <c r="W29">
-        <v>-321.9</v>
+        <v>-451.8</v>
       </c>
       <c r="X29">
-        <v>412.8</v>
+        <v>424.9</v>
       </c>
       <c r="Y29" t="s">
         <v>278</v>
@@ -6157,52 +6157,52 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5873</v>
+        <v>7936</v>
       </c>
       <c r="D2">
-        <v>5194</v>
+        <v>7256</v>
       </c>
       <c r="E2">
-        <v>6494</v>
+        <v>8632</v>
       </c>
       <c r="F2">
-        <v>6517</v>
+        <v>8697</v>
       </c>
       <c r="G2">
-        <v>6001</v>
+        <v>8453</v>
       </c>
       <c r="H2">
-        <v>6101</v>
+        <v>8560</v>
       </c>
       <c r="I2">
-        <v>6015.8</v>
+        <v>8194.800000000001</v>
       </c>
       <c r="J2">
-        <v>484.9</v>
+        <v>540.1</v>
       </c>
       <c r="K2">
         <v>1.96</v>
       </c>
       <c r="L2">
-        <v>425</v>
+        <v>473.4</v>
       </c>
       <c r="M2">
-        <v>5590.8</v>
+        <v>7721.400000000001</v>
       </c>
       <c r="N2">
-        <v>6440.8</v>
+        <v>8668.200000000001</v>
       </c>
       <c r="O2">
-        <v>85.2</v>
+        <v>365.2</v>
       </c>
       <c r="P2">
-        <v>425</v>
+        <v>473.4</v>
       </c>
       <c r="Q2">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="R2">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="S2" t="s">
         <v>280</v>
@@ -6217,10 +6217,10 @@
         <v>81611</v>
       </c>
       <c r="W2">
-        <v>104.4</v>
+        <v>447.5</v>
       </c>
       <c r="X2">
-        <v>520.8</v>
+        <v>580.1</v>
       </c>
       <c r="Y2" t="s">
         <v>364</v>
@@ -6234,52 +6234,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>8803</v>
+        <v>11415</v>
       </c>
       <c r="D3">
-        <v>7628</v>
+        <v>10256</v>
       </c>
       <c r="E3">
-        <v>9026</v>
+        <v>11797</v>
       </c>
       <c r="F3">
-        <v>9530</v>
+        <v>12214</v>
       </c>
       <c r="G3">
-        <v>8980</v>
+        <v>11936</v>
       </c>
       <c r="H3">
-        <v>8558</v>
+        <v>11584</v>
       </c>
       <c r="I3">
-        <v>8793.399999999998</v>
+        <v>11523.6</v>
       </c>
       <c r="J3">
-        <v>630.8</v>
+        <v>684.1</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>552.9</v>
+        <v>599.6</v>
       </c>
       <c r="M3">
-        <v>8240.499999999998</v>
+        <v>10924</v>
       </c>
       <c r="N3">
-        <v>9346.299999999997</v>
+        <v>12123.2</v>
       </c>
       <c r="O3">
-        <v>-235.4</v>
+        <v>60.4</v>
       </c>
       <c r="P3">
-        <v>552.9</v>
+        <v>599.6</v>
       </c>
       <c r="Q3">
-        <v>-2.7</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="S3" t="s">
         <v>281</v>
@@ -6294,10 +6294,10 @@
         <v>112322</v>
       </c>
       <c r="W3">
-        <v>-209.6</v>
+        <v>53.8</v>
       </c>
       <c r="X3">
-        <v>492.3</v>
+        <v>533.8</v>
       </c>
       <c r="Y3" t="s">
         <v>365</v>
@@ -6311,52 +6311,52 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>3473</v>
+        <v>4659</v>
       </c>
       <c r="D4">
-        <v>3142</v>
+        <v>4374</v>
       </c>
       <c r="E4">
-        <v>3886</v>
+        <v>5107</v>
       </c>
       <c r="F4">
-        <v>3697</v>
+        <v>4902</v>
       </c>
       <c r="G4">
-        <v>3767</v>
+        <v>5130</v>
       </c>
       <c r="H4">
-        <v>4462</v>
+        <v>5958</v>
       </c>
       <c r="I4">
-        <v>3593</v>
+        <v>4834.400000000001</v>
       </c>
       <c r="J4">
-        <v>262.6</v>
+        <v>286</v>
       </c>
       <c r="K4">
         <v>1.96</v>
       </c>
       <c r="L4">
-        <v>230.2</v>
+        <v>250.7</v>
       </c>
       <c r="M4">
-        <v>3362.8</v>
+        <v>4583.700000000001</v>
       </c>
       <c r="N4">
-        <v>3823.2</v>
+        <v>5085.1</v>
       </c>
       <c r="O4">
-        <v>869</v>
+        <v>1123.6</v>
       </c>
       <c r="P4">
-        <v>230.2</v>
+        <v>250.7</v>
       </c>
       <c r="Q4">
-        <v>24.2</v>
+        <v>23.2</v>
       </c>
       <c r="R4">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="S4" t="s">
         <v>282</v>
@@ -6371,10 +6371,10 @@
         <v>35580</v>
       </c>
       <c r="W4">
-        <v>2442.4</v>
+        <v>3158</v>
       </c>
       <c r="X4">
-        <v>647</v>
+        <v>704.6</v>
       </c>
       <c r="Y4" t="s">
         <v>366</v>
@@ -6388,52 +6388,52 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>1593</v>
+        <v>2511</v>
       </c>
       <c r="D5">
-        <v>1281</v>
+        <v>2168</v>
       </c>
       <c r="E5">
-        <v>1733</v>
+        <v>2677</v>
       </c>
       <c r="F5">
-        <v>1749</v>
+        <v>2736</v>
       </c>
       <c r="G5">
-        <v>1634</v>
+        <v>2697</v>
       </c>
       <c r="H5">
-        <v>1852</v>
+        <v>3127</v>
       </c>
       <c r="I5">
-        <v>1598</v>
+        <v>2557.8</v>
       </c>
       <c r="J5">
-        <v>169</v>
+        <v>209.5</v>
       </c>
       <c r="K5">
         <v>1.96</v>
       </c>
       <c r="L5">
-        <v>148.1</v>
+        <v>183.6</v>
       </c>
       <c r="M5">
-        <v>1449.9</v>
+        <v>2374.2</v>
       </c>
       <c r="N5">
-        <v>1746.1</v>
+        <v>2741.4</v>
       </c>
       <c r="O5">
-        <v>254</v>
+        <v>569.2</v>
       </c>
       <c r="P5">
-        <v>148.1</v>
+        <v>183.6</v>
       </c>
       <c r="Q5">
-        <v>15.9</v>
+        <v>22.3</v>
       </c>
       <c r="R5">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S5" t="s">
         <v>283</v>
@@ -6448,10 +6448,10 @@
         <v>22394</v>
       </c>
       <c r="W5">
-        <v>1134.2</v>
+        <v>2541.8</v>
       </c>
       <c r="X5">
-        <v>661.4</v>
+        <v>819.8</v>
       </c>
       <c r="Y5" t="s">
         <v>367</v>
@@ -6465,52 +6465,52 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>4404</v>
+        <v>5882</v>
       </c>
       <c r="D6">
-        <v>3594</v>
+        <v>5089</v>
       </c>
       <c r="E6">
-        <v>4921</v>
+        <v>6455</v>
       </c>
       <c r="F6">
-        <v>4727</v>
+        <v>6348</v>
       </c>
       <c r="G6">
-        <v>4491</v>
+        <v>6181</v>
       </c>
       <c r="H6">
-        <v>5971</v>
+        <v>7691</v>
       </c>
       <c r="I6">
-        <v>4427.4</v>
+        <v>5991</v>
       </c>
       <c r="J6">
-        <v>454.4</v>
+        <v>490.8</v>
       </c>
       <c r="K6">
         <v>1.96</v>
       </c>
       <c r="L6">
-        <v>398.3</v>
+        <v>430.2</v>
       </c>
       <c r="M6">
-        <v>4029.099999999999</v>
+        <v>5560.8</v>
       </c>
       <c r="N6">
-        <v>4825.7</v>
+        <v>6421.2</v>
       </c>
       <c r="O6">
-        <v>1543.6</v>
+        <v>1700</v>
       </c>
       <c r="P6">
-        <v>398.3</v>
+        <v>430.2</v>
       </c>
       <c r="Q6">
-        <v>34.9</v>
+        <v>28.4</v>
       </c>
       <c r="R6">
-        <v>11.2</v>
+        <v>8.6</v>
       </c>
       <c r="S6" t="s">
         <v>284</v>
@@ -6525,10 +6525,10 @@
         <v>61507</v>
       </c>
       <c r="W6">
-        <v>2509.6</v>
+        <v>2763.9</v>
       </c>
       <c r="X6">
-        <v>647.6</v>
+        <v>699.4</v>
       </c>
       <c r="Y6" t="s">
         <v>368</v>
@@ -6542,52 +6542,52 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>3853</v>
+        <v>5081</v>
       </c>
       <c r="D7">
-        <v>3694</v>
+        <v>4920</v>
       </c>
       <c r="E7">
-        <v>3975</v>
+        <v>5278</v>
       </c>
       <c r="F7">
-        <v>4285</v>
+        <v>5583</v>
       </c>
       <c r="G7">
-        <v>3816</v>
+        <v>5091</v>
       </c>
       <c r="H7">
-        <v>3685</v>
+        <v>5070</v>
       </c>
       <c r="I7">
-        <v>3924.600000000001</v>
+        <v>5190.600000000001</v>
       </c>
       <c r="J7">
-        <v>201.3</v>
+        <v>226.6</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>176.4</v>
+        <v>198.6</v>
       </c>
       <c r="M7">
-        <v>3748.200000000001</v>
+        <v>4992.000000000001</v>
       </c>
       <c r="N7">
-        <v>4101.000000000001</v>
+        <v>5389.200000000002</v>
       </c>
       <c r="O7">
-        <v>-239.6</v>
+        <v>-120.6</v>
       </c>
       <c r="P7">
-        <v>176.4</v>
+        <v>198.6</v>
       </c>
       <c r="Q7">
-        <v>-6.1</v>
+        <v>-2.3</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S7" t="s">
         <v>285</v>
@@ -6602,10 +6602,10 @@
         <v>89698</v>
       </c>
       <c r="W7">
-        <v>-267.1</v>
+        <v>-134.5</v>
       </c>
       <c r="X7">
-        <v>196.6</v>
+        <v>221.5</v>
       </c>
       <c r="Y7" t="s">
         <v>369</v>
@@ -6619,52 +6619,52 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>701</v>
+        <v>933</v>
       </c>
       <c r="D8">
-        <v>678</v>
+        <v>942</v>
       </c>
       <c r="E8">
-        <v>803</v>
+        <v>1064</v>
       </c>
       <c r="F8">
-        <v>963</v>
+        <v>1226</v>
       </c>
       <c r="G8">
-        <v>880</v>
+        <v>1191</v>
       </c>
       <c r="H8">
-        <v>1187</v>
+        <v>1538</v>
       </c>
       <c r="I8">
-        <v>805</v>
+        <v>1071.2</v>
       </c>
       <c r="J8">
-        <v>107.3</v>
+        <v>121.8</v>
       </c>
       <c r="K8">
         <v>1.96</v>
       </c>
       <c r="L8">
-        <v>94.09999999999999</v>
+        <v>106.8</v>
       </c>
       <c r="M8">
-        <v>710.9</v>
+        <v>964.4000000000001</v>
       </c>
       <c r="N8">
-        <v>899.1</v>
+        <v>1178</v>
       </c>
       <c r="O8">
-        <v>382</v>
+        <v>466.8</v>
       </c>
       <c r="P8">
-        <v>94.09999999999999</v>
+        <v>106.8</v>
       </c>
       <c r="Q8">
-        <v>47.5</v>
+        <v>43.6</v>
       </c>
       <c r="R8">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="S8" t="s">
         <v>286</v>
@@ -6679,10 +6679,10 @@
         <v>10975</v>
       </c>
       <c r="W8">
-        <v>3480.6</v>
+        <v>4253.3</v>
       </c>
       <c r="X8">
-        <v>857.4</v>
+        <v>973.1</v>
       </c>
       <c r="Y8" t="s">
         <v>370</v>
@@ -6696,52 +6696,52 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>3832</v>
+        <v>4857</v>
       </c>
       <c r="D9">
-        <v>3819</v>
+        <v>4987</v>
       </c>
       <c r="E9">
-        <v>4103</v>
+        <v>5291</v>
       </c>
       <c r="F9">
-        <v>4481</v>
+        <v>5591</v>
       </c>
       <c r="G9">
-        <v>4296</v>
+        <v>5494</v>
       </c>
       <c r="H9">
-        <v>4210</v>
+        <v>5515</v>
       </c>
       <c r="I9">
-        <v>4106.2</v>
+        <v>5243.999999999999</v>
       </c>
       <c r="J9">
-        <v>258.5</v>
+        <v>283.2</v>
       </c>
       <c r="K9">
         <v>1.96</v>
       </c>
       <c r="L9">
-        <v>226.6</v>
+        <v>248.2</v>
       </c>
       <c r="M9">
-        <v>3879.6</v>
+        <v>4995.799999999999</v>
       </c>
       <c r="N9">
-        <v>4332.8</v>
+        <v>5492.199999999999</v>
       </c>
       <c r="O9">
-        <v>103.8</v>
+        <v>271</v>
       </c>
       <c r="P9">
-        <v>226.6</v>
+        <v>248.2</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="R9">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="S9" t="s">
         <v>287</v>
@@ -6756,10 +6756,10 @@
         <v>51572</v>
       </c>
       <c r="W9">
-        <v>201.3</v>
+        <v>525.5</v>
       </c>
       <c r="X9">
-        <v>439.4</v>
+        <v>481.2</v>
       </c>
       <c r="Y9" t="s">
         <v>371</v>
@@ -6773,52 +6773,52 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>60651</v>
+        <v>79707</v>
       </c>
       <c r="D10">
-        <v>55217</v>
+        <v>75408</v>
       </c>
       <c r="E10">
-        <v>63865</v>
+        <v>84472</v>
       </c>
       <c r="F10">
-        <v>66274</v>
+        <v>87622</v>
       </c>
       <c r="G10">
-        <v>64940</v>
+        <v>87166</v>
       </c>
       <c r="H10">
-        <v>70124</v>
+        <v>93687</v>
       </c>
       <c r="I10">
-        <v>62189.39999999999</v>
+        <v>82874.99999999999</v>
       </c>
       <c r="J10">
-        <v>3950.7</v>
+        <v>4675.2</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>3462.9</v>
+        <v>4098</v>
       </c>
       <c r="M10">
-        <v>58726.49999999999</v>
+        <v>78776.99999999999</v>
       </c>
       <c r="N10">
-        <v>65652.29999999999</v>
+        <v>86972.99999999999</v>
       </c>
       <c r="O10">
-        <v>7934.6</v>
+        <v>10812</v>
       </c>
       <c r="P10">
-        <v>3462.9</v>
+        <v>4098</v>
       </c>
       <c r="Q10">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="S10" t="s">
         <v>288</v>
@@ -6833,10 +6833,10 @@
         <v>864526</v>
       </c>
       <c r="W10">
-        <v>917.8</v>
+        <v>1250.6</v>
       </c>
       <c r="X10">
-        <v>400.6</v>
+        <v>474</v>
       </c>
       <c r="Y10" t="s">
         <v>372</v>
@@ -6850,52 +6850,52 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>6253</v>
+        <v>7932</v>
       </c>
       <c r="D11">
-        <v>5494</v>
+        <v>6979</v>
       </c>
       <c r="E11">
-        <v>7396</v>
+        <v>9172</v>
       </c>
       <c r="F11">
-        <v>6599</v>
+        <v>8405</v>
       </c>
       <c r="G11">
-        <v>7805</v>
+        <v>9906</v>
       </c>
       <c r="H11">
-        <v>7743</v>
+        <v>10130</v>
       </c>
       <c r="I11">
-        <v>6709.400000000001</v>
+        <v>8478.800000000001</v>
       </c>
       <c r="J11">
-        <v>820.9</v>
+        <v>1007.1</v>
       </c>
       <c r="K11">
         <v>1.96</v>
       </c>
       <c r="L11">
-        <v>719.6</v>
+        <v>882.8</v>
       </c>
       <c r="M11">
-        <v>5989.8</v>
+        <v>7596.000000000001</v>
       </c>
       <c r="N11">
-        <v>7429.000000000001</v>
+        <v>9361.6</v>
       </c>
       <c r="O11">
-        <v>1033.6</v>
+        <v>1651.2</v>
       </c>
       <c r="P11">
-        <v>719.6</v>
+        <v>882.8</v>
       </c>
       <c r="Q11">
-        <v>15.4</v>
+        <v>19.5</v>
       </c>
       <c r="R11">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S11" t="s">
         <v>289</v>
@@ -6910,10 +6910,10 @@
         <v>125029</v>
       </c>
       <c r="W11">
-        <v>826.7</v>
+        <v>1320.7</v>
       </c>
       <c r="X11">
-        <v>575.5</v>
+        <v>706</v>
       </c>
       <c r="Y11" t="s">
         <v>373</v>
@@ -6927,52 +6927,52 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>4767</v>
+        <v>6455</v>
       </c>
       <c r="D12">
-        <v>4036</v>
+        <v>5756</v>
       </c>
       <c r="E12">
-        <v>5163</v>
+        <v>6927</v>
       </c>
       <c r="F12">
-        <v>4925</v>
+        <v>6630</v>
       </c>
       <c r="G12">
-        <v>4986</v>
+        <v>6766</v>
       </c>
       <c r="H12">
-        <v>4977</v>
+        <v>6880</v>
       </c>
       <c r="I12">
-        <v>4775.4</v>
+        <v>6506.799999999999</v>
       </c>
       <c r="J12">
-        <v>390.8</v>
+        <v>406.3</v>
       </c>
       <c r="K12">
         <v>1.96</v>
       </c>
       <c r="L12">
-        <v>342.6</v>
+        <v>356.1</v>
       </c>
       <c r="M12">
-        <v>4432.799999999999</v>
+        <v>6150.699999999999</v>
       </c>
       <c r="N12">
-        <v>5118</v>
+        <v>6862.9</v>
       </c>
       <c r="O12">
-        <v>201.6</v>
+        <v>373.2</v>
       </c>
       <c r="P12">
-        <v>342.6</v>
+        <v>356.1</v>
       </c>
       <c r="Q12">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="S12" t="s">
         <v>290</v>
@@ -6987,10 +6987,10 @@
         <v>61284</v>
       </c>
       <c r="W12">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="X12">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="Y12" t="s">
         <v>374</v>
@@ -7081,52 +7081,52 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>954</v>
+        <v>1323</v>
       </c>
       <c r="D14">
-        <v>996</v>
+        <v>1370</v>
       </c>
       <c r="E14">
-        <v>1122</v>
+        <v>1540</v>
       </c>
       <c r="F14">
-        <v>1235</v>
+        <v>1685</v>
       </c>
       <c r="G14">
-        <v>1241</v>
+        <v>1693</v>
       </c>
       <c r="H14">
-        <v>1378</v>
+        <v>1938</v>
       </c>
       <c r="I14">
-        <v>1109.6</v>
+        <v>1522.2</v>
       </c>
       <c r="J14">
-        <v>118.5</v>
+        <v>154.2</v>
       </c>
       <c r="K14">
         <v>1.96</v>
       </c>
       <c r="L14">
-        <v>103.9</v>
+        <v>135.2</v>
       </c>
       <c r="M14">
-        <v>1005.7</v>
+        <v>1387</v>
       </c>
       <c r="N14">
-        <v>1213.5</v>
+        <v>1657.4</v>
       </c>
       <c r="O14">
-        <v>268.4</v>
+        <v>415.8</v>
       </c>
       <c r="P14">
-        <v>103.9</v>
+        <v>135.2</v>
       </c>
       <c r="Q14">
-        <v>24.2</v>
+        <v>27.3</v>
       </c>
       <c r="R14">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="S14" t="s">
         <v>292</v>
@@ -7141,10 +7141,10 @@
         <v>14360</v>
       </c>
       <c r="W14">
-        <v>1869.1</v>
+        <v>2895.5</v>
       </c>
       <c r="X14">
-        <v>723.5</v>
+        <v>941.5</v>
       </c>
       <c r="Y14" t="s">
         <v>376</v>
@@ -7158,52 +7158,52 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>16.8</v>
+        <v>21.8</v>
       </c>
       <c r="J15">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K15">
         <v>1.96</v>
       </c>
       <c r="L15">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>18.40000000000001</v>
       </c>
       <c r="N15">
-        <v>19.6</v>
+        <v>25.2</v>
       </c>
       <c r="O15">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>1.2</v>
+        <v>10.1</v>
       </c>
       <c r="R15">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="S15" t="s">
         <v>293</v>
@@ -7218,10 +7218,10 @@
         <v>466</v>
       </c>
       <c r="W15">
-        <v>42.9</v>
+        <v>472.1</v>
       </c>
       <c r="X15">
-        <v>600.9</v>
+        <v>729.6</v>
       </c>
       <c r="Y15" t="s">
         <v>377</v>
@@ -7235,52 +7235,52 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>1651</v>
+        <v>2231</v>
       </c>
       <c r="D16">
-        <v>1618</v>
+        <v>2249</v>
       </c>
       <c r="E16">
-        <v>1847</v>
+        <v>2491</v>
       </c>
       <c r="F16">
-        <v>2077</v>
+        <v>2734</v>
       </c>
       <c r="G16">
-        <v>1916</v>
+        <v>2626</v>
       </c>
       <c r="H16">
-        <v>2230</v>
+        <v>3076</v>
       </c>
       <c r="I16">
-        <v>1821.8</v>
+        <v>2466.2</v>
       </c>
       <c r="J16">
-        <v>170.5</v>
+        <v>200.2</v>
       </c>
       <c r="K16">
         <v>1.96</v>
       </c>
       <c r="L16">
-        <v>149.4</v>
+        <v>175.5</v>
       </c>
       <c r="M16">
-        <v>1672.4</v>
+        <v>2290.7</v>
       </c>
       <c r="N16">
-        <v>1971.200000000001</v>
+        <v>2641.7</v>
       </c>
       <c r="O16">
-        <v>408.2</v>
+        <v>609.8</v>
       </c>
       <c r="P16">
-        <v>149.4</v>
+        <v>175.5</v>
       </c>
       <c r="Q16">
-        <v>22.4</v>
+        <v>24.7</v>
       </c>
       <c r="R16">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S16" t="s">
         <v>294</v>
@@ -7295,10 +7295,10 @@
         <v>20980</v>
       </c>
       <c r="W16">
-        <v>1945.7</v>
+        <v>2906.6</v>
       </c>
       <c r="X16">
-        <v>712.1</v>
+        <v>836.5</v>
       </c>
       <c r="Y16" t="s">
         <v>378</v>
@@ -7312,52 +7312,52 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="D17">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="E17">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="F17">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="G17">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="H17">
-        <v>288</v>
+        <v>424</v>
       </c>
       <c r="I17">
-        <v>226.4</v>
+        <v>351.4</v>
       </c>
       <c r="J17">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="K17">
         <v>1.96</v>
       </c>
       <c r="L17">
-        <v>18.5</v>
+        <v>19.8</v>
       </c>
       <c r="M17">
-        <v>207.9</v>
+        <v>331.6</v>
       </c>
       <c r="N17">
-        <v>244.9</v>
+        <v>371.2</v>
       </c>
       <c r="O17">
-        <v>61.6</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="P17">
-        <v>18.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q17">
-        <v>27.2</v>
+        <v>20.7</v>
       </c>
       <c r="R17">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="S17" t="s">
         <v>295</v>
@@ -7372,10 +7372,10 @@
         <v>3874</v>
       </c>
       <c r="W17">
-        <v>1590.1</v>
+        <v>1874</v>
       </c>
       <c r="X17">
-        <v>477.5</v>
+        <v>511.1</v>
       </c>
       <c r="Y17" t="s">
         <v>379</v>
@@ -7389,52 +7389,52 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="D18">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="F18">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="G18">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="H18">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="I18">
-        <v>170.4</v>
+        <v>258.4</v>
       </c>
       <c r="J18">
-        <v>26.6</v>
+        <v>32.1</v>
       </c>
       <c r="K18">
         <v>1.96</v>
       </c>
       <c r="L18">
-        <v>23.3</v>
+        <v>28.1</v>
       </c>
       <c r="M18">
-        <v>147.1</v>
+        <v>230.3</v>
       </c>
       <c r="N18">
-        <v>193.7</v>
+        <v>286.5</v>
       </c>
       <c r="O18">
-        <v>1.6</v>
+        <v>23.6</v>
       </c>
       <c r="P18">
-        <v>23.3</v>
+        <v>28.1</v>
       </c>
       <c r="Q18">
-        <v>0.9</v>
+        <v>9.1</v>
       </c>
       <c r="R18">
-        <v>12.1</v>
+        <v>10.7</v>
       </c>
       <c r="S18" t="s">
         <v>296</v>
@@ -7449,10 +7449,10 @@
         <v>2816</v>
       </c>
       <c r="W18">
-        <v>56.8</v>
+        <v>838.1</v>
       </c>
       <c r="X18">
-        <v>827.4</v>
+        <v>997.8</v>
       </c>
       <c r="Y18" t="s">
         <v>380</v>
@@ -7466,52 +7466,52 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="F19">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="G19">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>133.4</v>
       </c>
       <c r="J19">
-        <v>15.6</v>
+        <v>22.4</v>
       </c>
       <c r="K19">
         <v>1.96</v>
       </c>
       <c r="L19">
-        <v>13.7</v>
+        <v>19.6</v>
       </c>
       <c r="M19">
-        <v>36.3</v>
+        <v>113.8</v>
       </c>
       <c r="N19">
-        <v>63.7</v>
+        <v>153</v>
       </c>
       <c r="O19">
-        <v>12</v>
+        <v>58.6</v>
       </c>
       <c r="P19">
-        <v>13.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>43.9</v>
       </c>
       <c r="R19">
-        <v>26.7</v>
+        <v>18.4</v>
       </c>
       <c r="S19" t="s">
         <v>297</v>
@@ -7526,10 +7526,10 @@
         <v>2242</v>
       </c>
       <c r="W19">
-        <v>535.2</v>
+        <v>2613.7</v>
       </c>
       <c r="X19">
-        <v>611.1</v>
+        <v>874.3</v>
       </c>
       <c r="Y19" t="s">
         <v>381</v>
@@ -7543,52 +7543,52 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>12593</v>
+        <v>15793</v>
       </c>
       <c r="D20">
-        <v>11590</v>
+        <v>15109</v>
       </c>
       <c r="E20">
-        <v>12781</v>
+        <v>16302</v>
       </c>
       <c r="F20">
-        <v>13975</v>
+        <v>17386</v>
       </c>
       <c r="G20">
-        <v>12288</v>
+        <v>15956</v>
       </c>
       <c r="H20">
-        <v>12818</v>
+        <v>16411</v>
       </c>
       <c r="I20">
-        <v>12645.4</v>
+        <v>16109.2</v>
       </c>
       <c r="J20">
-        <v>778.5</v>
+        <v>747.2</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>682.4</v>
+        <v>654.9</v>
       </c>
       <c r="M20">
-        <v>11963</v>
+        <v>15454.3</v>
       </c>
       <c r="N20">
-        <v>13327.8</v>
+        <v>16764.10000000001</v>
       </c>
       <c r="O20">
-        <v>172.6</v>
+        <v>301.8</v>
       </c>
       <c r="P20">
-        <v>682.4</v>
+        <v>654.9</v>
       </c>
       <c r="Q20">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="R20">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="S20" t="s">
         <v>298</v>
@@ -7603,10 +7603,10 @@
         <v>126638</v>
       </c>
       <c r="W20">
-        <v>136.3</v>
+        <v>238.3</v>
       </c>
       <c r="X20">
-        <v>538.9</v>
+        <v>517.2</v>
       </c>
       <c r="Y20" t="s">
         <v>382</v>
@@ -7620,52 +7620,52 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>3814</v>
+        <v>5021</v>
       </c>
       <c r="D21">
-        <v>3439</v>
+        <v>4702</v>
       </c>
       <c r="E21">
-        <v>3853</v>
+        <v>5025</v>
       </c>
       <c r="F21">
-        <v>3802</v>
+        <v>4974</v>
       </c>
       <c r="G21">
-        <v>3529</v>
+        <v>4815</v>
       </c>
       <c r="H21">
-        <v>3195</v>
+        <v>4490</v>
       </c>
       <c r="I21">
-        <v>3687.4</v>
+        <v>4907.4</v>
       </c>
       <c r="J21">
-        <v>169.3</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>148.4</v>
+        <v>112.2</v>
       </c>
       <c r="M21">
-        <v>3539</v>
+        <v>4795.2</v>
       </c>
       <c r="N21">
-        <v>3835.8</v>
+        <v>5019.599999999999</v>
       </c>
       <c r="O21">
-        <v>-492.4</v>
+        <v>-417.4</v>
       </c>
       <c r="P21">
-        <v>148.4</v>
+        <v>112.2</v>
       </c>
       <c r="Q21">
-        <v>-13.4</v>
+        <v>-8.5</v>
       </c>
       <c r="R21">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="s">
         <v>299</v>
@@ -7680,10 +7680,10 @@
         <v>44968</v>
       </c>
       <c r="W21">
-        <v>-1095</v>
+        <v>-928.2</v>
       </c>
       <c r="X21">
-        <v>330</v>
+        <v>249.5</v>
       </c>
       <c r="Y21" t="s">
         <v>383</v>
@@ -7697,52 +7697,52 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>17159</v>
+        <v>21043</v>
       </c>
       <c r="D22">
-        <v>16267</v>
+        <v>20301</v>
       </c>
       <c r="E22">
-        <v>20617</v>
+        <v>24881</v>
       </c>
       <c r="F22">
-        <v>21044</v>
+        <v>25705</v>
       </c>
       <c r="G22">
-        <v>20373</v>
+        <v>25423</v>
       </c>
       <c r="H22">
-        <v>30765</v>
+        <v>37278</v>
       </c>
       <c r="I22">
-        <v>19092</v>
+        <v>23470.6</v>
       </c>
       <c r="J22">
-        <v>1974.5</v>
+        <v>2312.3</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>1730.7</v>
+        <v>2026.8</v>
       </c>
       <c r="M22">
-        <v>17361.3</v>
+        <v>21443.8</v>
       </c>
       <c r="N22">
-        <v>20822.7</v>
+        <v>25497.4</v>
       </c>
       <c r="O22">
-        <v>11673</v>
+        <v>13807.4</v>
       </c>
       <c r="P22">
-        <v>1730.7</v>
+        <v>2026.8</v>
       </c>
       <c r="Q22">
-        <v>61.1</v>
+        <v>58.8</v>
       </c>
       <c r="R22">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="S22" t="s">
         <v>300</v>
@@ -7757,10 +7757,10 @@
         <v>249754</v>
       </c>
       <c r="W22">
-        <v>4673.8</v>
+        <v>5528.4</v>
       </c>
       <c r="X22">
-        <v>693</v>
+        <v>811.5</v>
       </c>
       <c r="Y22" t="s">
         <v>384</v>
@@ -7774,52 +7774,52 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>8708</v>
+        <v>11058</v>
       </c>
       <c r="D23">
-        <v>7549</v>
+        <v>10066</v>
       </c>
       <c r="E23">
-        <v>8677</v>
+        <v>11272</v>
       </c>
       <c r="F23">
-        <v>9574</v>
+        <v>12334</v>
       </c>
       <c r="G23">
-        <v>9526</v>
+        <v>12545</v>
       </c>
       <c r="H23">
-        <v>11348</v>
+        <v>14252</v>
       </c>
       <c r="I23">
-        <v>8806.799999999999</v>
+        <v>11455</v>
       </c>
       <c r="J23">
-        <v>736.8</v>
+        <v>903.5</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>645.8</v>
+        <v>792</v>
       </c>
       <c r="M23">
-        <v>8160.999999999999</v>
+        <v>10663</v>
       </c>
       <c r="N23">
-        <v>9452.599999999999</v>
+        <v>12247</v>
       </c>
       <c r="O23">
-        <v>2541.2</v>
+        <v>2797</v>
       </c>
       <c r="P23">
-        <v>645.8</v>
+        <v>792</v>
       </c>
       <c r="Q23">
-        <v>28.9</v>
+        <v>24.4</v>
       </c>
       <c r="R23">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="S23" t="s">
         <v>301</v>
@@ -7834,10 +7834,10 @@
         <v>95220</v>
       </c>
       <c r="W23">
-        <v>2668.8</v>
+        <v>2937.4</v>
       </c>
       <c r="X23">
-        <v>678.2</v>
+        <v>831.8</v>
       </c>
       <c r="Y23" t="s">
         <v>385</v>
@@ -7851,52 +7851,52 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>5927</v>
+        <v>7807</v>
       </c>
       <c r="D24">
-        <v>5389</v>
+        <v>7114</v>
       </c>
       <c r="E24">
-        <v>6722</v>
+        <v>8467</v>
       </c>
       <c r="F24">
-        <v>6472</v>
+        <v>8411</v>
       </c>
       <c r="G24">
-        <v>6744</v>
+        <v>8669</v>
       </c>
       <c r="H24">
-        <v>7265</v>
+        <v>9766</v>
       </c>
       <c r="I24">
-        <v>6250.8</v>
+        <v>8093.6</v>
       </c>
       <c r="J24">
-        <v>521.9</v>
+        <v>568</v>
       </c>
       <c r="K24">
         <v>1.96</v>
       </c>
       <c r="L24">
-        <v>457.5</v>
+        <v>497.9</v>
       </c>
       <c r="M24">
-        <v>5793.3</v>
+        <v>7595.700000000001</v>
       </c>
       <c r="N24">
-        <v>6708.3</v>
+        <v>8591.5</v>
       </c>
       <c r="O24">
-        <v>1014.2</v>
+        <v>1672.4</v>
       </c>
       <c r="P24">
-        <v>457.5</v>
+        <v>497.9</v>
       </c>
       <c r="Q24">
-        <v>16.2</v>
+        <v>20.7</v>
       </c>
       <c r="R24">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="S24" t="s">
         <v>302</v>
@@ -7911,10 +7911,10 @@
         <v>118422</v>
       </c>
       <c r="W24">
-        <v>856.4</v>
+        <v>1412.2</v>
       </c>
       <c r="X24">
-        <v>386.4</v>
+        <v>420.5</v>
       </c>
       <c r="Y24" t="s">
         <v>386</v>
@@ -7928,52 +7928,52 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>1212</v>
+        <v>2354</v>
       </c>
       <c r="D25">
-        <v>1083</v>
+        <v>2129</v>
       </c>
       <c r="E25">
-        <v>1745</v>
+        <v>2837</v>
       </c>
       <c r="F25">
-        <v>1349</v>
+        <v>2603</v>
       </c>
       <c r="G25">
-        <v>1404</v>
+        <v>2663</v>
       </c>
       <c r="H25">
-        <v>1367</v>
+        <v>2984</v>
       </c>
       <c r="I25">
-        <v>1358.6</v>
+        <v>2517.2</v>
       </c>
       <c r="J25">
-        <v>223.1</v>
+        <v>248.3</v>
       </c>
       <c r="K25">
         <v>1.96</v>
       </c>
       <c r="L25">
-        <v>195.6</v>
+        <v>217.6</v>
       </c>
       <c r="M25">
-        <v>1163</v>
+        <v>2299.6</v>
       </c>
       <c r="N25">
-        <v>1554.2</v>
+        <v>2734.8</v>
       </c>
       <c r="O25">
-        <v>8.4</v>
+        <v>466.8</v>
       </c>
       <c r="P25">
-        <v>195.6</v>
+        <v>217.6</v>
       </c>
       <c r="Q25">
-        <v>0.6</v>
+        <v>18.5</v>
       </c>
       <c r="R25">
-        <v>12.6</v>
+        <v>9.4</v>
       </c>
       <c r="S25" t="s">
         <v>303</v>
@@ -7988,10 +7988,10 @@
         <v>35933</v>
       </c>
       <c r="W25">
-        <v>23.4</v>
+        <v>1299.1</v>
       </c>
       <c r="X25">
-        <v>544.3</v>
+        <v>605.6</v>
       </c>
       <c r="Y25" t="s">
         <v>387</v>
@@ -8005,52 +8005,52 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>1871</v>
+        <v>2237</v>
       </c>
       <c r="D26">
-        <v>1718</v>
+        <v>2123</v>
       </c>
       <c r="E26">
-        <v>2162</v>
+        <v>2525</v>
       </c>
       <c r="F26">
-        <v>1993</v>
+        <v>2351</v>
       </c>
       <c r="G26">
-        <v>1994</v>
+        <v>2381</v>
       </c>
       <c r="H26">
-        <v>2573</v>
+        <v>3035</v>
       </c>
       <c r="I26">
-        <v>1947.6</v>
+        <v>2323.4</v>
       </c>
       <c r="J26">
-        <v>147.5</v>
+        <v>135.9</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>129.3</v>
+        <v>119.1</v>
       </c>
       <c r="M26">
-        <v>1818.3</v>
+        <v>2204.3</v>
       </c>
       <c r="N26">
-        <v>2076.9</v>
+        <v>2442.5</v>
       </c>
       <c r="O26">
-        <v>625.4</v>
+        <v>711.6</v>
       </c>
       <c r="P26">
-        <v>129.3</v>
+        <v>119.1</v>
       </c>
       <c r="Q26">
-        <v>32.1</v>
+        <v>30.6</v>
       </c>
       <c r="R26">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="S26" t="s">
         <v>304</v>
@@ -8065,10 +8065,10 @@
         <v>25243</v>
       </c>
       <c r="W26">
-        <v>2477.5</v>
+        <v>2819</v>
       </c>
       <c r="X26">
-        <v>512.2</v>
+        <v>471.8</v>
       </c>
       <c r="Y26" t="s">
         <v>388</v>
@@ -8082,52 +8082,52 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>1001</v>
+        <v>1274</v>
       </c>
       <c r="D27">
-        <v>990</v>
+        <v>1285</v>
       </c>
       <c r="E27">
-        <v>1243</v>
+        <v>1542</v>
       </c>
       <c r="F27">
-        <v>1151</v>
+        <v>1439</v>
       </c>
       <c r="G27">
-        <v>1282</v>
+        <v>1642</v>
       </c>
       <c r="H27">
-        <v>1542</v>
+        <v>1943</v>
       </c>
       <c r="I27">
-        <v>1133.4</v>
+        <v>1436.4</v>
       </c>
       <c r="J27">
-        <v>120.4</v>
+        <v>143.3</v>
       </c>
       <c r="K27">
         <v>1.96</v>
       </c>
       <c r="L27">
-        <v>105.5</v>
+        <v>125.6</v>
       </c>
       <c r="M27">
-        <v>1027.9</v>
+        <v>1310.8</v>
       </c>
       <c r="N27">
-        <v>1238.9</v>
+        <v>1562</v>
       </c>
       <c r="O27">
-        <v>408.6</v>
+        <v>506.6</v>
       </c>
       <c r="P27">
-        <v>105.5</v>
+        <v>125.6</v>
       </c>
       <c r="Q27">
-        <v>36.1</v>
+        <v>35.3</v>
       </c>
       <c r="R27">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="S27" t="s">
         <v>305</v>
@@ -8142,10 +8142,10 @@
         <v>16727</v>
       </c>
       <c r="W27">
-        <v>2442.8</v>
+        <v>3028.6</v>
       </c>
       <c r="X27">
-        <v>630.7</v>
+        <v>750.9</v>
       </c>
       <c r="Y27" t="s">
         <v>389</v>
@@ -8159,52 +8159,52 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>30034</v>
+        <v>50484</v>
       </c>
       <c r="D28">
-        <v>23862</v>
+        <v>44937</v>
       </c>
       <c r="E28">
-        <v>29731</v>
+        <v>51437</v>
       </c>
       <c r="F28">
-        <v>31306</v>
+        <v>54104</v>
       </c>
       <c r="G28">
-        <v>29309</v>
+        <v>52693</v>
       </c>
       <c r="H28">
-        <v>31240</v>
+        <v>55118</v>
       </c>
       <c r="I28">
-        <v>28848.40000000001</v>
+        <v>50731</v>
       </c>
       <c r="J28">
-        <v>2580.7</v>
+        <v>3141.9</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>2262.1</v>
+        <v>2754</v>
       </c>
       <c r="M28">
-        <v>26586.30000000001</v>
+        <v>47977</v>
       </c>
       <c r="N28">
-        <v>31110.5</v>
+        <v>53485</v>
       </c>
       <c r="O28">
-        <v>2391.6</v>
+        <v>4387</v>
       </c>
       <c r="P28">
-        <v>2262.1</v>
+        <v>2754</v>
       </c>
       <c r="Q28">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="R28">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="S28" t="s">
         <v>306</v>
@@ -8219,10 +8219,10 @@
         <v>537190</v>
       </c>
       <c r="W28">
-        <v>445.2</v>
+        <v>816.7</v>
       </c>
       <c r="X28">
-        <v>421.1</v>
+        <v>512.6</v>
       </c>
       <c r="Y28" t="s">
         <v>390</v>
@@ -8236,52 +8236,52 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>8812</v>
+        <v>10809</v>
       </c>
       <c r="D29">
-        <v>8216</v>
+        <v>10087</v>
       </c>
       <c r="E29">
-        <v>8978</v>
+        <v>11007</v>
       </c>
       <c r="F29">
-        <v>9144</v>
+        <v>10952</v>
       </c>
       <c r="G29">
-        <v>8049</v>
+        <v>10028</v>
       </c>
       <c r="H29">
-        <v>7961</v>
+        <v>9729</v>
       </c>
       <c r="I29">
-        <v>8639.800000000001</v>
+        <v>10576.6</v>
       </c>
       <c r="J29">
-        <v>430.6</v>
+        <v>429.2</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>377.4</v>
+        <v>376.2</v>
       </c>
       <c r="M29">
-        <v>8262.400000000001</v>
+        <v>10200.4</v>
       </c>
       <c r="N29">
-        <v>9017.200000000001</v>
+        <v>10952.8</v>
       </c>
       <c r="O29">
-        <v>-678.8</v>
+        <v>-847.6</v>
       </c>
       <c r="P29">
-        <v>377.4</v>
+        <v>376.2</v>
       </c>
       <c r="Q29">
-        <v>-7.9</v>
+        <v>-8</v>
       </c>
       <c r="R29">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="S29" t="s">
         <v>307</v>
@@ -8296,10 +8296,10 @@
         <v>98303</v>
       </c>
       <c r="W29">
-        <v>-690.5</v>
+        <v>-862.2</v>
       </c>
       <c r="X29">
-        <v>383.9</v>
+        <v>382.7</v>
       </c>
       <c r="Y29" t="s">
         <v>391</v>
@@ -8349,13 +8349,13 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8369,13 +8369,13 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8389,13 +8389,13 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8409,13 +8409,13 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8429,13 +8429,13 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8449,13 +8449,13 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8469,13 +8469,13 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8489,13 +8489,13 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8509,13 +8509,13 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8529,13 +8529,13 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8549,13 +8549,13 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8569,13 +8569,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8589,13 +8589,13 @@
         <v>397</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8609,13 +8609,13 @@
         <v>397</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8629,13 +8629,13 @@
         <v>397</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8649,13 +8649,13 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8669,13 +8669,13 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8689,13 +8689,13 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8709,13 +8709,13 @@
         <v>31</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8729,13 +8729,13 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8749,13 +8749,13 @@
         <v>31</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8769,13 +8769,13 @@
         <v>32</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8789,13 +8789,13 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8809,13 +8809,13 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8829,13 +8829,13 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8849,13 +8849,13 @@
         <v>33</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8869,13 +8869,13 @@
         <v>33</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8889,13 +8889,13 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -8909,13 +8909,13 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8929,13 +8929,13 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8949,13 +8949,13 @@
         <v>35</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8969,13 +8969,13 @@
         <v>35</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8989,13 +8989,13 @@
         <v>35</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9009,13 +9009,13 @@
         <v>36</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9029,13 +9029,13 @@
         <v>36</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9049,13 +9049,13 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9129,13 +9129,13 @@
         <v>398</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9149,13 +9149,13 @@
         <v>398</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9169,13 +9169,13 @@
         <v>398</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -9189,13 +9189,13 @@
         <v>38</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9209,13 +9209,13 @@
         <v>38</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9229,13 +9229,13 @@
         <v>38</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9249,13 +9249,13 @@
         <v>39</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9269,13 +9269,13 @@
         <v>39</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9289,13 +9289,13 @@
         <v>39</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9309,13 +9309,13 @@
         <v>40</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9329,13 +9329,13 @@
         <v>40</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9349,13 +9349,13 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9369,13 +9369,13 @@
         <v>41</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9389,13 +9389,13 @@
         <v>41</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9409,13 +9409,13 @@
         <v>41</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9429,13 +9429,13 @@
         <v>42</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9449,13 +9449,13 @@
         <v>42</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9469,13 +9469,13 @@
         <v>42</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9489,13 +9489,13 @@
         <v>43</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9509,13 +9509,13 @@
         <v>43</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9529,13 +9529,13 @@
         <v>43</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9549,13 +9549,13 @@
         <v>44</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9569,13 +9569,13 @@
         <v>44</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9589,13 +9589,13 @@
         <v>44</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9609,13 +9609,13 @@
         <v>45</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9629,13 +9629,13 @@
         <v>45</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9649,13 +9649,13 @@
         <v>45</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9669,13 +9669,13 @@
         <v>46</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9689,13 +9689,13 @@
         <v>46</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9709,13 +9709,13 @@
         <v>46</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9729,13 +9729,13 @@
         <v>47</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9749,13 +9749,13 @@
         <v>47</v>
       </c>
       <c r="D72">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9769,13 +9769,13 @@
         <v>47</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9789,13 +9789,13 @@
         <v>48</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9809,13 +9809,13 @@
         <v>48</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9829,13 +9829,13 @@
         <v>48</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9849,13 +9849,13 @@
         <v>49</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -9869,13 +9869,13 @@
         <v>49</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9889,13 +9889,13 @@
         <v>49</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9909,13 +9909,13 @@
         <v>50</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -9929,13 +9929,13 @@
         <v>50</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -9949,13 +9949,13 @@
         <v>50</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9969,13 +9969,13 @@
         <v>51</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9989,13 +9989,13 @@
         <v>51</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -10009,13 +10009,13 @@
         <v>51</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10029,13 +10029,13 @@
         <v>52</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -10049,13 +10049,13 @@
         <v>52</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10069,13 +10069,13 @@
         <v>52</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10089,13 +10089,13 @@
         <v>53</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -10109,13 +10109,13 @@
         <v>53</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -10129,13 +10129,13 @@
         <v>53</v>
       </c>
       <c r="D91">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -10149,13 +10149,13 @@
         <v>399</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10169,13 +10169,13 @@
         <v>399</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10189,13 +10189,13 @@
         <v>399</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
